--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -44,32 +44,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CREATE, MODIFY, CREATE/MODIFY, DELETE</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
   <si>
     <t>Variable</t>
   </si>
@@ -219,18 +195,34 @@
   </si>
   <si>
     <t>BE_TARGET_STRING</t>
+  </si>
+  <si>
+    <t>VariableType</t>
+  </si>
+  <si>
+    <t>CATEGORICAL</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -254,6 +246,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -270,8 +282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFAC2524"/>
       </patternFill>
     </fill>
   </fills>
@@ -284,21 +295,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Variable" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,7 +410,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>146925</xdr:rowOff>
+      <xdr:rowOff>118350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -452,7 +468,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>146925</xdr:rowOff>
+      <xdr:rowOff>118350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -510,7 +526,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>146925</xdr:rowOff>
+      <xdr:rowOff>118350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -568,7 +584,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>146925</xdr:rowOff>
+      <xdr:rowOff>118350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -626,7 +642,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>146925</xdr:rowOff>
+      <xdr:rowOff>118350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1319,11 +1335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,124 +1353,134 @@
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="1023" width="8.7109375"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="1023" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="6">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="6">
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1462,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,154 +1629,154 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1814,7 +1840,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1867,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1868,7 +1894,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1895,7 +1921,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1924,7 +1950,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1951,7 +1977,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="57">
   <si>
     <t>Variable</t>
   </si>
@@ -194,9 +194,6 @@
     <t>BE_SNDG_STRING</t>
   </si>
   <si>
-    <t>BE_TARGET_STRING</t>
-  </si>
-  <si>
     <t>VariableType</t>
   </si>
   <si>
@@ -204,6 +201,21 @@
   </si>
   <si>
     <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>BE_IND_3</t>
+  </si>
+  <si>
+    <t>IND_3</t>
+  </si>
+  <si>
+    <t>BE_IND_3_STRING</t>
+  </si>
+  <si>
+    <t>BE_TARGET_REAL</t>
+  </si>
+  <si>
+    <t>3-Descr AFU</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1363,7 @@
     <col min="5" max="6" width="17.5703125"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="1023" width="8.7109375"/>
@@ -1401,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
@@ -1427,7 +1439,7 @@
         <v>42</v>
       </c>
       <c r="G3" s="6">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>13</v>
@@ -1436,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>13</v>
@@ -1462,7 +1474,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="6">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>12</v>
@@ -1471,10 +1483,45 @@
         <v>12</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1486,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,16 +1601,33 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="117">
   <si>
     <t>Variable</t>
   </si>
@@ -215,19 +215,206 @@
     <t>BE_TARGET_REAL</t>
   </si>
   <si>
-    <t>3-Descr AFU</t>
+    <t>IND_7</t>
+  </si>
+  <si>
+    <t>IND_8</t>
+  </si>
+  <si>
+    <t>IND_9</t>
+  </si>
+  <si>
+    <t>IND_14</t>
+  </si>
+  <si>
+    <t>IND_16</t>
+  </si>
+  <si>
+    <t>BE_IND_1</t>
+  </si>
+  <si>
+    <t>BE_IND_2</t>
+  </si>
+  <si>
+    <t>BE_IND_7</t>
+  </si>
+  <si>
+    <t>BE_IND_8</t>
+  </si>
+  <si>
+    <t>BE_IND_9</t>
+  </si>
+  <si>
+    <t>BE_IND_14</t>
+  </si>
+  <si>
+    <t>BE_IND_16</t>
+  </si>
+  <si>
+    <t>BE_IND_34</t>
+  </si>
+  <si>
+    <t>BE_IND_35</t>
+  </si>
+  <si>
+    <t>BE_IND_40</t>
+  </si>
+  <si>
+    <t>BE_IND_44</t>
+  </si>
+  <si>
+    <t>BE_IND_48</t>
+  </si>
+  <si>
+    <t>BE_IND_51</t>
+  </si>
+  <si>
+    <t>BE_IND_55</t>
+  </si>
+  <si>
+    <t>BE_IND_56</t>
+  </si>
+  <si>
+    <t>IND_1</t>
+  </si>
+  <si>
+    <t>IND_2</t>
+  </si>
+  <si>
+    <t>IND_34</t>
+  </si>
+  <si>
+    <t>IND_35</t>
+  </si>
+  <si>
+    <t>IND_40</t>
+  </si>
+  <si>
+    <t>IND_44</t>
+  </si>
+  <si>
+    <t>IND_48</t>
+  </si>
+  <si>
+    <t>IND_51</t>
+  </si>
+  <si>
+    <t>IND_55</t>
+  </si>
+  <si>
+    <t>IND_56</t>
+  </si>
+  <si>
+    <t>1 - Days past due</t>
+  </si>
+  <si>
+    <t>3 - Blocked accounts</t>
+  </si>
+  <si>
+    <t>7 - Overdue amount/exposure amount</t>
+  </si>
+  <si>
+    <t>16 - Default</t>
+  </si>
+  <si>
+    <t>44 - Past due amount</t>
+  </si>
+  <si>
+    <t>56 - Outstanding + overdue/Approved amount for loans</t>
+  </si>
+  <si>
+    <t>2 - Past Due &gt; 90</t>
+  </si>
+  <si>
+    <t>9 - Delta turnover</t>
+  </si>
+  <si>
+    <t>35 - Delta equity</t>
+  </si>
+  <si>
+    <t>48 - Debt Service Coverage Ratio</t>
+  </si>
+  <si>
+    <t>51 - Overdraft</t>
+  </si>
+  <si>
+    <t>55 - Forborne NPE</t>
+  </si>
+  <si>
+    <t>8 - Account turnover oscillation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Number of business current accounts </t>
+  </si>
+  <si>
+    <t>34 - Negative own equity</t>
+  </si>
+  <si>
+    <t>40 - Loan to value ratio</t>
+  </si>
+  <si>
+    <t>BE_IND_2_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_16_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_9_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_34_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_51_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_1_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_7_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_8_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_14_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_35_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_40_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_44_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_48_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_55_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_56_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -309,20 +496,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1348,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,37 +1678,562 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>34</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14">
+        <v>35</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>44</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17">
+        <v>48</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>51</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20">
+        <v>56</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1533,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="3" sqref="A21:XFD21 A20:XFD20 A14:XFD14 A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,16 +2331,271 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1316,7 +1311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1351,7 +1346,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1528,7 +1523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1538,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,8 +1703,8 @@
       <c r="J5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>13</v>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1813,8 +1808,8 @@
       <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
+      <c r="K8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1848,8 +1843,8 @@
       <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>13</v>
+      <c r="K9" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,8 +1913,8 @@
       <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
+      <c r="K11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,8 +2018,8 @@
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>13</v>
+      <c r="K14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2058,8 +2053,8 @@
       <c r="J15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
+      <c r="K15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,8 +2088,8 @@
       <c r="J16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
+      <c r="K16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2128,8 +2123,8 @@
       <c r="J17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>13</v>
+      <c r="K17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2198,8 +2193,8 @@
       <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
+      <c r="K19" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,8 +2228,8 @@
       <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>13</v>
+      <c r="K20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2248,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="3" sqref="A21:XFD21 A20:XFD20 A14:XFD14 A11:XFD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="461">
   <si>
     <t>Variable</t>
   </si>
@@ -391,6 +396,1038 @@
   </si>
   <si>
     <t>BE_IND_56_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_58</t>
+  </si>
+  <si>
+    <t>BE_IND_59</t>
+  </si>
+  <si>
+    <t>BE_IND_60</t>
+  </si>
+  <si>
+    <t>BE_IND_61</t>
+  </si>
+  <si>
+    <t>BE_IND_62</t>
+  </si>
+  <si>
+    <t>BE_IND_63</t>
+  </si>
+  <si>
+    <t>BE_IND_64</t>
+  </si>
+  <si>
+    <t>BE_IND_66</t>
+  </si>
+  <si>
+    <t>BE_IND_68</t>
+  </si>
+  <si>
+    <t>BE_IND_69</t>
+  </si>
+  <si>
+    <t>BE_IND_70</t>
+  </si>
+  <si>
+    <t>BE_IND_71</t>
+  </si>
+  <si>
+    <t>BE_IND_74</t>
+  </si>
+  <si>
+    <t>BE_IND_75</t>
+  </si>
+  <si>
+    <t>BE_IND_76</t>
+  </si>
+  <si>
+    <t>BE_IND_77</t>
+  </si>
+  <si>
+    <t>BE_IND_78</t>
+  </si>
+  <si>
+    <t>BE_IND_79</t>
+  </si>
+  <si>
+    <t>BE_IND_80</t>
+  </si>
+  <si>
+    <t>BE_IND_81</t>
+  </si>
+  <si>
+    <t>BE_IND_82</t>
+  </si>
+  <si>
+    <t>BE_IND_83</t>
+  </si>
+  <si>
+    <t>BE_IND_84</t>
+  </si>
+  <si>
+    <t>BE_IND_85</t>
+  </si>
+  <si>
+    <t>BE_IND_86</t>
+  </si>
+  <si>
+    <t>BE_IND_87</t>
+  </si>
+  <si>
+    <t>BE_IND_88</t>
+  </si>
+  <si>
+    <t>BE_IND_89</t>
+  </si>
+  <si>
+    <t>BE_IND_90</t>
+  </si>
+  <si>
+    <t>BE_IND_92</t>
+  </si>
+  <si>
+    <t>BE_IND_95</t>
+  </si>
+  <si>
+    <t>BE_IND_96</t>
+  </si>
+  <si>
+    <t>BE_IND_97</t>
+  </si>
+  <si>
+    <t>BE_IND_98</t>
+  </si>
+  <si>
+    <t>BE_IND_99</t>
+  </si>
+  <si>
+    <t>BE_IND_100</t>
+  </si>
+  <si>
+    <t>BE_IND_102</t>
+  </si>
+  <si>
+    <t>BE_IND_103</t>
+  </si>
+  <si>
+    <t>BE_IND_104</t>
+  </si>
+  <si>
+    <t>BE_IND_105</t>
+  </si>
+  <si>
+    <t>BE_IND_106</t>
+  </si>
+  <si>
+    <t>BE_IND_107</t>
+  </si>
+  <si>
+    <t>BE_IND_108</t>
+  </si>
+  <si>
+    <t>BE_IND_109</t>
+  </si>
+  <si>
+    <t>BE_IND_110</t>
+  </si>
+  <si>
+    <t>BE_IND_111</t>
+  </si>
+  <si>
+    <t>BE_IND_112</t>
+  </si>
+  <si>
+    <t>BE_IND_113</t>
+  </si>
+  <si>
+    <t>BE_IND_114</t>
+  </si>
+  <si>
+    <t>BE_IND_115</t>
+  </si>
+  <si>
+    <t>BE_IND_116</t>
+  </si>
+  <si>
+    <t>BE_IND_118</t>
+  </si>
+  <si>
+    <t>BE_IND_120</t>
+  </si>
+  <si>
+    <t>BE_IND_124</t>
+  </si>
+  <si>
+    <t>BE_IND_125</t>
+  </si>
+  <si>
+    <t>BE_IND_126</t>
+  </si>
+  <si>
+    <t>BE_IND_127</t>
+  </si>
+  <si>
+    <t>BE_IND_128</t>
+  </si>
+  <si>
+    <t>BE_IND_129</t>
+  </si>
+  <si>
+    <t>BE_IND_130</t>
+  </si>
+  <si>
+    <t>BE_IND_131</t>
+  </si>
+  <si>
+    <t>BE_IND_132</t>
+  </si>
+  <si>
+    <t>BE_IND_133</t>
+  </si>
+  <si>
+    <t>BE_IND_172</t>
+  </si>
+  <si>
+    <t>BE_IND_173</t>
+  </si>
+  <si>
+    <t>BE_IND_174</t>
+  </si>
+  <si>
+    <t>BE_IND_175</t>
+  </si>
+  <si>
+    <t>BE_IND_180</t>
+  </si>
+  <si>
+    <t>BE_IND_181</t>
+  </si>
+  <si>
+    <t>BE_IND_182</t>
+  </si>
+  <si>
+    <t>BE_IND_183</t>
+  </si>
+  <si>
+    <t>BE_IND_186</t>
+  </si>
+  <si>
+    <t>BE_IND_187</t>
+  </si>
+  <si>
+    <t>BE_IND_188</t>
+  </si>
+  <si>
+    <t>BE_IND_193</t>
+  </si>
+  <si>
+    <t>BE_IND_197</t>
+  </si>
+  <si>
+    <t>BE_IND_201</t>
+  </si>
+  <si>
+    <t>BE_IND_205</t>
+  </si>
+  <si>
+    <t>BE_IND_211</t>
+  </si>
+  <si>
+    <t>BE_IND_212</t>
+  </si>
+  <si>
+    <t>BE_IND_213</t>
+  </si>
+  <si>
+    <t>BE_IND_215</t>
+  </si>
+  <si>
+    <t>BE_IND_216</t>
+  </si>
+  <si>
+    <t>BE_IND_217</t>
+  </si>
+  <si>
+    <t>BE_IND_218</t>
+  </si>
+  <si>
+    <t>IND_58</t>
+  </si>
+  <si>
+    <t>IND_59</t>
+  </si>
+  <si>
+    <t>IND_60</t>
+  </si>
+  <si>
+    <t>IND_61</t>
+  </si>
+  <si>
+    <t>IND_62</t>
+  </si>
+  <si>
+    <t>IND_63</t>
+  </si>
+  <si>
+    <t>IND_64</t>
+  </si>
+  <si>
+    <t>IND_66</t>
+  </si>
+  <si>
+    <t>IND_68</t>
+  </si>
+  <si>
+    <t>IND_69</t>
+  </si>
+  <si>
+    <t>IND_70</t>
+  </si>
+  <si>
+    <t>IND_71</t>
+  </si>
+  <si>
+    <t>IND_74</t>
+  </si>
+  <si>
+    <t>IND_75</t>
+  </si>
+  <si>
+    <t>IND_76</t>
+  </si>
+  <si>
+    <t>IND_77</t>
+  </si>
+  <si>
+    <t>IND_78</t>
+  </si>
+  <si>
+    <t>IND_79</t>
+  </si>
+  <si>
+    <t>IND_80</t>
+  </si>
+  <si>
+    <t>IND_81</t>
+  </si>
+  <si>
+    <t>IND_82</t>
+  </si>
+  <si>
+    <t>IND_83</t>
+  </si>
+  <si>
+    <t>IND_84</t>
+  </si>
+  <si>
+    <t>IND_85</t>
+  </si>
+  <si>
+    <t>IND_86</t>
+  </si>
+  <si>
+    <t>IND_87</t>
+  </si>
+  <si>
+    <t>IND_88</t>
+  </si>
+  <si>
+    <t>IND_89</t>
+  </si>
+  <si>
+    <t>IND_90</t>
+  </si>
+  <si>
+    <t>IND_92</t>
+  </si>
+  <si>
+    <t>IND_95</t>
+  </si>
+  <si>
+    <t>IND_96</t>
+  </si>
+  <si>
+    <t>IND_97</t>
+  </si>
+  <si>
+    <t>IND_98</t>
+  </si>
+  <si>
+    <t>IND_99</t>
+  </si>
+  <si>
+    <t>IND_100</t>
+  </si>
+  <si>
+    <t>IND_102</t>
+  </si>
+  <si>
+    <t>IND_103</t>
+  </si>
+  <si>
+    <t>IND_104</t>
+  </si>
+  <si>
+    <t>IND_105</t>
+  </si>
+  <si>
+    <t>IND_106</t>
+  </si>
+  <si>
+    <t>IND_107</t>
+  </si>
+  <si>
+    <t>IND_108</t>
+  </si>
+  <si>
+    <t>IND_109</t>
+  </si>
+  <si>
+    <t>IND_110</t>
+  </si>
+  <si>
+    <t>IND_111</t>
+  </si>
+  <si>
+    <t>IND_112</t>
+  </si>
+  <si>
+    <t>IND_113</t>
+  </si>
+  <si>
+    <t>IND_114</t>
+  </si>
+  <si>
+    <t>IND_115</t>
+  </si>
+  <si>
+    <t>IND_116</t>
+  </si>
+  <si>
+    <t>IND_118</t>
+  </si>
+  <si>
+    <t>IND_120</t>
+  </si>
+  <si>
+    <t>IND_124</t>
+  </si>
+  <si>
+    <t>IND_125</t>
+  </si>
+  <si>
+    <t>IND_126</t>
+  </si>
+  <si>
+    <t>IND_127</t>
+  </si>
+  <si>
+    <t>IND_128</t>
+  </si>
+  <si>
+    <t>IND_129</t>
+  </si>
+  <si>
+    <t>IND_130</t>
+  </si>
+  <si>
+    <t>IND_131</t>
+  </si>
+  <si>
+    <t>IND_132</t>
+  </si>
+  <si>
+    <t>IND_133</t>
+  </si>
+  <si>
+    <t>IND_172</t>
+  </si>
+  <si>
+    <t>IND_173</t>
+  </si>
+  <si>
+    <t>IND_174</t>
+  </si>
+  <si>
+    <t>IND_175</t>
+  </si>
+  <si>
+    <t>IND_180</t>
+  </si>
+  <si>
+    <t>IND_181</t>
+  </si>
+  <si>
+    <t>IND_182</t>
+  </si>
+  <si>
+    <t>IND_183</t>
+  </si>
+  <si>
+    <t>IND_186</t>
+  </si>
+  <si>
+    <t>IND_187</t>
+  </si>
+  <si>
+    <t>IND_188</t>
+  </si>
+  <si>
+    <t>IND_193</t>
+  </si>
+  <si>
+    <t>IND_197</t>
+  </si>
+  <si>
+    <t>IND_201</t>
+  </si>
+  <si>
+    <t>IND_205</t>
+  </si>
+  <si>
+    <t>IND_211</t>
+  </si>
+  <si>
+    <t>IND_212</t>
+  </si>
+  <si>
+    <t>IND_213</t>
+  </si>
+  <si>
+    <t>IND_215</t>
+  </si>
+  <si>
+    <t>IND_216</t>
+  </si>
+  <si>
+    <t>IND_217</t>
+  </si>
+  <si>
+    <t>IND_218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 - Months with overdue </t>
+  </si>
+  <si>
+    <t>59 - Current accounts average balance - last 12 months</t>
+  </si>
+  <si>
+    <t>60 - Current accounts average inflows - last 12 months</t>
+  </si>
+  <si>
+    <t>61 - Currents accounts outflows average - last 12 months</t>
+  </si>
+  <si>
+    <t>62 - Current accounts std deviation - last 12 months</t>
+  </si>
+  <si>
+    <t>63 - Current accounts inflows std deviation - last 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 - Total debt/EBITDA </t>
+  </si>
+  <si>
+    <t>66 - Max debt/EBITDA - 1 year</t>
+  </si>
+  <si>
+    <t>68 - Max debt/turnover - 1 year</t>
+  </si>
+  <si>
+    <t>69 - Cash - change</t>
+  </si>
+  <si>
+    <t>70 - Working capital - change</t>
+  </si>
+  <si>
+    <t>71 - Cost of goods sold - change</t>
+  </si>
+  <si>
+    <t>74 - Short term assets - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 - Short term assets/short term liabilities </t>
+  </si>
+  <si>
+    <t>76 - Short term assets/short term liabilities - change</t>
+  </si>
+  <si>
+    <t>77 - Short term liabilities - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78 - Short term liabilities/total assets </t>
+  </si>
+  <si>
+    <t>79 - Short term liabilities/total assets - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 - Debtors turnover </t>
+  </si>
+  <si>
+    <t>81 - Debtors turnover - change</t>
+  </si>
+  <si>
+    <t>82 - EBIT - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83 - EBIT change/net debt change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 - EBIT change/total assets change </t>
+  </si>
+  <si>
+    <t>85 - EBITDA - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86 - EBITDA change/net debt change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87 - EBITDA change/total assets change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 - EBITDA/turnover </t>
+  </si>
+  <si>
+    <t>89 - EBITDA/turnover - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 - Interest expenses/short term liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 - Interest expenses/total liabilities </t>
+  </si>
+  <si>
+    <t>95 - Gross margin - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 - Gross margin/sales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 - Gross margin/sales change </t>
+  </si>
+  <si>
+    <t>98 - Tangible net worth - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 - Interest cover </t>
+  </si>
+  <si>
+    <t>100 - Interest cover - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 - Labour cost/sales </t>
+  </si>
+  <si>
+    <t>103 - Labour cost/sales  - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104 - Liquidity gap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 - Material costs/sales </t>
+  </si>
+  <si>
+    <t>106 - Material costs/sales - change</t>
+  </si>
+  <si>
+    <t>107 - Net debt - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 - Net debt/EBITDA </t>
+  </si>
+  <si>
+    <t>109 - Net debt/EBITDA - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 - Net debt/tangible net worth </t>
+  </si>
+  <si>
+    <t>111 - Net debt/tangible net worth - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 - Net debt/turnover </t>
+  </si>
+  <si>
+    <t>113 - Net debt/turnover - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 - Net Income change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 - Net income/turnover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">116 - Net Income/turnover change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 - Interest expenses/short term liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 - Interest expenses/total liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">124 - Quick ratio </t>
+  </si>
+  <si>
+    <t>125 - Quick ratio - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126 - Return on sales </t>
+  </si>
+  <si>
+    <t>127 - Return on sales - change</t>
+  </si>
+  <si>
+    <t>128 - Short term debt - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129 - Stock turnover </t>
+  </si>
+  <si>
+    <t>130 - Stock turnover - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131 - Total debt/turnover </t>
+  </si>
+  <si>
+    <t>132 - Total debt/turnover - change</t>
+  </si>
+  <si>
+    <t>133 - Turnover - change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172 - Decrease in current accounts inflows in last month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">173 - Decrease in outflows in current accounts in last month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">174 - Account cumulated inflows in current accounts in the month &gt; credit line * 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 - Account cumulated outflows in current accounts  in the month &gt; credit line * 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 - Monthly cumulated inflows/credit line </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 - Monthly cumulated outflows/monthly cumulated inflows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">182 - Monthly cumulated outflows/credit line </t>
+  </si>
+  <si>
+    <t xml:space="preserve">183 - (Cumulated monthly Inflows + cumulated monthly outflows)/credit line </t>
+  </si>
+  <si>
+    <t xml:space="preserve">186 - Number of monthly outflow transactions in current accounts/number of monthly inflow transactions in current accounts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">187 - Monthly cumulated inflows amount in current accounts- variation in the last month </t>
+  </si>
+  <si>
+    <t>188 - Monthly cumulated outflows amount in current accounts - variation in the last month</t>
+  </si>
+  <si>
+    <t>193 - Amount of unpaid overdue - loans</t>
+  </si>
+  <si>
+    <t>197 - Amount of unpaid instalments - loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 - Overdue amount/Approved amount for loans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">205 - Overdue amount/initial approved amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 - Number of days from last delinquency on loans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">212 - Number of entries in blockade in last twelve months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">213 - Total number of days in blockade in last six months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 - Max number of consecutive days where daily utilization of overdraft-a was more than 50% of the limit in last 6 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">216 - Number of days in which client did not use overdraft during the month (calculated daily when this happens) in last 6 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 - Number of days when client exceeded overdraft limit in last 12 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 - Maximum number of consecutive days in which client exceeded overdraft limit in last 6 months </t>
+  </si>
+  <si>
+    <t>BE_IND_58_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_59_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_60_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_61_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_62_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_63_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_64_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_66_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_68_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_69_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_70_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_71_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_74_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_75_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_76_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_77_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_78_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_79_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_80_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_81_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_82_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_83_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_84_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_85_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_86_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_87_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_88_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_89_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_90_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_92_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_95_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_96_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_97_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_98_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_99_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_100_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_102_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_103_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_104_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_105_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_106_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_107_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_108_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_109_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_111_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_110_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_112_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_113_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_114_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_115_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_116_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_118_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_120_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_124_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_125_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_126_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_127_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_128_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_129_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_130_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_131_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_132_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_133_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_172_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_173_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_174_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_175_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_180_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_181_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_182_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_183_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_186_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_187_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_188_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_193_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_197_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_201_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_205_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_211_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_212_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_213_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_215_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_216_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_217_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_218_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_94_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_94</t>
+  </si>
+  <si>
+    <t>IND_94</t>
+  </si>
+  <si>
+    <t>94  - Gross margin</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +2560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1531,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="G46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +2580,8 @@
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625"/>
-    <col min="5" max="6" width="17.5703125"/>
+    <col min="5" max="5" width="17.5703125"/>
+    <col min="6" max="6" width="118.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -2232,6 +3270,3016 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21">
+        <v>58</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22">
+        <v>59</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24">
+        <v>61</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25">
+        <v>62</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26">
+        <v>63</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27">
+        <v>64</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28">
+        <v>66</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29">
+        <v>68</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" t="s">
+        <v>296</v>
+      </c>
+      <c r="G30">
+        <v>69</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32">
+        <v>71</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33">
+        <v>74</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34">
+        <v>75</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35">
+        <v>76</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36">
+        <v>77</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37">
+        <v>78</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38">
+        <v>79</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39">
+        <v>80</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40">
+        <v>81</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41">
+        <v>82</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42">
+        <v>83</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43">
+        <v>84</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44">
+        <v>85</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45">
+        <v>86</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46">
+        <v>87</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47">
+        <v>88</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48">
+        <v>89</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49">
+        <v>90</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50">
+        <v>92</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" t="s">
+        <v>458</v>
+      </c>
+      <c r="D51" t="s">
+        <v>458</v>
+      </c>
+      <c r="E51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F51" t="s">
+        <v>460</v>
+      </c>
+      <c r="G51">
+        <v>94</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" t="s">
+        <v>317</v>
+      </c>
+      <c r="G52">
+        <v>95</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53">
+        <v>96</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" t="s">
+        <v>319</v>
+      </c>
+      <c r="G54">
+        <v>97</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55">
+        <v>98</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" t="s">
+        <v>321</v>
+      </c>
+      <c r="G56">
+        <v>99</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" t="s">
+        <v>237</v>
+      </c>
+      <c r="F57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" t="s">
+        <v>323</v>
+      </c>
+      <c r="G58">
+        <v>102</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" t="s">
+        <v>324</v>
+      </c>
+      <c r="G59">
+        <v>103</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60">
+        <v>104</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61">
+        <v>105</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62">
+        <v>106</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63">
+        <v>107</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" t="s">
+        <v>244</v>
+      </c>
+      <c r="F64" t="s">
+        <v>329</v>
+      </c>
+      <c r="G64">
+        <v>108</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" t="s">
+        <v>330</v>
+      </c>
+      <c r="G65">
+        <v>109</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" t="s">
+        <v>331</v>
+      </c>
+      <c r="G66">
+        <v>110</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" t="s">
+        <v>332</v>
+      </c>
+      <c r="G67">
+        <v>111</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68" t="s">
+        <v>333</v>
+      </c>
+      <c r="G68">
+        <v>112</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" t="s">
+        <v>334</v>
+      </c>
+      <c r="G69">
+        <v>113</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" t="s">
+        <v>250</v>
+      </c>
+      <c r="F70" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70">
+        <v>114</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F71" t="s">
+        <v>336</v>
+      </c>
+      <c r="G71">
+        <v>115</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" t="s">
+        <v>252</v>
+      </c>
+      <c r="F72" t="s">
+        <v>337</v>
+      </c>
+      <c r="G72">
+        <v>116</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" t="s">
+        <v>338</v>
+      </c>
+      <c r="G73">
+        <v>118</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" t="s">
+        <v>339</v>
+      </c>
+      <c r="G74">
+        <v>120</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" t="s">
+        <v>340</v>
+      </c>
+      <c r="G75">
+        <v>124</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" t="s">
+        <v>341</v>
+      </c>
+      <c r="G76">
+        <v>125</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" t="s">
+        <v>342</v>
+      </c>
+      <c r="G77">
+        <v>126</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" t="s">
+        <v>343</v>
+      </c>
+      <c r="G78">
+        <v>127</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F79" t="s">
+        <v>344</v>
+      </c>
+      <c r="G79">
+        <v>128</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" t="s">
+        <v>345</v>
+      </c>
+      <c r="G80">
+        <v>129</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" t="s">
+        <v>346</v>
+      </c>
+      <c r="G81">
+        <v>130</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G82">
+        <v>131</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" t="s">
+        <v>348</v>
+      </c>
+      <c r="G83">
+        <v>132</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" t="s">
+        <v>349</v>
+      </c>
+      <c r="G84">
+        <v>133</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" t="s">
+        <v>350</v>
+      </c>
+      <c r="G85">
+        <v>172</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" t="s">
+        <v>351</v>
+      </c>
+      <c r="G86">
+        <v>173</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87">
+        <v>174</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" t="s">
+        <v>353</v>
+      </c>
+      <c r="G88">
+        <v>175</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F89" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89">
+        <v>180</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90">
+        <v>181</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" t="s">
+        <v>271</v>
+      </c>
+      <c r="F91" t="s">
+        <v>356</v>
+      </c>
+      <c r="G91">
+        <v>182</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" t="s">
+        <v>272</v>
+      </c>
+      <c r="F92" t="s">
+        <v>357</v>
+      </c>
+      <c r="G92">
+        <v>183</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" t="s">
+        <v>273</v>
+      </c>
+      <c r="F93" t="s">
+        <v>358</v>
+      </c>
+      <c r="G93">
+        <v>186</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94" t="s">
+        <v>359</v>
+      </c>
+      <c r="G94">
+        <v>187</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" t="s">
+        <v>275</v>
+      </c>
+      <c r="F95" t="s">
+        <v>360</v>
+      </c>
+      <c r="G95">
+        <v>188</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" t="s">
+        <v>276</v>
+      </c>
+      <c r="F96" t="s">
+        <v>361</v>
+      </c>
+      <c r="G96">
+        <v>193</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" t="s">
+        <v>277</v>
+      </c>
+      <c r="F97" t="s">
+        <v>362</v>
+      </c>
+      <c r="G97">
+        <v>197</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" t="s">
+        <v>278</v>
+      </c>
+      <c r="F98" t="s">
+        <v>363</v>
+      </c>
+      <c r="G98">
+        <v>201</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" t="s">
+        <v>279</v>
+      </c>
+      <c r="F99" t="s">
+        <v>364</v>
+      </c>
+      <c r="G99">
+        <v>205</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" t="s">
+        <v>195</v>
+      </c>
+      <c r="E100" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" t="s">
+        <v>365</v>
+      </c>
+      <c r="G100">
+        <v>211</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" t="s">
+        <v>281</v>
+      </c>
+      <c r="F101" t="s">
+        <v>366</v>
+      </c>
+      <c r="G101">
+        <v>212</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" t="s">
+        <v>282</v>
+      </c>
+      <c r="F102" t="s">
+        <v>367</v>
+      </c>
+      <c r="G102">
+        <v>213</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" t="s">
+        <v>283</v>
+      </c>
+      <c r="F103" t="s">
+        <v>368</v>
+      </c>
+      <c r="G103">
+        <v>215</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" t="s">
+        <v>284</v>
+      </c>
+      <c r="F104" t="s">
+        <v>369</v>
+      </c>
+      <c r="G104">
+        <v>216</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" t="s">
+        <v>200</v>
+      </c>
+      <c r="E105" t="s">
+        <v>285</v>
+      </c>
+      <c r="F105" t="s">
+        <v>370</v>
+      </c>
+      <c r="G105">
+        <v>217</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" t="s">
+        <v>286</v>
+      </c>
+      <c r="F106" t="s">
+        <v>371</v>
+      </c>
+      <c r="G106">
+        <v>218</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2241,10 +6289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,11 +6641,1473 @@
         <v>22</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" t="s">
+        <v>384</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" t="s">
+        <v>389</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" t="s">
+        <v>390</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>392</v>
+      </c>
+      <c r="C41" t="s">
+        <v>392</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" t="s">
+        <v>394</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C45" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
+      <c r="E46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>398</v>
+      </c>
+      <c r="C47" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C48" t="s">
+        <v>399</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" t="s">
+        <v>400</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50" t="s">
+        <v>401</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>457</v>
+      </c>
+      <c r="C51" t="s">
+        <v>457</v>
+      </c>
+      <c r="E51" t="s">
+        <v>458</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" t="s">
+        <v>403</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>405</v>
+      </c>
+      <c r="C55" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C57" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" t="s">
+        <v>408</v>
+      </c>
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" t="s">
+        <v>410</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C61" t="s">
+        <v>411</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>412</v>
+      </c>
+      <c r="C62" t="s">
+        <v>412</v>
+      </c>
+      <c r="E62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>413</v>
+      </c>
+      <c r="C63" t="s">
+        <v>413</v>
+      </c>
+      <c r="E63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C64" t="s">
+        <v>414</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>415</v>
+      </c>
+      <c r="C65" t="s">
+        <v>415</v>
+      </c>
+      <c r="E65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" t="s">
+        <v>417</v>
+      </c>
+      <c r="E66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>416</v>
+      </c>
+      <c r="C67" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>418</v>
+      </c>
+      <c r="C68" t="s">
+        <v>418</v>
+      </c>
+      <c r="E68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>419</v>
+      </c>
+      <c r="C69" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>420</v>
+      </c>
+      <c r="C70" t="s">
+        <v>420</v>
+      </c>
+      <c r="E70" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>422</v>
+      </c>
+      <c r="C72" t="s">
+        <v>422</v>
+      </c>
+      <c r="E72" t="s">
+        <v>167</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>423</v>
+      </c>
+      <c r="C73" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>424</v>
+      </c>
+      <c r="C74" t="s">
+        <v>424</v>
+      </c>
+      <c r="E74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>425</v>
+      </c>
+      <c r="C75" t="s">
+        <v>425</v>
+      </c>
+      <c r="E75" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>426</v>
+      </c>
+      <c r="C76" t="s">
+        <v>426</v>
+      </c>
+      <c r="E76" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>427</v>
+      </c>
+      <c r="C77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E77" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>428</v>
+      </c>
+      <c r="C78" t="s">
+        <v>428</v>
+      </c>
+      <c r="E78" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C79" t="s">
+        <v>429</v>
+      </c>
+      <c r="E79" t="s">
+        <v>174</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>430</v>
+      </c>
+      <c r="C80" t="s">
+        <v>430</v>
+      </c>
+      <c r="E80" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>431</v>
+      </c>
+      <c r="C81" t="s">
+        <v>431</v>
+      </c>
+      <c r="E81" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>432</v>
+      </c>
+      <c r="C82" t="s">
+        <v>432</v>
+      </c>
+      <c r="E82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>433</v>
+      </c>
+      <c r="C83" t="s">
+        <v>433</v>
+      </c>
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>434</v>
+      </c>
+      <c r="C84" t="s">
+        <v>434</v>
+      </c>
+      <c r="E84" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>435</v>
+      </c>
+      <c r="C85" t="s">
+        <v>435</v>
+      </c>
+      <c r="E85" t="s">
+        <v>180</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>436</v>
+      </c>
+      <c r="C86" t="s">
+        <v>436</v>
+      </c>
+      <c r="E86" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>437</v>
+      </c>
+      <c r="C87" t="s">
+        <v>437</v>
+      </c>
+      <c r="E87" t="s">
+        <v>182</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>438</v>
+      </c>
+      <c r="C88" t="s">
+        <v>438</v>
+      </c>
+      <c r="E88" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>439</v>
+      </c>
+      <c r="C89" t="s">
+        <v>439</v>
+      </c>
+      <c r="E89" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>440</v>
+      </c>
+      <c r="C90" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>441</v>
+      </c>
+      <c r="C91" t="s">
+        <v>441</v>
+      </c>
+      <c r="E91" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92" t="s">
+        <v>442</v>
+      </c>
+      <c r="E92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>443</v>
+      </c>
+      <c r="C93" t="s">
+        <v>443</v>
+      </c>
+      <c r="E93" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>444</v>
+      </c>
+      <c r="C94" t="s">
+        <v>444</v>
+      </c>
+      <c r="E94" t="s">
+        <v>189</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>445</v>
+      </c>
+      <c r="C95" t="s">
+        <v>445</v>
+      </c>
+      <c r="E95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>446</v>
+      </c>
+      <c r="C96" t="s">
+        <v>446</v>
+      </c>
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>447</v>
+      </c>
+      <c r="C97" t="s">
+        <v>447</v>
+      </c>
+      <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>448</v>
+      </c>
+      <c r="C98" t="s">
+        <v>448</v>
+      </c>
+      <c r="E98" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>449</v>
+      </c>
+      <c r="C99" t="s">
+        <v>449</v>
+      </c>
+      <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>450</v>
+      </c>
+      <c r="C100" t="s">
+        <v>450</v>
+      </c>
+      <c r="E100" t="s">
+        <v>195</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>451</v>
+      </c>
+      <c r="C101" t="s">
+        <v>451</v>
+      </c>
+      <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>452</v>
+      </c>
+      <c r="C102" t="s">
+        <v>452</v>
+      </c>
+      <c r="E102" t="s">
+        <v>197</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>453</v>
+      </c>
+      <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>454</v>
+      </c>
+      <c r="C104" t="s">
+        <v>454</v>
+      </c>
+      <c r="E104" t="s">
+        <v>199</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>455</v>
+      </c>
+      <c r="C105" t="s">
+        <v>455</v>
+      </c>
+      <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>456</v>
+      </c>
+      <c r="C106" t="s">
+        <v>456</v>
+      </c>
+      <c r="E106" t="s">
+        <v>201</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>BE_IND_16_STRING</t>
   </si>
   <si>
-    <t>BE_IND_9_STRING</t>
-  </si>
-  <si>
     <t>BE_IND_34_STRING</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>BE_IND_48_REAL</t>
   </si>
   <si>
-    <t>BE_IND_55_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_56_REAL</t>
   </si>
   <si>
@@ -1428,6 +1422,12 @@
   </si>
   <si>
     <t>94  - Gross margin</t>
+  </si>
+  <si>
+    <t>BE_IND_55_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_9_REAL</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1498,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1516,6 +1516,12 @@
         <fgColor rgb="FFAC2524"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1530,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1543,6 +1549,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2570,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="G46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,8 +2921,8 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
+      <c r="J10" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>13</v>
@@ -3228,8 +3236,8 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>51</v>
+      <c r="J19" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>12</v>
@@ -3275,19 +3283,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G21">
         <v>58</v>
@@ -3310,19 +3318,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G22">
         <v>59</v>
@@ -3345,19 +3353,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G23">
         <v>60</v>
@@ -3380,19 +3388,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G24">
         <v>61</v>
@@ -3415,19 +3423,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G25">
         <v>62</v>
@@ -3450,19 +3458,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G26">
         <v>63</v>
@@ -3485,19 +3493,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G27">
         <v>64</v>
@@ -3520,19 +3528,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G28">
         <v>66</v>
@@ -3555,19 +3563,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G29">
         <v>68</v>
@@ -3590,19 +3598,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G30">
         <v>69</v>
@@ -3625,19 +3633,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G31">
         <v>70</v>
@@ -3660,19 +3668,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G32">
         <v>71</v>
@@ -3695,19 +3703,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G33">
         <v>74</v>
@@ -3730,19 +3738,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G34">
         <v>75</v>
@@ -3765,19 +3773,19 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G35">
         <v>76</v>
@@ -3800,19 +3808,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G36">
         <v>77</v>
@@ -3835,19 +3843,19 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G37">
         <v>78</v>
@@ -3870,19 +3878,19 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G38">
         <v>79</v>
@@ -3905,19 +3913,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G39">
         <v>80</v>
@@ -3940,19 +3948,19 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G40">
         <v>81</v>
@@ -3975,19 +3983,19 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G41">
         <v>82</v>
@@ -4010,19 +4018,19 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G42">
         <v>83</v>
@@ -4045,19 +4053,19 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G43">
         <v>84</v>
@@ -4080,19 +4088,19 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G44">
         <v>85</v>
@@ -4115,19 +4123,19 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G45">
         <v>86</v>
@@ -4150,19 +4158,19 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G46">
         <v>87</v>
@@ -4185,19 +4193,19 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G47">
         <v>88</v>
@@ -4220,19 +4228,19 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G48">
         <v>89</v>
@@ -4255,19 +4263,19 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G49">
         <v>90</v>
@@ -4290,19 +4298,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G50">
         <v>92</v>
@@ -4325,19 +4333,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
+        <v>456</v>
+      </c>
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
+      <c r="D51" t="s">
+        <v>456</v>
+      </c>
+      <c r="E51" t="s">
+        <v>457</v>
+      </c>
+      <c r="F51" t="s">
         <v>458</v>
-      </c>
-      <c r="C51" t="s">
-        <v>458</v>
-      </c>
-      <c r="D51" t="s">
-        <v>458</v>
-      </c>
-      <c r="E51" t="s">
-        <v>459</v>
-      </c>
-      <c r="F51" t="s">
-        <v>460</v>
       </c>
       <c r="G51">
         <v>94</v>
@@ -4360,19 +4368,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G52">
         <v>95</v>
@@ -4395,19 +4403,19 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G53">
         <v>96</v>
@@ -4430,19 +4438,19 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G54">
         <v>97</v>
@@ -4465,19 +4473,19 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G55">
         <v>98</v>
@@ -4500,19 +4508,19 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G56">
         <v>99</v>
@@ -4535,19 +4543,19 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G57">
         <v>100</v>
@@ -4570,19 +4578,19 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G58">
         <v>102</v>
@@ -4605,19 +4613,19 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G59">
         <v>103</v>
@@ -4640,19 +4648,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G60">
         <v>104</v>
@@ -4675,19 +4683,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G61">
         <v>105</v>
@@ -4710,19 +4718,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G62">
         <v>106</v>
@@ -4745,19 +4753,19 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G63">
         <v>107</v>
@@ -4780,19 +4788,19 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G64">
         <v>108</v>
@@ -4815,19 +4823,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G65">
         <v>109</v>
@@ -4850,19 +4858,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F66" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G66">
         <v>110</v>
@@ -4885,19 +4893,19 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F67" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G67">
         <v>111</v>
@@ -4920,19 +4928,19 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F68" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G68">
         <v>112</v>
@@ -4955,19 +4963,19 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G69">
         <v>113</v>
@@ -4990,19 +4998,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G70">
         <v>114</v>
@@ -5025,19 +5033,19 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G71">
         <v>115</v>
@@ -5060,19 +5068,19 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F72" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G72">
         <v>116</v>
@@ -5095,19 +5103,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F73" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G73">
         <v>118</v>
@@ -5130,19 +5138,19 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F74" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G74">
         <v>120</v>
@@ -5165,19 +5173,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G75">
         <v>124</v>
@@ -5200,19 +5208,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G76">
         <v>125</v>
@@ -5235,19 +5243,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F77" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G77">
         <v>126</v>
@@ -5270,19 +5278,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F78" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G78">
         <v>127</v>
@@ -5305,19 +5313,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F79" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G79">
         <v>128</v>
@@ -5340,19 +5348,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G80">
         <v>129</v>
@@ -5375,19 +5383,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F81" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G81">
         <v>130</v>
@@ -5410,19 +5418,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F82" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G82">
         <v>131</v>
@@ -5445,19 +5453,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F83" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G83">
         <v>132</v>
@@ -5480,19 +5488,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F84" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G84">
         <v>133</v>
@@ -5515,19 +5523,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F85" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G85">
         <v>172</v>
@@ -5550,19 +5558,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F86" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G86">
         <v>173</v>
@@ -5585,19 +5593,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G87">
         <v>174</v>
@@ -5620,19 +5628,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F88" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G88">
         <v>175</v>
@@ -5655,19 +5663,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F89" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G89">
         <v>180</v>
@@ -5690,19 +5698,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E90" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F90" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G90">
         <v>181</v>
@@ -5725,19 +5733,19 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F91" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G91">
         <v>182</v>
@@ -5760,19 +5768,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E92" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G92">
         <v>183</v>
@@ -5795,19 +5803,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F93" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G93">
         <v>186</v>
@@ -5830,19 +5838,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E94" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F94" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G94">
         <v>187</v>
@@ -5865,19 +5873,19 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E95" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F95" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G95">
         <v>188</v>
@@ -5900,19 +5908,19 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E96" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F96" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G96">
         <v>193</v>
@@ -5935,19 +5943,19 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E97" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F97" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G97">
         <v>197</v>
@@ -5970,19 +5978,19 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F98" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G98">
         <v>201</v>
@@ -6005,19 +6013,19 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G99">
         <v>205</v>
@@ -6040,19 +6048,19 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F100" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G100">
         <v>211</v>
@@ -6075,19 +6083,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E101" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F101" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G101">
         <v>212</v>
@@ -6110,19 +6118,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E102" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F102" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G102">
         <v>213</v>
@@ -6145,19 +6153,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E103" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F103" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G103">
         <v>215</v>
@@ -6180,19 +6188,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E104" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G104">
         <v>216</v>
@@ -6215,19 +6223,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F105" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G105">
         <v>217</v>
@@ -6250,19 +6258,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E106" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F106" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G106">
         <v>218</v>
@@ -6291,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6374,10 +6382,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -6425,10 +6433,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
@@ -6442,10 +6450,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
         <v>64</v>
@@ -6459,16 +6467,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>460</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>460</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6476,10 +6484,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
@@ -6510,10 +6518,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -6527,10 +6535,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
@@ -6544,10 +6552,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -6561,10 +6569,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
         <v>71</v>
@@ -6578,10 +6586,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
@@ -6595,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
@@ -6612,16 +6620,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>459</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6629,10 +6637,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
         <v>75</v>
@@ -6646,13 +6654,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -6663,13 +6671,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -6680,13 +6688,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -6697,13 +6705,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -6714,13 +6722,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -6731,13 +6739,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -6748,13 +6756,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -6765,13 +6773,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -6782,13 +6790,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -6799,13 +6807,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -6816,13 +6824,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -6833,13 +6841,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -6850,13 +6858,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -6867,13 +6875,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -6884,13 +6892,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -6901,13 +6909,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -6918,13 +6926,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -6935,13 +6943,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -6952,13 +6960,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -6969,13 +6977,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -6986,13 +6994,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C41" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7003,13 +7011,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -7020,13 +7028,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -7037,13 +7045,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -7054,13 +7062,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -7071,13 +7079,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -7088,13 +7096,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7105,13 +7113,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7122,13 +7130,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7139,13 +7147,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7156,13 +7164,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7173,13 +7181,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7190,13 +7198,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C53" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -7207,13 +7215,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -7224,13 +7232,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -7241,13 +7249,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -7258,13 +7266,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C57" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -7275,13 +7283,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -7292,13 +7300,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -7309,13 +7317,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C60" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -7326,13 +7334,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C61" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -7343,13 +7351,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -7360,13 +7368,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -7377,13 +7385,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -7394,13 +7402,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C65" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -7411,13 +7419,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -7428,13 +7436,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C67" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -7445,13 +7453,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C68" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -7462,13 +7470,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C69" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -7479,13 +7487,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C70" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -7496,13 +7504,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C71" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -7513,13 +7521,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -7530,13 +7538,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C73" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -7547,13 +7555,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C74" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -7564,13 +7572,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C75" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -7581,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -7598,13 +7606,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C77" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -7615,13 +7623,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C78" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -7632,13 +7640,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -7649,13 +7657,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C80" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -7666,13 +7674,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C81" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -7683,13 +7691,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C82" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -7700,13 +7708,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C83" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -7717,13 +7725,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -7734,13 +7742,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C85" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F85" t="s">
         <v>23</v>
@@ -7751,13 +7759,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C86" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
@@ -7768,13 +7776,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C87" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
@@ -7785,13 +7793,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C88" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
         <v>23</v>
@@ -7802,13 +7810,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -7819,13 +7827,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C90" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -7836,13 +7844,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -7853,13 +7861,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C92" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -7870,13 +7878,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C93" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -7887,13 +7895,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C94" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -7904,13 +7912,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C95" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -7921,13 +7929,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C96" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -7938,13 +7946,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C97" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -7955,13 +7963,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C98" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -7972,13 +7980,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -7989,13 +7997,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C100" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8006,13 +8014,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C101" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8023,13 +8031,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C102" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8040,13 +8048,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C103" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8057,13 +8065,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C104" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8074,13 +8082,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C105" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -8091,13 +8099,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C106" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,8 +2924,8 @@
       <c r="J10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>13</v>
+      <c r="K10" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3239,8 +3239,8 @@
       <c r="J19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>12</v>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="466">
   <si>
     <t>Variable</t>
   </si>
@@ -1428,18 +1428,40 @@
   </si>
   <si>
     <t>BE_IND_9_REAL</t>
+  </si>
+  <si>
+    <t>IsSegment</t>
+  </si>
+  <si>
+    <t>IsPossibleTarget</t>
+  </si>
+  <si>
+    <t>BE_SEGMENT</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+  </si>
+  <si>
+    <t>BE_SEGMENT_STRING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1534,23 +1556,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1650,7 +1674,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>118350</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1708,7 +1732,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>118350</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1766,7 +1790,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>118350</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1824,7 +1848,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>118350</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1882,7 +1906,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>118350</xdr:rowOff>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1988,7 +2012,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2046,7 +2070,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2104,7 +2128,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2162,7 +2186,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2220,7 +2244,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2576,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,10 +2619,12 @@
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="1023" width="8.7109375"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="1023" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2612,8 +2638,10 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2647,8 +2675,14 @@
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L2" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2682,8 +2716,14 @@
       <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2717,98 +2757,116 @@
       <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" s="6">
+        <v>202</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>86</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>92</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>2</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -2822,203 +2880,239 @@
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>88</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>98</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>99</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>14</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>89</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>16</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>34</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3032,203 +3126,239 @@
       <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>34</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>35</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>101</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>40</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>44</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>82</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>95</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>83</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="G18">
-        <v>51</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
       <c r="G19">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -3236,2344 +3366,2746 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20">
+        <v>55</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>56</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>115</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>115</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>200</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>285</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>58</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>116</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>201</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>286</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>59</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>117</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>202</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>287</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>60</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>118</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>118</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>203</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>288</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>61</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>204</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>289</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>62</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>205</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>290</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>63</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>121</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>121</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>206</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>291</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>64</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>122</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>122</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>207</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>292</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>66</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>123</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>208</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>293</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>68</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>124</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>124</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>209</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>294</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>69</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>125</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>125</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>210</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>295</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>70</v>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>126</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>126</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>211</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>296</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>71</v>
       </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>127</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>127</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>212</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>297</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>74</v>
       </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>128</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>213</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>298</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>75</v>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>129</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>214</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>299</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>76</v>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
         <v>130</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>130</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>130</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>215</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>300</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>77</v>
       </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
         <v>131</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>131</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>216</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>301</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>78</v>
       </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
         <v>132</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>132</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>217</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>302</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>79</v>
       </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>133</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>133</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>303</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>80</v>
       </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
         <v>134</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>134</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>134</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>219</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>304</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>81</v>
       </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
         <v>135</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>135</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>135</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>220</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>305</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>82</v>
       </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>136</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>136</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>221</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>306</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>83</v>
       </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
         <v>137</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>137</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>137</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>222</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>307</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>84</v>
       </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
         <v>138</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>138</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>223</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>308</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>85</v>
       </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
         <v>139</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>139</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>224</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>309</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>86</v>
       </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>140</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>225</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>310</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>87</v>
       </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>141</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>226</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>311</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>88</v>
       </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
         <v>142</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>142</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>142</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>227</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>312</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>89</v>
       </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>143</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>143</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>228</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>313</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>90</v>
       </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
         <v>144</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>144</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>144</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>229</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>314</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>92</v>
       </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
         <v>456</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>456</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>456</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>457</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>458</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>94</v>
       </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
         <v>145</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>145</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>145</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>230</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>315</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>95</v>
       </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
         <v>146</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>146</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>146</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>231</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>316</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>96</v>
       </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
         <v>147</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>147</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>147</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>232</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>317</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>97</v>
       </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
         <v>148</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>148</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>148</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>233</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>318</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>98</v>
       </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
         <v>149</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>149</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>149</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>234</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>319</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>99</v>
       </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
         <v>150</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>150</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>150</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>235</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>320</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>100</v>
       </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
         <v>151</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>151</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>151</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>236</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>321</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>102</v>
       </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
         <v>152</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>152</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>152</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>237</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>322</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>103</v>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
         <v>153</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>153</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>153</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>238</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>323</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>104</v>
       </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
         <v>154</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>154</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>154</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>239</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>324</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>105</v>
       </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
         <v>155</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>155</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>155</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>240</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>325</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>106</v>
       </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
         <v>156</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>156</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>156</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>241</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>326</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <v>107</v>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
         <v>157</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>157</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>157</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>242</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>327</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>108</v>
       </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
         <v>158</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>158</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>158</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>243</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>328</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <v>109</v>
       </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
         <v>159</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>159</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>159</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>244</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>329</v>
       </c>
-      <c r="G66">
+      <c r="G67">
         <v>110</v>
       </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
         <v>160</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>160</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>160</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>245</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>330</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>111</v>
       </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
         <v>161</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>161</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>161</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>246</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>331</v>
       </c>
-      <c r="G68">
+      <c r="G69">
         <v>112</v>
       </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
         <v>162</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>162</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>162</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>247</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>332</v>
       </c>
-      <c r="G69">
+      <c r="G70">
         <v>113</v>
       </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
         <v>163</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>163</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>163</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>248</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>333</v>
       </c>
-      <c r="G70">
+      <c r="G71">
         <v>114</v>
       </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
         <v>164</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>164</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>164</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>249</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>334</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>115</v>
       </c>
-      <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
         <v>165</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>165</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>165</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>250</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>335</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>116</v>
       </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
         <v>166</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>166</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>166</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>251</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>336</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <v>118</v>
       </c>
-      <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
         <v>167</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>167</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>167</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>252</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>337</v>
       </c>
-      <c r="G74">
+      <c r="G75">
         <v>120</v>
       </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
         <v>168</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>168</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>168</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>253</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>338</v>
       </c>
-      <c r="G75">
+      <c r="G76">
         <v>124</v>
       </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
         <v>169</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>169</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>169</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>254</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>339</v>
       </c>
-      <c r="G76">
+      <c r="G77">
         <v>125</v>
       </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
         <v>170</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>170</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>170</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>255</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>340</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <v>126</v>
       </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
         <v>171</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>171</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>171</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>256</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>341</v>
       </c>
-      <c r="G78">
+      <c r="G79">
         <v>127</v>
       </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
         <v>172</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>172</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>172</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>257</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>342</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>128</v>
       </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
         <v>173</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>173</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>173</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>258</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>343</v>
       </c>
-      <c r="G80">
+      <c r="G81">
         <v>129</v>
       </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
         <v>174</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>174</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>174</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>259</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>344</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <v>130</v>
       </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
         <v>175</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>175</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>175</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>260</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>345</v>
       </c>
-      <c r="G82">
+      <c r="G83">
         <v>131</v>
       </c>
-      <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
         <v>176</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>176</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>176</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>261</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>346</v>
       </c>
-      <c r="G83">
+      <c r="G84">
         <v>132</v>
       </c>
-      <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
         <v>177</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>177</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>177</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>262</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>347</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <v>133</v>
       </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
         <v>178</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>178</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>178</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>263</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>348</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <v>172</v>
-      </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" t="s">
-        <v>179</v>
-      </c>
-      <c r="E86" t="s">
-        <v>264</v>
-      </c>
-      <c r="F86" t="s">
-        <v>349</v>
-      </c>
-      <c r="G86">
-        <v>173</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -5587,28 +6119,34 @@
       <c r="K86" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G87">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -5622,28 +6160,34 @@
       <c r="K87" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G88">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -5657,635 +6201,790 @@
       <c r="K88" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G89">
+        <v>175</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
         <v>182</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>182</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>182</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>267</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>352</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <v>180</v>
       </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
         <v>183</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>183</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>183</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>268</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>353</v>
       </c>
-      <c r="G90">
+      <c r="G91">
         <v>181</v>
       </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
         <v>184</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>184</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>184</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>269</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>354</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <v>182</v>
       </c>
-      <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
         <v>185</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>185</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>185</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>270</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>355</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <v>183</v>
       </c>
-      <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
         <v>186</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>186</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>186</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>271</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>356</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>186</v>
       </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
         <v>187</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>187</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>187</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>272</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>357</v>
       </c>
-      <c r="G94">
+      <c r="G95">
         <v>187</v>
       </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
         <v>188</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>188</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>188</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>273</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>358</v>
       </c>
-      <c r="G95">
+      <c r="G96">
         <v>188</v>
       </c>
-      <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
         <v>189</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>189</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>189</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>274</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>359</v>
       </c>
-      <c r="G96">
+      <c r="G97">
         <v>193</v>
       </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
         <v>190</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>190</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>190</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>275</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F98" t="s">
         <v>360</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>197</v>
       </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
         <v>191</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>191</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>191</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>276</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>361</v>
       </c>
-      <c r="G98">
+      <c r="G99">
         <v>201</v>
       </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
         <v>192</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>192</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>192</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>277</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>362</v>
       </c>
-      <c r="G99">
+      <c r="G100">
         <v>205</v>
       </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
         <v>193</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>193</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>193</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>278</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>363</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>211</v>
       </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
         <v>194</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>194</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>194</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>279</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>364</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <v>212</v>
       </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
         <v>195</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>195</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>195</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>280</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>365</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>213</v>
       </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
         <v>196</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>196</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>196</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>281</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>366</v>
       </c>
-      <c r="G103">
+      <c r="G104">
         <v>215</v>
       </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
         <v>197</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>197</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>197</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>282</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>367</v>
       </c>
-      <c r="G104">
+      <c r="G105">
         <v>216</v>
       </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
         <v>198</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>198</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>198</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>283</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F106" t="s">
         <v>368</v>
       </c>
-      <c r="G105">
+      <c r="G106">
         <v>217</v>
       </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
         <v>199</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>199</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>199</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>284</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>369</v>
       </c>
-      <c r="G106">
+      <c r="G107">
         <v>218</v>
       </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>12</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6297,10 +6996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6377,21 +7076,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+        <v>465</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6399,16 +7098,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,13 +7115,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -6433,16 +7132,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6450,13 +7149,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -6467,15 +7166,15 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6484,15 +7183,15 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>460</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6501,16 +7200,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6518,13 +7217,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -6535,16 +7234,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6552,13 +7251,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -6569,13 +7268,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -6586,13 +7285,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -6603,16 +7302,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6620,15 +7319,15 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6637,16 +7336,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6654,13 +7353,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -6671,13 +7370,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -6688,13 +7387,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -6705,13 +7404,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -6722,13 +7421,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -6739,13 +7438,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -6756,13 +7455,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -6773,13 +7472,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -6790,13 +7489,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -6807,13 +7506,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -6824,13 +7523,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -6841,13 +7540,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -6858,13 +7557,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -6875,13 +7574,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -6892,13 +7591,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -6909,13 +7608,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -6926,13 +7625,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -6943,13 +7642,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -6960,13 +7659,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -6977,13 +7676,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -6994,13 +7693,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7011,13 +7710,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -7028,13 +7727,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -7045,13 +7744,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -7062,13 +7761,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -7079,13 +7778,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -7096,13 +7795,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7113,13 +7812,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7130,13 +7829,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7147,13 +7846,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7164,13 +7863,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="E51" t="s">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7181,13 +7880,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="C52" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7198,13 +7897,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -7215,13 +7914,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -7232,13 +7931,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -7249,13 +7948,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -7266,13 +7965,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -7283,13 +7982,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -7300,13 +7999,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -7317,13 +8016,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -7334,13 +8033,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -7351,13 +8050,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -7368,13 +8067,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -7385,13 +8084,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -7402,13 +8101,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -7419,13 +8118,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C66" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -7436,13 +8135,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -7453,13 +8152,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C68" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -7470,13 +8169,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -7487,13 +8186,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -7504,13 +8203,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -7521,13 +8220,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -7538,13 +8237,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -7555,13 +8254,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -7572,13 +8271,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -7589,13 +8288,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -7606,13 +8305,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -7623,13 +8322,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -7640,13 +8339,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -7657,13 +8356,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -7674,13 +8373,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C81" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -7691,13 +8390,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C82" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -7708,13 +8407,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -7725,13 +8424,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -7742,16 +8441,16 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,13 +8458,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
@@ -7776,13 +8475,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
@@ -7793,13 +8492,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C88" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88" t="s">
         <v>23</v>
@@ -7810,16 +8509,16 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -7827,13 +8526,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C90" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -7844,13 +8543,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -7861,13 +8560,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -7878,13 +8577,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -7895,13 +8594,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -7912,13 +8611,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C95" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -7929,13 +8628,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -7946,13 +8645,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -7963,13 +8662,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C98" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -7980,13 +8679,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -7997,13 +8696,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C100" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8014,13 +8713,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C101" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8031,13 +8730,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C102" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8048,13 +8747,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C103" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8065,13 +8764,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C104" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8082,13 +8781,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C105" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -8099,15 +8798,32 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
+        <v>453</v>
+      </c>
+      <c r="C106" t="s">
+        <v>453</v>
+      </c>
+      <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
         <v>454</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>454</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>199</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="470">
   <si>
     <t>Variable</t>
   </si>
@@ -1443,6 +1443,18 @@
   </si>
   <si>
     <t>BE_SEGMENT_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_15</t>
+  </si>
+  <si>
+    <t>BE_IND_15_STRING</t>
+  </si>
+  <si>
+    <t>IND_15</t>
+  </si>
+  <si>
+    <t>15 - Overdraft limit utilization</t>
   </si>
 </sst>
 </file>
@@ -2600,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,22 +3109,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3138,22 +3150,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -3179,22 +3191,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -3203,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -3220,22 +3232,22 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -3261,22 +3273,22 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -3302,22 +3314,22 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3343,34 +3355,34 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19">
+        <v>48</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
+      <c r="K19" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -3384,22 +3396,22 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -3407,7 +3419,7 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -3425,22 +3437,22 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G21">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3448,11 +3460,11 @@
       <c r="I21" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>12</v>
+      <c r="J21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -3466,22 +3478,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
       <c r="G22">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3507,22 +3519,22 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G23">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3548,22 +3560,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3589,22 +3601,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3630,22 +3642,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G26">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3671,22 +3683,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3712,22 +3724,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G28">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3753,22 +3765,22 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G29">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3794,22 +3806,22 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G30">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3835,22 +3847,22 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G31">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3876,22 +3888,22 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G32">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3917,22 +3929,22 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G33">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -3958,22 +3970,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G34">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -3999,22 +4011,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G35">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4040,22 +4052,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G36">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4081,22 +4093,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4122,22 +4134,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G38">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4163,22 +4175,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G39">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4204,22 +4216,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G40">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4245,22 +4257,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G41">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4286,22 +4298,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4327,22 +4339,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G43">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4368,22 +4380,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G44">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4409,22 +4421,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G45">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4450,22 +4462,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4491,22 +4503,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G47">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4532,22 +4544,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G48">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4573,22 +4585,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G49">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4614,22 +4626,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G50">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4655,22 +4667,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G51">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4696,22 +4708,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>314</v>
       </c>
       <c r="G52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4737,22 +4749,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="F53" t="s">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="G53">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4778,22 +4790,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G54">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4819,22 +4831,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G55">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4860,22 +4872,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G56">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -4901,22 +4913,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G57">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -4942,22 +4954,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G58">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -4983,22 +4995,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G59">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5024,22 +5036,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G60">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5065,22 +5077,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G61">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5106,22 +5118,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G62">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5147,22 +5159,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G63">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5188,22 +5200,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G64">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5229,22 +5241,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G65">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5270,22 +5282,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G66">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5311,22 +5323,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G67">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5352,22 +5364,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G68">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5393,22 +5405,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G69">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5434,22 +5446,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G70">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5475,22 +5487,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G71">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5516,22 +5528,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G72">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5557,22 +5569,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F73" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G73">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5598,22 +5610,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F74" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G74">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5639,22 +5651,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F75" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G75">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5680,22 +5692,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G76">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5721,22 +5733,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G77">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5762,22 +5774,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G78">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5803,22 +5815,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G79">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5844,22 +5856,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G80">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -5885,22 +5897,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G81">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -5926,22 +5938,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G82">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -5967,22 +5979,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G83">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6008,22 +6020,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G84">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6049,22 +6061,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G85">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6090,22 +6102,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G86">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6114,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -6131,22 +6143,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G87">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6172,22 +6184,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G88">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6213,22 +6225,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F89" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G89">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6254,22 +6266,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G90">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6278,10 +6290,10 @@
         <v>0</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -6295,22 +6307,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G91">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6336,22 +6348,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G92">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6377,22 +6389,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F93" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G93">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6418,22 +6430,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G94">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6459,22 +6471,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G95">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6500,22 +6512,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G96">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6541,22 +6553,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G97">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6582,22 +6594,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G98">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6623,22 +6635,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G99">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6664,22 +6676,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G100">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6705,22 +6717,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G101">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6746,22 +6758,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G102">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6787,22 +6799,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G103">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6828,22 +6840,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G104">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -6869,22 +6881,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G105">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -6910,22 +6922,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G106">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -6951,22 +6963,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F107" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G107">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -6984,6 +6996,47 @@
         <v>0</v>
       </c>
       <c r="M107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108" t="s">
+        <v>284</v>
+      </c>
+      <c r="F108" t="s">
+        <v>369</v>
+      </c>
+      <c r="G108">
+        <v>218</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6996,10 +7049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7217,13 +7270,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -7234,13 +7287,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -7251,16 +7304,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7268,13 +7321,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -7285,13 +7338,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -7302,13 +7355,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -7319,16 +7372,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7336,15 +7389,15 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7353,16 +7406,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7370,13 +7423,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -7387,13 +7440,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -7404,13 +7457,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -7421,13 +7474,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -7438,13 +7491,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -7455,13 +7508,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -7472,13 +7525,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -7489,13 +7542,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -7506,13 +7559,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -7523,13 +7576,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -7540,13 +7593,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -7557,13 +7610,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -7574,13 +7627,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -7591,13 +7644,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -7608,13 +7661,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -7625,13 +7678,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -7642,13 +7695,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -7659,13 +7712,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -7676,13 +7729,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -7693,13 +7746,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7710,13 +7763,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -7727,13 +7780,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -7744,13 +7797,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -7761,13 +7814,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -7778,13 +7831,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -7795,13 +7848,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7812,13 +7865,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7829,13 +7882,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7846,13 +7899,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7863,13 +7916,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7880,13 +7933,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="C52" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="E52" t="s">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7897,13 +7950,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="C53" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -7914,13 +7967,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -7931,13 +7984,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -7948,13 +8001,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -7965,13 +8018,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -7982,13 +8035,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -7999,13 +8052,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8016,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8033,13 +8086,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8050,13 +8103,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8067,13 +8120,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8084,13 +8137,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8101,13 +8154,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8118,13 +8171,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8135,13 +8188,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C67" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8152,13 +8205,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C68" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8169,13 +8222,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C69" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8186,13 +8239,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8203,13 +8256,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8220,13 +8273,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8237,13 +8290,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8254,13 +8307,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8271,13 +8324,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8288,13 +8341,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8305,13 +8358,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8322,13 +8375,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8339,13 +8392,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8356,13 +8409,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8373,13 +8426,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8390,13 +8443,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8407,13 +8460,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8424,13 +8477,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -8441,13 +8494,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -8458,16 +8511,16 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -8475,13 +8528,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
@@ -8492,13 +8545,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F88" t="s">
         <v>23</v>
@@ -8509,13 +8562,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F89" t="s">
         <v>23</v>
@@ -8526,16 +8579,16 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -8543,13 +8596,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -8560,13 +8613,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -8577,13 +8630,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -8594,13 +8647,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -8611,13 +8664,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -8628,13 +8681,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C96" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -8645,13 +8698,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C97" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -8662,13 +8715,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -8679,13 +8732,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C99" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -8696,13 +8749,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8713,13 +8766,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C101" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8730,13 +8783,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8747,13 +8800,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C103" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8764,13 +8817,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C104" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8781,13 +8834,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C105" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -8798,13 +8851,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C106" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -8815,15 +8868,32 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
+        <v>453</v>
+      </c>
+      <c r="C107" t="s">
+        <v>453</v>
+      </c>
+      <c r="E107" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
         <v>454</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>454</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>199</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="488">
   <si>
     <t>Variable</t>
   </si>
@@ -1455,18 +1455,79 @@
   </si>
   <si>
     <t>15 - Overdraft limit utilization</t>
+  </si>
+  <si>
+    <t>BE_IND_13_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_13</t>
+  </si>
+  <si>
+    <t>BE_IND_67_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_67</t>
+  </si>
+  <si>
+    <t>IND_13</t>
+  </si>
+  <si>
+    <t>13 - Business current accounts average balance - 12 months</t>
+  </si>
+  <si>
+    <t>IND_91</t>
+  </si>
+  <si>
+    <t>BE_IND_91</t>
+  </si>
+  <si>
+    <t>91 - Interest expense/short term liabilities  - change</t>
+  </si>
+  <si>
+    <t>BE_IND_91_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_93_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_93</t>
+  </si>
+  <si>
+    <t>IND_93</t>
+  </si>
+  <si>
+    <t>93 - Interest expenses/total liabilities  - change</t>
+  </si>
+  <si>
+    <t>BE_IND_121</t>
+  </si>
+  <si>
+    <t>IND_121</t>
+  </si>
+  <si>
+    <t>121 - Interest expenses/total liabilities - change</t>
+  </si>
+  <si>
+    <t>BE_IND_121_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1532,7 +1593,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1556,6 +1617,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1568,25 +1635,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2612,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="G67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3068,22 +3137,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>474</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3091,7 +3160,7 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -3109,22 +3178,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>468</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>469</v>
+        <v>99</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3133,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -3150,22 +3219,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -3191,22 +3260,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G15">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -3232,22 +3301,22 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -3256,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -3273,22 +3342,22 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -3314,22 +3383,22 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3355,22 +3424,22 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -3396,22 +3465,22 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -3420,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -3437,22 +3506,22 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3460,7 +3529,7 @@
       <c r="I21" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -3478,22 +3547,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G22">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3501,11 +3570,11 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>12</v>
+      <c r="J22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -3519,22 +3588,22 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
       <c r="G23">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3560,22 +3629,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G24">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3601,22 +3670,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3642,22 +3711,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G26">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3683,22 +3752,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G27">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3724,22 +3793,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G28">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3765,22 +3834,22 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G29">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3806,22 +3875,22 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G30">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3847,22 +3916,22 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G31">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3888,22 +3957,22 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G32">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3929,22 +3998,22 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G33">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -3970,22 +4039,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4011,22 +4080,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G35">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4052,22 +4121,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G36">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4093,22 +4162,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G37">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4134,22 +4203,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G38">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4175,22 +4244,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G39">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4216,22 +4285,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G40">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4257,22 +4326,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G41">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4298,22 +4367,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G42">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4339,22 +4408,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G43">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4380,22 +4449,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G44">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4421,22 +4490,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G45">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4462,22 +4531,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G46">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4503,22 +4572,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G47">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4544,22 +4613,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G48">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4585,22 +4654,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G49">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4626,22 +4695,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G50">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4667,22 +4736,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G51">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4708,22 +4777,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G52">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4749,22 +4818,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="D53" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="E53" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F53" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="G53">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4790,22 +4859,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G54">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4831,22 +4900,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>481</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>481</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>482</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>483</v>
       </c>
       <c r="G55">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4872,22 +4941,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="F56" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="G56">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -4913,22 +4982,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G57">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -4954,22 +5023,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G58">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -4995,22 +5064,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G59">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5036,22 +5105,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G60">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5077,22 +5146,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F61" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G61">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5118,22 +5187,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F62" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G62">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5159,22 +5228,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F63" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G63">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5200,22 +5269,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G64">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5241,22 +5310,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F65" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G65">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5282,22 +5351,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G66">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5323,22 +5392,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F67" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G67">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5364,22 +5433,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G68">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5405,22 +5474,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F69" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G69">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5446,22 +5515,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G70">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5487,22 +5556,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F71" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G71">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5528,22 +5597,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F72" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G72">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5569,22 +5638,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F73" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G73">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5610,22 +5679,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G74">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5651,22 +5720,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F75" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G75">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5692,22 +5761,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G76">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5733,22 +5802,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F77" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G77">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5774,22 +5843,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G78">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5815,22 +5884,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G79">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5856,22 +5925,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="E80" t="s">
-        <v>256</v>
+        <v>485</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>486</v>
       </c>
       <c r="G80">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -5897,22 +5966,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F81" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G81">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -5938,22 +6007,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E82" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F82" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G82">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -5979,22 +6048,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G83">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6020,22 +6089,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G84">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6061,22 +6130,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G85">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6102,22 +6171,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F86" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G86">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6143,22 +6212,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F87" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G87">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6167,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -6184,22 +6253,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F88" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G88">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6208,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
@@ -6225,22 +6294,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F89" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G89">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6249,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -6266,22 +6335,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F90" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G90">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6290,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -6307,22 +6376,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F91" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G91">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6331,10 +6400,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -6348,22 +6417,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F92" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G92">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6372,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -6389,22 +6458,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F93" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G93">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6413,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -6430,22 +6499,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F94" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G94">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6454,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -6471,22 +6540,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E95" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F95" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G95">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6512,22 +6581,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F96" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G96">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6553,22 +6622,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F97" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G97">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6594,22 +6663,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F98" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G98">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6635,22 +6704,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F99" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G99">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6676,22 +6745,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E100" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F100" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G100">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6717,22 +6786,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F101" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G101">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6758,22 +6827,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" t="s">
+        <v>189</v>
+      </c>
+      <c r="E102" t="s">
+        <v>274</v>
+      </c>
+      <c r="F102" t="s">
+        <v>359</v>
+      </c>
+      <c r="G102">
         <v>193</v>
-      </c>
-      <c r="C102" t="s">
-        <v>193</v>
-      </c>
-      <c r="D102" t="s">
-        <v>193</v>
-      </c>
-      <c r="E102" t="s">
-        <v>278</v>
-      </c>
-      <c r="F102" t="s">
-        <v>363</v>
-      </c>
-      <c r="G102">
-        <v>211</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6799,22 +6868,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F103" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G103">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6840,22 +6909,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C104" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F104" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G104">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -6881,22 +6950,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F105" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G105">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -6922,22 +6991,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D106" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E106" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F106" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G106">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -6963,22 +7032,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D107" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E107" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F107" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G107">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7004,39 +7073,203 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" t="s">
+        <v>280</v>
+      </c>
+      <c r="F108" t="s">
+        <v>365</v>
+      </c>
+      <c r="G108">
+        <v>213</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109" t="s">
+        <v>281</v>
+      </c>
+      <c r="F109" t="s">
+        <v>366</v>
+      </c>
+      <c r="G109">
+        <v>215</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" t="s">
+        <v>282</v>
+      </c>
+      <c r="F110" t="s">
+        <v>367</v>
+      </c>
+      <c r="G110">
+        <v>216</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" t="s">
+        <v>198</v>
+      </c>
+      <c r="E111" t="s">
+        <v>283</v>
+      </c>
+      <c r="F111" t="s">
+        <v>368</v>
+      </c>
+      <c r="G111">
+        <v>217</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
         <v>199</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C112" t="s">
         <v>199</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D112" t="s">
         <v>199</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E112" t="s">
         <v>284</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F112" t="s">
         <v>369</v>
       </c>
-      <c r="G108">
+      <c r="G112">
         <v>218</v>
       </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L108" t="b">
-        <v>0</v>
-      </c>
-      <c r="M108" t="b">
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7049,10 +7282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7253,15 +7486,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>470</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>470</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7270,16 +7503,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7287,13 +7520,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -7304,13 +7537,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -7321,16 +7554,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7338,13 +7571,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -7355,13 +7588,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -7372,13 +7605,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -7389,16 +7622,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7406,15 +7639,15 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7423,16 +7656,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7440,13 +7673,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -7457,13 +7690,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -7474,13 +7707,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -7491,13 +7724,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -7508,13 +7741,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -7525,13 +7758,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -7542,13 +7775,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -7559,13 +7792,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -7576,13 +7809,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -7593,13 +7826,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="C32" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>473</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -7610,13 +7843,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -7627,13 +7860,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -7644,13 +7877,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -7661,13 +7894,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -7678,13 +7911,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -7695,13 +7928,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -7712,13 +7945,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -7729,13 +7962,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -7746,13 +7979,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7763,13 +7996,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -7780,13 +8013,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -7797,13 +8030,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -7814,13 +8047,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -7831,13 +8064,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -7848,13 +8081,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7865,13 +8098,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7882,13 +8115,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C49" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7899,13 +8132,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7916,13 +8149,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7933,13 +8166,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7950,13 +8183,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="C53" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="E53" t="s">
-        <v>456</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -7967,13 +8200,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="C54" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>477</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -7984,13 +8217,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C55" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8001,13 +8234,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>481</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8018,13 +8251,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="C57" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>456</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8035,13 +8268,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8052,13 +8285,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8069,13 +8302,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C60" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8086,13 +8319,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C61" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8103,13 +8336,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8120,13 +8353,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C63" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8137,13 +8370,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8154,13 +8387,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8171,13 +8404,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C66" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8188,13 +8421,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C67" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8205,13 +8438,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C68" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8222,13 +8455,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8239,13 +8472,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8256,13 +8489,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C71" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E71" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8273,13 +8506,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C72" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8290,13 +8523,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8307,13 +8540,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8324,13 +8557,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C75" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8341,13 +8574,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C76" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8358,13 +8591,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C77" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8375,13 +8608,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C78" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8392,13 +8625,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C79" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8409,13 +8642,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C80" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8426,13 +8659,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="C81" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>484</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8443,13 +8676,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C82" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8460,13 +8693,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C83" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E83" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8477,13 +8710,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C84" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -8494,13 +8727,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C85" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E85" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -8511,13 +8744,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C86" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E86" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -8528,16 +8761,16 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C87" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E87" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8545,16 +8778,16 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C88" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -8562,16 +8795,16 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C89" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -8579,16 +8812,16 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C90" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -8596,13 +8829,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C91" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -8613,16 +8846,16 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C92" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8630,16 +8863,16 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C93" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8647,16 +8880,16 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C94" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -8664,16 +8897,16 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C95" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -8681,13 +8914,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C96" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -8698,13 +8931,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C97" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -8715,13 +8948,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C98" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -8732,13 +8965,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C99" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E99" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -8749,13 +8982,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C100" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8766,13 +8999,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C101" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E101" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8783,13 +9016,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C102" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8800,13 +9033,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C103" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8817,13 +9050,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C104" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8834,13 +9067,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C105" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E105" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -8851,13 +9084,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C106" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -8868,13 +9101,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C107" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E107" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -8885,15 +9118,100 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" t="s">
+        <v>449</v>
+      </c>
+      <c r="E108" t="s">
+        <v>194</v>
+      </c>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>450</v>
+      </c>
+      <c r="C109" t="s">
+        <v>450</v>
+      </c>
+      <c r="E109" t="s">
+        <v>195</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>451</v>
+      </c>
+      <c r="C110" t="s">
+        <v>451</v>
+      </c>
+      <c r="E110" t="s">
+        <v>196</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>452</v>
+      </c>
+      <c r="C111" t="s">
+        <v>452</v>
+      </c>
+      <c r="E111" t="s">
+        <v>197</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>453</v>
+      </c>
+      <c r="E112" t="s">
+        <v>198</v>
+      </c>
+      <c r="F112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
         <v>454</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C113" t="s">
         <v>454</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E113" t="s">
         <v>199</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F113" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="520">
   <si>
     <t>Variable</t>
   </si>
@@ -1509,18 +1509,121 @@
   </si>
   <si>
     <t>BE_IND_121_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_11_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_11</t>
+  </si>
+  <si>
+    <t>IND_11</t>
+  </si>
+  <si>
+    <t>11 - Monitoring rating downgrade</t>
+  </si>
+  <si>
+    <t>BE_IND_20</t>
+  </si>
+  <si>
+    <t>IND_20</t>
+  </si>
+  <si>
+    <t>20 - Missing financial statements</t>
+  </si>
+  <si>
+    <t>BE_IND_20_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_49_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_49</t>
+  </si>
+  <si>
+    <t>IND_49</t>
+  </si>
+  <si>
+    <t>49 - Bankruptcy proceedings started on the debtor</t>
+  </si>
+  <si>
+    <t>BE_IND_50</t>
+  </si>
+  <si>
+    <t>IND_50</t>
+  </si>
+  <si>
+    <t>50 - Group bankruptcy</t>
+  </si>
+  <si>
+    <t>BE_IND_50_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_57</t>
+  </si>
+  <si>
+    <t>IND_57</t>
+  </si>
+  <si>
+    <t>57 - Max number of days with overdue</t>
+  </si>
+  <si>
+    <t>BE_IND_57_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_119</t>
+  </si>
+  <si>
+    <t>IND_119</t>
+  </si>
+  <si>
+    <t>119 - Interest expenses/short term liabilities - change</t>
+  </si>
+  <si>
+    <t>BE_IND_119_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_210</t>
+  </si>
+  <si>
+    <t>IND_210</t>
+  </si>
+  <si>
+    <t>210 - Max past due days in last year</t>
+  </si>
+  <si>
+    <t>BE_IND_210_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_214</t>
+  </si>
+  <si>
+    <t>IND_214</t>
+  </si>
+  <si>
+    <t>214 - Max number of consecutive days where daily utilization of overdraft-a was more than 75% of the limit in last 3 months</t>
+  </si>
+  <si>
+    <t>BE_IND_214_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1635,27 +1738,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2681,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView topLeftCell="G67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79:M80"/>
+    <sheetView topLeftCell="G103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,22 +3242,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="C12" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="D12" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E12" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="F12" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3160,7 +3265,7 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -3178,22 +3283,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>474</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3201,7 +3306,7 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="12" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -3219,22 +3324,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>468</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>469</v>
+        <v>99</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -3243,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -3260,22 +3365,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -3301,22 +3406,22 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G16">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -3342,34 +3447,34 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>492</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>492</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>492</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>494</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -3383,22 +3488,22 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3407,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -3424,22 +3529,22 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G19">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -3465,22 +3570,22 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -3506,34 +3611,34 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G21">
+        <v>44</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
+      <c r="K21" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -3547,22 +3652,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3570,11 +3675,11 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>13</v>
+      <c r="J22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -3588,22 +3693,22 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>499</v>
       </c>
       <c r="G23">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3611,11 +3716,11 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>12</v>
+      <c r="J23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -3629,22 +3734,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>501</v>
       </c>
       <c r="F24" t="s">
-        <v>285</v>
+        <v>502</v>
       </c>
       <c r="G24">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3652,11 +3757,11 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>12</v>
+      <c r="J24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -3670,22 +3775,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="G25">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3694,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -3711,22 +3816,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3734,11 +3839,11 @@
       <c r="I26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>12</v>
+      <c r="J26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -3752,22 +3857,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c r="G27">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3793,22 +3898,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>504</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>504</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>505</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>506</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3834,22 +3939,22 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G29">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3875,22 +3980,22 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G30">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3916,22 +4021,22 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G31">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3957,22 +4062,22 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G32">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3998,22 +4103,22 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G33">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -4039,22 +4144,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G34">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4080,22 +4185,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G35">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4121,22 +4226,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G36">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4162,22 +4267,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G37">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4203,22 +4308,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G38">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4244,22 +4349,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G39">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4285,22 +4390,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G40">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4326,22 +4431,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G41">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4367,22 +4472,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G42">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4408,22 +4513,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G43">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4449,22 +4554,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G44">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4490,22 +4595,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G45">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4531,22 +4636,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G46">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4572,22 +4677,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G47">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4613,22 +4718,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G48">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4654,22 +4759,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G49">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4695,22 +4800,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G50">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4736,22 +4841,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G51">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4777,22 +4882,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G52">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4818,22 +4923,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>477</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>477</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>476</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
-        <v>478</v>
+        <v>309</v>
       </c>
       <c r="G53">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4859,22 +4964,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G54">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4900,22 +5005,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>481</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>482</v>
+        <v>226</v>
       </c>
       <c r="F55" t="s">
-        <v>483</v>
+        <v>311</v>
       </c>
       <c r="G55">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4941,22 +5046,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>457</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>312</v>
       </c>
       <c r="G56">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -4982,22 +5087,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G57">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5023,22 +5128,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="F58" t="s">
-        <v>316</v>
+        <v>478</v>
       </c>
       <c r="G58">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5064,22 +5169,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G59">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5105,22 +5210,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>481</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>481</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>481</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>482</v>
       </c>
       <c r="F60" t="s">
-        <v>318</v>
+        <v>483</v>
       </c>
       <c r="G60">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5146,22 +5251,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>457</v>
       </c>
       <c r="F61" t="s">
-        <v>319</v>
+        <v>458</v>
       </c>
       <c r="G61">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5187,22 +5292,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F62" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5228,22 +5333,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F63" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G63">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5269,22 +5374,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G64">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5310,22 +5415,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G65">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5351,22 +5456,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G66">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5392,22 +5497,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F67" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G67">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5433,22 +5538,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F68" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G68">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5474,22 +5579,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G69">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5515,22 +5620,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F70" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G70">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5556,22 +5661,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F71" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G71">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5597,22 +5702,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G72">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5638,22 +5743,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F73" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G73">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5679,22 +5784,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F74" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G74">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5720,22 +5825,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F75" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G75">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5761,22 +5866,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F76" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G76">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5802,22 +5907,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F77" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G77">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5843,22 +5948,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F78" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G78">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5884,22 +5989,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G79">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5925,22 +6030,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>484</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>484</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>484</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>485</v>
+        <v>248</v>
       </c>
       <c r="F80" t="s">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="G80">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -5966,22 +6071,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F81" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G81">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6007,22 +6112,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F82" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G82">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6048,22 +6153,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F83" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G83">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6089,22 +6194,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>508</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>508</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>508</v>
       </c>
       <c r="E84" t="s">
-        <v>256</v>
+        <v>509</v>
       </c>
       <c r="F84" t="s">
-        <v>341</v>
+        <v>510</v>
       </c>
       <c r="G84">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6130,22 +6235,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F85" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G85">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6171,22 +6276,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>484</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>484</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>484</v>
       </c>
       <c r="E86" t="s">
-        <v>258</v>
+        <v>485</v>
       </c>
       <c r="F86" t="s">
-        <v>343</v>
+        <v>486</v>
       </c>
       <c r="G86">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6212,22 +6317,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F87" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G87">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6253,22 +6358,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F88" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G88">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6294,22 +6399,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G89">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6335,22 +6440,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G90">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6376,22 +6481,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G91">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6400,10 +6505,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -6417,22 +6522,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F92" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G92">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6441,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -6458,22 +6563,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E93" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G93">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6482,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -6499,22 +6604,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F94" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G94">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6523,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -6540,22 +6645,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F95" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G95">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6581,22 +6686,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F96" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G96">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6622,22 +6727,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F97" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G97">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6646,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6663,22 +6768,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F98" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G98">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6687,10 +6792,10 @@
         <v>0</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -6704,22 +6809,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F99" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G99">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6728,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -6745,22 +6850,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D100" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F100" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G100">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6769,10 +6874,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -6786,22 +6891,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F101" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G101">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6827,22 +6932,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F102" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G102">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6868,22 +6973,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D103" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F103" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G103">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6909,22 +7014,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F104" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G104">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -6950,22 +7055,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F105" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G105">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -6991,22 +7096,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F106" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G106">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7032,22 +7137,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F107" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G107">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7073,22 +7178,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F108" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G108">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7114,22 +7219,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F109" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G109">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7155,22 +7260,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F110" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G110">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7196,22 +7301,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F111" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G111">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7237,22 +7342,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>512</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>512</v>
       </c>
       <c r="D112" t="s">
-        <v>199</v>
+        <v>512</v>
       </c>
       <c r="E112" t="s">
-        <v>284</v>
+        <v>513</v>
       </c>
       <c r="F112" t="s">
-        <v>369</v>
+        <v>514</v>
       </c>
       <c r="G112">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7270,6 +7375,334 @@
         <v>0</v>
       </c>
       <c r="M112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" t="s">
+        <v>278</v>
+      </c>
+      <c r="F113" t="s">
+        <v>363</v>
+      </c>
+      <c r="G113">
+        <v>211</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114" t="s">
+        <v>279</v>
+      </c>
+      <c r="F114" t="s">
+        <v>364</v>
+      </c>
+      <c r="G114">
+        <v>212</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" t="s">
+        <v>195</v>
+      </c>
+      <c r="E115" t="s">
+        <v>280</v>
+      </c>
+      <c r="F115" t="s">
+        <v>365</v>
+      </c>
+      <c r="G115">
+        <v>213</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>516</v>
+      </c>
+      <c r="C116" t="s">
+        <v>516</v>
+      </c>
+      <c r="D116" t="s">
+        <v>516</v>
+      </c>
+      <c r="E116" t="s">
+        <v>517</v>
+      </c>
+      <c r="F116" t="s">
+        <v>518</v>
+      </c>
+      <c r="G116">
+        <v>214</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117" t="s">
+        <v>366</v>
+      </c>
+      <c r="G117">
+        <v>215</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" t="s">
+        <v>282</v>
+      </c>
+      <c r="F118" t="s">
+        <v>367</v>
+      </c>
+      <c r="G118">
+        <v>216</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" t="s">
+        <v>198</v>
+      </c>
+      <c r="E119" t="s">
+        <v>283</v>
+      </c>
+      <c r="F119" t="s">
+        <v>368</v>
+      </c>
+      <c r="G119">
+        <v>217</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" t="s">
+        <v>284</v>
+      </c>
+      <c r="F120" t="s">
+        <v>369</v>
+      </c>
+      <c r="G120">
+        <v>218</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7282,10 +7715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80:F81"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7486,13 +7919,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E12" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>22</v>
@@ -7503,13 +7936,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>470</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>470</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>22</v>
@@ -7520,16 +7953,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7537,13 +7970,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -7554,13 +7987,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -7571,16 +8004,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>495</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>492</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7588,16 +8021,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7605,13 +8038,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -7622,13 +8055,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -7639,16 +8072,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7656,16 +8089,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>459</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>459</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>23</v>
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7673,16 +8106,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>496</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>496</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7690,16 +8123,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="C24" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7707,16 +8140,16 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>371</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>371</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7724,16 +8157,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7741,13 +8174,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -7758,13 +8191,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>374</v>
+        <v>507</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>507</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>504</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -7775,13 +8208,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -7792,13 +8225,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -7809,13 +8242,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -7826,13 +8259,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>472</v>
+        <v>373</v>
       </c>
       <c r="E32" t="s">
-        <v>473</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -7843,13 +8276,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -7860,13 +8293,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -7877,13 +8310,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -7894,13 +8327,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -7911,13 +8344,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="C37" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>473</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -7928,13 +8361,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -7945,13 +8378,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -7962,13 +8395,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -7979,13 +8412,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7996,13 +8429,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -8013,13 +8446,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8030,13 +8463,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C44" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -8047,13 +8480,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8064,13 +8497,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -8081,13 +8514,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C47" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8098,13 +8531,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -8115,13 +8548,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8132,13 +8565,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C50" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -8149,13 +8582,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C51" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8166,13 +8599,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -8183,13 +8616,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8200,13 +8633,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="C54" t="s">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="E54" t="s">
-        <v>477</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8217,13 +8650,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C55" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8234,13 +8667,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="C56" t="s">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="E56" t="s">
-        <v>481</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8251,13 +8684,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="E57" t="s">
-        <v>456</v>
+        <v>142</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8268,13 +8701,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8285,13 +8718,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="C59" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8302,13 +8735,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8319,13 +8752,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="C61" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>481</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8336,13 +8769,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8353,13 +8786,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8370,13 +8803,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C64" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8387,13 +8820,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8404,13 +8837,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C66" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8421,13 +8854,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C67" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8438,13 +8871,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C68" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8455,13 +8888,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C69" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8472,13 +8905,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8489,13 +8922,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8506,13 +8939,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8523,13 +8956,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C73" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8540,13 +8973,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8557,13 +8990,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8574,13 +9007,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8591,13 +9024,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C77" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8608,13 +9041,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8625,13 +9058,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8642,13 +9075,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8659,13 +9092,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="C81" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="E81" t="s">
-        <v>484</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8676,13 +9109,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8693,13 +9126,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C83" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8710,13 +9143,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -8727,13 +9160,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="C85" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>508</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -8744,13 +9177,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C86" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E86" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -8761,13 +9194,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="C87" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>484</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -8778,13 +9211,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C88" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -8795,13 +9228,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C89" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -8812,13 +9245,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C90" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -8829,13 +9262,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C91" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -8846,16 +9279,16 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C92" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E92" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8863,16 +9296,16 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C93" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8880,16 +9313,16 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -8897,16 +9330,16 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C95" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -8914,13 +9347,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C96" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -8931,13 +9364,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C97" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -8948,16 +9381,16 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C98" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E98" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -8965,16 +9398,16 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C99" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -8982,16 +9415,16 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C100" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -8999,16 +9432,16 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C101" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9016,13 +9449,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C102" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E102" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -9033,13 +9466,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C103" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9050,13 +9483,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C104" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E104" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9067,13 +9500,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C105" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E105" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9084,13 +9517,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C106" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E106" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9101,13 +9534,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C107" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9118,13 +9551,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C108" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E108" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9135,13 +9568,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C109" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -9152,13 +9585,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C110" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E110" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -9169,13 +9602,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C111" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E111" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F111" t="s">
         <v>22</v>
@@ -9186,13 +9619,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C112" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -9203,15 +9636,151 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
+        <v>515</v>
+      </c>
+      <c r="C113" t="s">
+        <v>515</v>
+      </c>
+      <c r="E113" t="s">
+        <v>512</v>
+      </c>
+      <c r="F113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>448</v>
+      </c>
+      <c r="C114" t="s">
+        <v>448</v>
+      </c>
+      <c r="E114" t="s">
+        <v>193</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>449</v>
+      </c>
+      <c r="C115" t="s">
+        <v>449</v>
+      </c>
+      <c r="E115" t="s">
+        <v>194</v>
+      </c>
+      <c r="F115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>450</v>
+      </c>
+      <c r="C116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E116" t="s">
+        <v>195</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>519</v>
+      </c>
+      <c r="C117" t="s">
+        <v>519</v>
+      </c>
+      <c r="E117" t="s">
+        <v>516</v>
+      </c>
+      <c r="F117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>451</v>
+      </c>
+      <c r="C118" t="s">
+        <v>451</v>
+      </c>
+      <c r="E118" t="s">
+        <v>196</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>452</v>
+      </c>
+      <c r="C119" t="s">
+        <v>452</v>
+      </c>
+      <c r="E119" t="s">
+        <v>197</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>453</v>
+      </c>
+      <c r="C120" t="s">
+        <v>453</v>
+      </c>
+      <c r="E120" t="s">
+        <v>198</v>
+      </c>
+      <c r="F120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
         <v>454</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C121" t="s">
         <v>454</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E121" t="s">
         <v>199</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F121" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="522">
   <si>
     <t>Variable</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>BE_IND_214_REAL</t>
+  </si>
+  <si>
+    <t>IND_67</t>
+  </si>
+  <si>
+    <t>67 - Max debt/EBITDA - 6 months</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1758,7 +1764,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -2786,10 +2791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView topLeftCell="G103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,7 +3270,7 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -3716,10 +3721,10 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L23" t="b">
@@ -3757,10 +3762,10 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L24" t="b">
@@ -4267,22 +4272,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>520</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>521</v>
       </c>
       <c r="G37">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4308,22 +4313,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G38">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4349,22 +4354,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G39">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4390,22 +4395,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G40">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4431,22 +4436,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G41">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4472,22 +4477,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G42">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4513,22 +4518,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G43">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4554,22 +4559,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G44">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4595,22 +4600,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G45">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4636,22 +4641,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G46">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4677,22 +4682,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G47">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4718,22 +4723,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G48">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4759,22 +4764,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G49">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4800,22 +4805,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G50">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4841,22 +4846,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G51">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4882,22 +4887,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G52">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4923,22 +4928,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G53">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4964,22 +4969,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G54">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -5005,22 +5010,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G55">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5046,22 +5051,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G56">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5087,22 +5092,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5128,22 +5133,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>476</v>
+        <v>228</v>
       </c>
       <c r="F58" t="s">
-        <v>478</v>
+        <v>313</v>
       </c>
       <c r="G58">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5169,22 +5174,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>476</v>
       </c>
       <c r="F59" t="s">
-        <v>314</v>
+        <v>478</v>
       </c>
       <c r="G59">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5210,22 +5215,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>481</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>481</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>482</v>
+        <v>229</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>314</v>
       </c>
       <c r="G60">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5251,22 +5256,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D61" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="E61" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F61" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G61">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5292,22 +5297,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="F62" t="s">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="G62">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5333,22 +5338,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G63">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5374,22 +5379,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G64">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5415,22 +5420,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G65">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5456,22 +5461,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G66">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5497,22 +5502,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5538,22 +5543,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G68">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5579,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G69">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5620,22 +5625,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G70">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5661,22 +5666,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G71">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5702,22 +5707,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G72">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5743,22 +5748,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G73">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5784,22 +5789,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G74">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5825,22 +5830,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G75">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5866,22 +5871,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G76">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5907,22 +5912,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G77">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5948,22 +5953,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G78">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5989,22 +5994,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G79">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -6030,22 +6035,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G80">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6071,22 +6076,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G81">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6112,22 +6117,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G82">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6153,22 +6158,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G83">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6194,22 +6199,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>508</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>508</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>508</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>509</v>
+        <v>251</v>
       </c>
       <c r="F84" t="s">
-        <v>510</v>
+        <v>336</v>
       </c>
       <c r="G84">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6235,22 +6240,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>509</v>
       </c>
       <c r="F85" t="s">
-        <v>337</v>
+        <v>510</v>
       </c>
       <c r="G85">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6276,22 +6281,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>485</v>
+        <v>252</v>
       </c>
       <c r="F86" t="s">
-        <v>486</v>
+        <v>337</v>
       </c>
       <c r="G86">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6317,22 +6322,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="E87" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="F87" t="s">
-        <v>338</v>
+        <v>486</v>
       </c>
       <c r="G87">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6358,22 +6363,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G88">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6399,22 +6404,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G89">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6440,22 +6445,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G90">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6481,22 +6486,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G91">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6522,22 +6527,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G92">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6563,22 +6568,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G93">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6604,22 +6609,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F94" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G94">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6645,22 +6650,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G95">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6686,22 +6691,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G96">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6727,22 +6732,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G97">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6751,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6768,22 +6773,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G98">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6809,22 +6814,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G99">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6850,22 +6855,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F100" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G100">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6891,22 +6896,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G101">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6915,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6932,22 +6937,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G102">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6973,22 +6978,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G103">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -7014,22 +7019,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F104" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G104">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7055,22 +7060,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G105">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7096,22 +7101,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G106">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7137,22 +7142,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G107">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7178,22 +7183,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G108">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7219,22 +7224,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G109">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7260,22 +7265,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F110" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G110">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7301,22 +7306,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F111" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G111">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7342,22 +7347,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>512</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>512</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
-        <v>512</v>
+        <v>192</v>
       </c>
       <c r="E112" t="s">
-        <v>513</v>
+        <v>277</v>
       </c>
       <c r="F112" t="s">
-        <v>514</v>
+        <v>362</v>
       </c>
       <c r="G112">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7383,22 +7388,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>512</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>512</v>
       </c>
       <c r="D113" t="s">
-        <v>193</v>
+        <v>512</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>513</v>
       </c>
       <c r="F113" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="G113">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7424,22 +7429,22 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G114">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7465,22 +7470,22 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G115">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7506,22 +7511,22 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>516</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>516</v>
+        <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>516</v>
+        <v>195</v>
       </c>
       <c r="E116" t="s">
-        <v>517</v>
+        <v>280</v>
       </c>
       <c r="F116" t="s">
-        <v>518</v>
+        <v>365</v>
       </c>
       <c r="G116">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7547,22 +7552,22 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>516</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>516</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>516</v>
       </c>
       <c r="E117" t="s">
-        <v>281</v>
+        <v>517</v>
       </c>
       <c r="F117" t="s">
-        <v>366</v>
+        <v>518</v>
       </c>
       <c r="G117">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -7588,22 +7593,22 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E118" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G118">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -7629,22 +7634,22 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G119">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -7670,39 +7675,80 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" t="s">
+        <v>198</v>
+      </c>
+      <c r="E120" t="s">
+        <v>283</v>
+      </c>
+      <c r="F120" t="s">
+        <v>368</v>
+      </c>
+      <c r="G120">
+        <v>217</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
         <v>199</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>199</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>199</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>284</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>369</v>
       </c>
-      <c r="G120">
+      <c r="G121">
         <v>218</v>
       </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L120" t="b">
-        <v>0</v>
-      </c>
-      <c r="M120" t="b">
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7717,8 +7763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7927,7 +7974,7 @@
       <c r="E12" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7944,7 +7991,7 @@
       <c r="E13" t="s">
         <v>471</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7961,7 +8008,7 @@
       <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="518">
   <si>
     <t>Variable</t>
   </si>
@@ -1509,18 +1509,6 @@
   </si>
   <si>
     <t>BE_IND_121_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_11_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_11</t>
-  </si>
-  <si>
-    <t>IND_11</t>
-  </si>
-  <si>
-    <t>11 - Monitoring rating downgrade</t>
   </si>
   <si>
     <t>BE_IND_20</t>
@@ -1746,7 +1734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1764,7 +1752,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2791,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,22 +3234,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D12" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F12" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3270,7 +3257,7 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -3288,22 +3275,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>474</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3311,7 +3298,7 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -3329,22 +3316,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>468</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>469</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -3353,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -3370,22 +3357,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>466</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>468</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>469</v>
+        <v>89</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -3411,28 +3398,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>488</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>488</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>489</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>490</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>50</v>
@@ -3452,28 +3439,28 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>492</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>494</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>50</v>
@@ -3493,22 +3480,22 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3517,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -3534,22 +3521,22 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -3575,22 +3562,22 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -3616,22 +3603,22 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G21">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3657,22 +3644,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>495</v>
       </c>
       <c r="G22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3680,11 +3667,11 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>12</v>
+      <c r="J22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -3698,22 +3685,22 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" t="s">
+        <v>496</v>
+      </c>
+      <c r="D23" t="s">
+        <v>496</v>
+      </c>
+      <c r="E23" t="s">
         <v>497</v>
       </c>
-      <c r="C23" t="s">
-        <v>497</v>
-      </c>
-      <c r="D23" t="s">
-        <v>497</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>498</v>
       </c>
-      <c r="F23" t="s">
-        <v>499</v>
-      </c>
       <c r="G23">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3721,10 +3708,10 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L23" t="b">
@@ -3739,33 +3726,33 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>501</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>502</v>
+        <v>96</v>
       </c>
       <c r="G24">
+        <v>51</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L24" t="b">
@@ -3780,22 +3767,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3803,7 +3790,7 @@
       <c r="I25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="9" t="s">
         <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -3821,22 +3808,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G26">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3844,11 +3831,11 @@
       <c r="I26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>13</v>
+      <c r="J26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -3862,22 +3849,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>502</v>
       </c>
       <c r="G27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3903,22 +3890,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>504</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>504</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>505</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>506</v>
+        <v>285</v>
       </c>
       <c r="G28">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3944,22 +3931,22 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G29">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3985,22 +3972,22 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -4026,22 +4013,22 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -4067,22 +4054,22 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G32">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -4108,22 +4095,22 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -4149,22 +4136,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G34">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4190,22 +4177,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G35">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4231,22 +4218,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>473</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>473</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>473</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>516</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>517</v>
       </c>
       <c r="G36">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4272,22 +4259,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>473</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>473</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>473</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>520</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
-        <v>521</v>
+        <v>293</v>
       </c>
       <c r="G37">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4313,22 +4300,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G38">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4354,22 +4341,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G39">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4395,22 +4382,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G40">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4436,22 +4423,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G41">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4477,22 +4464,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G42">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4518,22 +4505,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G43">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4559,22 +4546,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G44">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4600,22 +4587,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G45">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4641,22 +4628,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G46">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4682,22 +4669,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G47">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4723,22 +4710,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G48">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4764,22 +4751,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G49">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4805,22 +4792,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G50">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4846,22 +4833,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G51">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4887,22 +4874,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G52">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4928,22 +4915,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G53">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4969,22 +4956,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G54">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -5010,22 +4997,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G55">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5051,22 +5038,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G56">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5092,22 +5079,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5133,22 +5120,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>476</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5174,22 +5161,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>477</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>476</v>
+        <v>229</v>
       </c>
       <c r="F59" t="s">
-        <v>478</v>
+        <v>314</v>
       </c>
       <c r="G59">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5215,22 +5202,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>482</v>
       </c>
       <c r="F60" t="s">
-        <v>314</v>
+        <v>483</v>
       </c>
       <c r="G60">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5256,22 +5243,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="C61" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="D61" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="E61" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="F61" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="G61">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5297,22 +5284,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>456</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>456</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>456</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>457</v>
+        <v>230</v>
       </c>
       <c r="F62" t="s">
-        <v>458</v>
+        <v>315</v>
       </c>
       <c r="G62">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5338,22 +5325,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G63">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5379,22 +5366,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G64">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5420,22 +5407,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G65">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5461,22 +5448,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G66">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5502,22 +5489,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G67">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5543,22 +5530,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5584,22 +5571,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G69">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5625,22 +5612,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G70">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5666,22 +5653,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G71">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5707,22 +5694,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G72">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5748,22 +5735,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G73">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5789,22 +5776,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G74">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5830,22 +5817,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G75">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5871,22 +5858,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F76" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G76">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5912,22 +5899,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G77">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5953,22 +5940,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F78" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G78">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5994,22 +5981,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F79" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G79">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -6035,22 +6022,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G80">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6076,22 +6063,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F81" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G81">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6117,22 +6104,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F82" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G82">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6158,22 +6145,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G83">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6199,22 +6186,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="E84" t="s">
-        <v>251</v>
+        <v>505</v>
       </c>
       <c r="F84" t="s">
-        <v>336</v>
+        <v>506</v>
       </c>
       <c r="G84">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6240,22 +6227,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>509</v>
+        <v>252</v>
       </c>
       <c r="F85" t="s">
-        <v>510</v>
+        <v>337</v>
       </c>
       <c r="G85">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6281,22 +6268,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="E86" t="s">
-        <v>252</v>
+        <v>485</v>
       </c>
       <c r="F86" t="s">
-        <v>337</v>
+        <v>486</v>
       </c>
       <c r="G86">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6322,22 +6309,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>484</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>484</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>484</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>485</v>
+        <v>253</v>
       </c>
       <c r="F87" t="s">
-        <v>486</v>
+        <v>338</v>
       </c>
       <c r="G87">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6363,22 +6350,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F88" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G88">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6404,22 +6391,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G89">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6445,22 +6432,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G90">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6486,22 +6473,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G91">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6527,22 +6514,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G92">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6568,22 +6555,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E93" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G93">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6609,22 +6596,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F94" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G94">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6650,22 +6637,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F95" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G95">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6691,22 +6678,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F96" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G96">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6732,22 +6719,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F97" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G97">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6756,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6773,22 +6760,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F98" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G98">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6814,22 +6801,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F99" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G99">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6855,22 +6842,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F100" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G100">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6896,22 +6883,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F101" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G101">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6920,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6937,22 +6924,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G102">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6978,22 +6965,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G103">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -7019,22 +7006,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F104" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G104">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7060,22 +7047,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F105" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G105">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7101,22 +7088,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F106" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G106">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7142,22 +7129,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F107" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G107">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7183,22 +7170,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F108" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G108">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7224,22 +7211,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F109" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G109">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7265,22 +7252,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F110" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G110">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7306,22 +7293,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F111" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G111">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7347,22 +7334,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>508</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>508</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>508</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>509</v>
       </c>
       <c r="F112" t="s">
-        <v>362</v>
+        <v>510</v>
       </c>
       <c r="G112">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7388,22 +7375,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>512</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>512</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s">
-        <v>512</v>
+        <v>193</v>
       </c>
       <c r="E113" t="s">
-        <v>513</v>
+        <v>278</v>
       </c>
       <c r="F113" t="s">
-        <v>514</v>
+        <v>363</v>
       </c>
       <c r="G113">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7429,22 +7416,22 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F114" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G114">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7470,22 +7457,22 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F115" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G115">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7511,22 +7498,22 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>512</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>512</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>512</v>
       </c>
       <c r="E116" t="s">
-        <v>280</v>
+        <v>513</v>
       </c>
       <c r="F116" t="s">
-        <v>365</v>
+        <v>514</v>
       </c>
       <c r="G116">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7552,22 +7539,22 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="E117" t="s">
-        <v>517</v>
+        <v>281</v>
       </c>
       <c r="F117" t="s">
-        <v>518</v>
+        <v>366</v>
       </c>
       <c r="G117">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -7593,22 +7580,22 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E118" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F118" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G118">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -7634,22 +7621,22 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G119">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -7675,22 +7662,22 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E120" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F120" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G120">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -7708,47 +7695,6 @@
         <v>0</v>
       </c>
       <c r="M120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>199</v>
-      </c>
-      <c r="C121" t="s">
-        <v>199</v>
-      </c>
-      <c r="D121" t="s">
-        <v>199</v>
-      </c>
-      <c r="E121" t="s">
-        <v>284</v>
-      </c>
-      <c r="F121" t="s">
-        <v>369</v>
-      </c>
-      <c r="G121">
-        <v>218</v>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L121" t="b">
-        <v>0</v>
-      </c>
-      <c r="M121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7761,11 +7707,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7966,13 +7912,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="E12" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -7983,13 +7929,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>470</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -8000,16 +7946,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>467</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>467</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,13 +7963,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -8034,13 +7980,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>491</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>491</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>488</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -8051,13 +7997,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>495</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>495</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>492</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -8068,16 +8014,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8085,13 +8031,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -8102,13 +8048,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -8119,13 +8065,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -8136,16 +8082,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8153,13 +8099,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="E23" t="s">
         <v>496</v>
-      </c>
-      <c r="C23" t="s">
-        <v>496</v>
-      </c>
-      <c r="E23" t="s">
-        <v>497</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -8170,13 +8116,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>503</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>503</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -8187,15 +8133,15 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>459</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8204,16 +8150,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>459</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8221,13 +8167,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>503</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>503</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -8238,13 +8184,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>370</v>
       </c>
       <c r="C28" t="s">
-        <v>507</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>504</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -8255,13 +8201,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -8272,13 +8218,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -8289,13 +8235,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -8306,13 +8252,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -8323,13 +8269,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -8340,13 +8286,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -8357,13 +8303,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -8374,13 +8320,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>472</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>472</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>473</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -8391,13 +8337,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="E37" t="s">
-        <v>473</v>
+        <v>123</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -8408,13 +8354,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -8425,13 +8371,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -8442,13 +8388,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -8459,13 +8405,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -8476,13 +8422,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -8493,13 +8439,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8510,13 +8456,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -8527,13 +8473,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C45" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8544,13 +8490,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -8561,13 +8507,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8578,13 +8524,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -8595,13 +8541,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8612,13 +8558,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -8629,13 +8575,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8646,13 +8592,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -8663,13 +8609,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8680,13 +8626,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C54" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8697,13 +8643,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C55" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8714,13 +8660,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8731,13 +8677,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C57" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8748,13 +8694,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8765,13 +8711,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="C59" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="E59" t="s">
-        <v>477</v>
+        <v>144</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8782,13 +8728,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8799,13 +8745,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="C61" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="E61" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8816,13 +8762,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="E62" t="s">
-        <v>456</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8833,13 +8779,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8850,13 +8796,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8867,13 +8813,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8884,13 +8830,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8901,13 +8847,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8918,13 +8864,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8935,13 +8881,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C69" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8952,13 +8898,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8969,13 +8915,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C71" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8986,13 +8932,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -9003,13 +8949,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C73" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -9020,13 +8966,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -9037,13 +8983,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -9054,13 +9000,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -9071,13 +9017,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -9088,13 +9034,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -9105,13 +9051,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C79" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -9122,13 +9068,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C80" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -9139,13 +9085,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -9156,13 +9102,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C82" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -9173,13 +9119,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -9190,13 +9136,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="C84" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -9207,13 +9153,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="C85" t="s">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="E85" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -9224,13 +9170,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="C86" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -9241,13 +9187,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="C87" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="E87" t="s">
-        <v>484</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -9258,13 +9204,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C88" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -9275,13 +9221,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C89" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -9292,13 +9238,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C90" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -9309,13 +9255,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -9326,13 +9272,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -9343,13 +9289,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C93" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -9360,13 +9306,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C94" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -9377,13 +9323,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C95" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -9394,13 +9340,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C96" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -9411,16 +9357,16 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C97" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9428,13 +9374,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C98" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
         <v>23</v>
@@ -9445,13 +9391,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
         <v>23</v>
@@ -9462,13 +9408,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
         <v>23</v>
@@ -9479,16 +9425,16 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C101" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9496,13 +9442,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C102" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -9513,13 +9459,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C103" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9530,13 +9476,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9547,13 +9493,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9564,13 +9510,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9581,13 +9527,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9598,13 +9544,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C108" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9615,13 +9561,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -9632,13 +9578,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -9649,13 +9595,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C111" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F111" t="s">
         <v>22</v>
@@ -9666,13 +9612,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="E112" t="s">
-        <v>192</v>
+        <v>508</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -9683,13 +9629,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="C113" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="E113" t="s">
-        <v>512</v>
+        <v>193</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -9700,13 +9646,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C114" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -9717,13 +9663,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C115" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -9734,13 +9680,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="E116" t="s">
-        <v>195</v>
+        <v>512</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -9751,13 +9697,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="C117" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="E117" t="s">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="F117" t="s">
         <v>22</v>
@@ -9768,13 +9714,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C118" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E118" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F118" t="s">
         <v>22</v>
@@ -9785,13 +9731,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C119" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E119" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F119" t="s">
         <v>22</v>
@@ -9802,32 +9748,15 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C120" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>454</v>
-      </c>
-      <c r="C121" t="s">
-        <v>454</v>
-      </c>
-      <c r="E121" t="s">
-        <v>199</v>
-      </c>
-      <c r="F121" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="523">
   <si>
     <t>Variable</t>
   </si>
@@ -1599,18 +1599,40 @@
   </si>
   <si>
     <t>67 - Max debt/EBITDA - 6 months</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>BE_IND_11_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_11</t>
+  </si>
+  <si>
+    <t>IND_11</t>
+  </si>
+  <si>
+    <t>11 - Monitoring rating downgrade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1732,26 +1754,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2778,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,26 +3253,26 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
+      <c r="A12" s="14" t="s">
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="C12" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="D12" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="F12" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3257,7 +3280,7 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -3275,22 +3298,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>474</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3298,7 +3321,7 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="12" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -3316,22 +3339,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>468</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>469</v>
+        <v>99</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -3340,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -3357,22 +3380,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -3398,28 +3421,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>488</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>488</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>489</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>490</v>
+        <v>89</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>50</v>
@@ -3439,28 +3462,28 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>490</v>
       </c>
       <c r="G17">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>50</v>
@@ -3480,22 +3503,22 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3504,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -3521,22 +3544,22 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -3562,22 +3585,22 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G20">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -3603,22 +3626,22 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3644,22 +3667,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>493</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>493</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>493</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>495</v>
+        <v>95</v>
       </c>
       <c r="G22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3667,11 +3690,11 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>13</v>
+      <c r="J22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -3685,22 +3708,22 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E23" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3726,22 +3749,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>496</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>496</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>496</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>498</v>
       </c>
       <c r="G24">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3749,10 +3772,10 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L24" t="b">
@@ -3767,22 +3790,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3790,7 +3813,7 @@
       <c r="I25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -3808,22 +3831,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G26">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3831,11 +3854,11 @@
       <c r="I26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>12</v>
+      <c r="J26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -3849,22 +3872,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>502</v>
+        <v>91</v>
       </c>
       <c r="G27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3890,22 +3913,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>501</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>502</v>
       </c>
       <c r="G28">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3931,22 +3954,22 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G29">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3972,22 +3995,22 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G30">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -4013,22 +4036,22 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G31">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -4054,22 +4077,22 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G32">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -4095,22 +4118,22 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G33">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -4136,22 +4159,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G34">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4177,22 +4200,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G35">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4218,22 +4241,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>473</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>473</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>473</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>516</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
-        <v>517</v>
+        <v>292</v>
       </c>
       <c r="G36">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4259,22 +4282,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>517</v>
       </c>
       <c r="G37">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4300,22 +4323,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G38">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4341,22 +4364,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G39">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4382,22 +4405,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G40">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4423,22 +4446,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G41">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4464,22 +4487,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G42">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4505,22 +4528,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G43">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4546,22 +4569,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G44">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4587,22 +4610,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G45">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4628,22 +4651,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G46">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4669,22 +4692,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G47">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4710,22 +4733,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G48">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4751,22 +4774,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G49">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4792,22 +4815,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G50">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4833,22 +4856,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G51">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4874,22 +4897,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G52">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4915,22 +4938,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G53">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4956,22 +4979,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G54">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4997,22 +5020,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G55">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5038,22 +5061,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G56">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5079,22 +5102,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5120,22 +5143,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>476</v>
+        <v>228</v>
       </c>
       <c r="F58" t="s">
-        <v>478</v>
+        <v>313</v>
       </c>
       <c r="G58">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5161,22 +5184,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>476</v>
       </c>
       <c r="F59" t="s">
-        <v>314</v>
+        <v>478</v>
       </c>
       <c r="G59">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5202,22 +5225,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>481</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>481</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>482</v>
+        <v>229</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>314</v>
       </c>
       <c r="G60">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5243,22 +5266,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D61" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="E61" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F61" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G61">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5284,22 +5307,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="F62" t="s">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="G62">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5325,22 +5348,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G63">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5366,22 +5389,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G64">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5407,22 +5430,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G65">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5448,22 +5471,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G66">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5489,22 +5512,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5530,22 +5553,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G68">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5571,22 +5594,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G69">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5612,22 +5635,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G70">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5653,22 +5676,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G71">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5694,22 +5717,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G72">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5735,22 +5758,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G73">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5776,22 +5799,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G74">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5817,22 +5840,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G75">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5858,22 +5881,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G76">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5899,22 +5922,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G77">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5940,22 +5963,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G78">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5981,22 +6004,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G79">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -6022,22 +6045,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G80">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6063,22 +6086,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G81">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6104,22 +6127,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G82">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6145,22 +6168,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G83">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6186,22 +6209,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>504</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>504</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>505</v>
+        <v>251</v>
       </c>
       <c r="F84" t="s">
-        <v>506</v>
+        <v>336</v>
       </c>
       <c r="G84">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6227,22 +6250,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>504</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>504</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>504</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>505</v>
       </c>
       <c r="F85" t="s">
-        <v>337</v>
+        <v>506</v>
       </c>
       <c r="G85">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6268,22 +6291,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>485</v>
+        <v>252</v>
       </c>
       <c r="F86" t="s">
-        <v>486</v>
+        <v>337</v>
       </c>
       <c r="G86">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6309,22 +6332,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="E87" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="F87" t="s">
-        <v>338</v>
+        <v>486</v>
       </c>
       <c r="G87">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6350,22 +6373,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G88">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6391,22 +6414,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G89">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6432,22 +6455,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G90">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6473,22 +6496,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G91">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6514,22 +6537,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G92">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6555,22 +6578,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G93">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6596,22 +6619,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F94" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G94">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6637,22 +6660,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G95">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6678,22 +6701,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G96">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6719,22 +6742,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G97">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6743,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6760,22 +6783,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G98">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6801,22 +6824,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G99">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6842,22 +6865,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F100" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G100">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6883,22 +6906,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G101">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6907,10 +6930,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6924,22 +6947,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G102">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6965,22 +6988,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G103">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -7006,22 +7029,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F104" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G104">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7047,22 +7070,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G105">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7088,22 +7111,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G106">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7129,22 +7152,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G107">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7170,22 +7193,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G108">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7211,22 +7234,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G109">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7252,22 +7275,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F110" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G110">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7293,22 +7316,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F111" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G111">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7334,22 +7357,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>508</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>508</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
-        <v>508</v>
+        <v>192</v>
       </c>
       <c r="E112" t="s">
-        <v>509</v>
+        <v>277</v>
       </c>
       <c r="F112" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G112">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7375,22 +7398,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="D113" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>509</v>
       </c>
       <c r="F113" t="s">
-        <v>363</v>
+        <v>510</v>
       </c>
       <c r="G113">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7416,22 +7439,22 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G114">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7457,22 +7480,22 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G115">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7498,22 +7521,22 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>512</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>512</v>
+        <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>512</v>
+        <v>195</v>
       </c>
       <c r="E116" t="s">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="F116" t="s">
-        <v>514</v>
+        <v>365</v>
       </c>
       <c r="G116">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7539,22 +7562,22 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>512</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>512</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>512</v>
       </c>
       <c r="E117" t="s">
-        <v>281</v>
+        <v>513</v>
       </c>
       <c r="F117" t="s">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="G117">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -7580,22 +7603,22 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E118" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G118">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -7621,22 +7644,22 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G119">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -7662,39 +7685,80 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" t="s">
+        <v>198</v>
+      </c>
+      <c r="E120" t="s">
+        <v>283</v>
+      </c>
+      <c r="F120" t="s">
+        <v>368</v>
+      </c>
+      <c r="G120">
+        <v>217</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
         <v>199</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>199</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>199</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>284</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>369</v>
       </c>
-      <c r="G120">
+      <c r="G121">
         <v>218</v>
       </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L120" t="b">
-        <v>0</v>
-      </c>
-      <c r="M120" t="b">
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7707,11 +7771,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,18 +7973,18 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="E12" t="s">
-        <v>471</v>
-      </c>
-      <c r="F12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7929,13 +7993,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>470</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>470</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -7946,16 +8010,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7963,13 +8027,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -7980,13 +8044,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>491</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>488</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -7997,13 +8061,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -8014,16 +8078,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8031,13 +8095,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -8048,13 +8112,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -8065,13 +8129,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -8082,16 +8146,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>492</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>493</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8099,13 +8163,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -8116,13 +8180,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>496</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -8133,15 +8197,15 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8150,16 +8214,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8167,13 +8231,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>503</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -8184,13 +8248,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="C28" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -8201,13 +8265,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -8218,13 +8282,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -8235,13 +8299,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -8252,13 +8316,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -8269,13 +8333,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -8286,13 +8350,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -8303,13 +8367,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -8320,13 +8384,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="E36" t="s">
-        <v>473</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -8337,13 +8401,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -8354,13 +8418,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -8371,13 +8435,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -8388,13 +8452,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -8405,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -8422,13 +8486,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -8439,13 +8503,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8456,13 +8520,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -8473,13 +8537,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8490,13 +8554,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -8507,13 +8571,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8524,13 +8588,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -8541,13 +8605,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8558,13 +8622,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -8575,13 +8639,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8592,13 +8656,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -8609,13 +8673,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8626,13 +8690,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8643,13 +8707,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8660,13 +8724,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8677,13 +8741,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8694,13 +8758,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="C58" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="E58" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8711,13 +8775,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="C59" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8728,13 +8792,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="C60" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="E60" t="s">
-        <v>481</v>
+        <v>144</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8745,13 +8809,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C61" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="E61" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8762,13 +8826,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="C62" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8779,13 +8843,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8796,13 +8860,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8813,13 +8877,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8830,13 +8894,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8847,13 +8911,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8864,13 +8928,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8881,13 +8945,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8898,13 +8962,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8915,13 +8979,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8932,13 +8996,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8949,13 +9013,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8966,13 +9030,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8983,13 +9047,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -9000,13 +9064,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -9017,13 +9081,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -9034,13 +9098,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C78" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -9051,13 +9115,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -9068,13 +9132,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -9085,13 +9149,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C81" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -9102,13 +9166,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -9119,13 +9183,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -9136,13 +9200,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>507</v>
+        <v>421</v>
       </c>
       <c r="C84" t="s">
-        <v>507</v>
+        <v>421</v>
       </c>
       <c r="E84" t="s">
-        <v>504</v>
+        <v>166</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -9153,13 +9217,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>422</v>
+        <v>507</v>
       </c>
       <c r="C85" t="s">
-        <v>422</v>
+        <v>507</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>504</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -9170,13 +9234,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="C86" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="E86" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -9187,13 +9251,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C87" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -9204,13 +9268,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -9221,13 +9285,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -9238,13 +9302,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -9255,13 +9319,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -9272,13 +9336,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -9289,13 +9353,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -9306,13 +9370,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -9323,13 +9387,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -9340,13 +9404,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -9357,16 +9421,16 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9374,13 +9438,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
         <v>23</v>
@@ -9391,13 +9455,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
         <v>23</v>
@@ -9408,13 +9472,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
         <v>23</v>
@@ -9425,16 +9489,16 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9442,13 +9506,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -9459,13 +9523,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9476,13 +9540,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9493,13 +9557,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9510,13 +9574,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9527,13 +9591,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9544,13 +9608,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9561,13 +9625,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -9578,13 +9642,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C110" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -9595,13 +9659,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C111" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F111" t="s">
         <v>22</v>
@@ -9612,13 +9676,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="C112" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="E112" t="s">
-        <v>508</v>
+        <v>192</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -9629,13 +9693,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="E113" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -9646,13 +9710,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C114" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -9663,13 +9727,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -9680,13 +9744,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="C116" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="E116" t="s">
-        <v>512</v>
+        <v>195</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -9697,13 +9761,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="E117" t="s">
-        <v>196</v>
+        <v>512</v>
       </c>
       <c r="F117" t="s">
         <v>22</v>
@@ -9714,13 +9778,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F118" t="s">
         <v>22</v>
@@ -9731,13 +9795,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F119" t="s">
         <v>22</v>
@@ -9748,15 +9812,32 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
+        <v>453</v>
+      </c>
+      <c r="C120" t="s">
+        <v>453</v>
+      </c>
+      <c r="E120" t="s">
+        <v>198</v>
+      </c>
+      <c r="F120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
         <v>454</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>454</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>199</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -2804,7 +2804,7 @@
   <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,7 +3253,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" t="s">
         <v>518</v>
       </c>
       <c r="B12" t="s">
@@ -6246,8 +6246,8 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>11</v>
+      <c r="A85" s="14" t="s">
+        <v>518</v>
       </c>
       <c r="B85" t="s">
         <v>504</v>
@@ -7774,8 +7774,8 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="B85" t="s">
         <v>507</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -2803,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,8 +3253,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>518</v>
+      <c r="A12" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>520</v>
@@ -6246,8 +6246,8 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>11</v>
+      <c r="A85" s="14" t="s">
+        <v>518</v>
       </c>
       <c r="B85" t="s">
         <v>504</v>
@@ -7774,8 +7774,8 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>519</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="B85" t="s">
         <v>507</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="522">
   <si>
     <t>Variable</t>
   </si>
@@ -1599,9 +1599,6 @@
   </si>
   <si>
     <t>67 - Max debt/EBITDA - 6 months</t>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
   <si>
     <t>BE_IND_11_REAL</t>
@@ -1620,19 +1617,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1754,27 +1744,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2803,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,23 +3242,23 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>518</v>
+      <c r="A12" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E12" t="s">
         <v>520</v>
       </c>
-      <c r="C12" t="s">
-        <v>520</v>
-      </c>
-      <c r="D12" t="s">
-        <v>520</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>521</v>
-      </c>
-      <c r="F12" t="s">
-        <v>522</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -6246,8 +6235,8 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>518</v>
+      <c r="A85" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>504</v>
@@ -7773,9 +7762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7973,16 +7962,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>518</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s">
         <v>519</v>
-      </c>
-      <c r="C12" t="s">
-        <v>519</v>
-      </c>
-      <c r="E12" t="s">
-        <v>520</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>22</v>
@@ -9214,7 +9203,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>507</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -2792,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,7 +3228,7 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -3269,7 +3269,7 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -7762,9 +7762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,7 +7956,7 @@
       <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
       <c r="E12" t="s">
         <v>519</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="522">
   <si>
     <t>Variable</t>
   </si>
@@ -1601,9 +1601,6 @@
     <t>67 - Max debt/EBITDA - 6 months</t>
   </si>
   <si>
-    <t>BE_IND_11_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_11</t>
   </si>
   <si>
@@ -1611,6 +1608,9 @@
   </si>
   <si>
     <t>11 - Monitoring rating downgrade</t>
+  </si>
+  <si>
+    <t>BE_IND_11_INTEGER</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1765,6 +1765,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2792,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,7 +2827,7 @@
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="1023" width="8.7109375"/>
@@ -2827,7 +2846,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
@@ -2862,7 +2881,7 @@
       <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -2903,7 +2922,7 @@
       <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="b">
@@ -2944,7 +2963,7 @@
       <c r="J4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="b">
@@ -2985,7 +3004,7 @@
       <c r="J5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="5" t="b">
+      <c r="K5" s="16" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="11" t="b">
@@ -3026,7 +3045,7 @@
       <c r="J6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="b">
@@ -3067,7 +3086,7 @@
       <c r="J7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="b">
@@ -3108,7 +3127,7 @@
       <c r="J8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="b">
@@ -3149,7 +3168,7 @@
       <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="b">
@@ -3190,7 +3209,7 @@
       <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="b">
@@ -3231,7 +3250,7 @@
       <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="b">
@@ -3246,20 +3265,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s">
         <v>519</v>
       </c>
-      <c r="C12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D12" t="s">
-        <v>519</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>520</v>
       </c>
-      <c r="F12" t="s">
-        <v>521</v>
-      </c>
       <c r="G12">
         <v>11</v>
       </c>
@@ -3269,11 +3288,11 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>12</v>
+      <c r="J12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -3313,7 +3332,7 @@
       <c r="J13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="b">
@@ -3354,7 +3373,7 @@
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L14" t="b">
@@ -3395,7 +3414,7 @@
       <c r="J15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L15" t="b">
@@ -3436,7 +3455,7 @@
       <c r="J16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L16" t="b">
@@ -3477,7 +3496,7 @@
       <c r="J17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L17" t="b">
@@ -3518,7 +3537,7 @@
       <c r="J18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L18" t="b">
@@ -3559,7 +3578,7 @@
       <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="b">
@@ -3600,7 +3619,7 @@
       <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L20" t="b">
@@ -3641,7 +3660,7 @@
       <c r="J21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L21" t="b">
@@ -3682,7 +3701,7 @@
       <c r="J22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L22" t="b">
@@ -3723,7 +3742,7 @@
       <c r="J23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L23" t="b">
@@ -3764,7 +3783,7 @@
       <c r="J24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L24" t="b">
@@ -3805,7 +3824,7 @@
       <c r="J25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L25" t="b">
@@ -3846,7 +3865,7 @@
       <c r="J26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L26" t="b">
@@ -3887,7 +3906,7 @@
       <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L27" t="b">
@@ -3928,7 +3947,7 @@
       <c r="J28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L28" t="b">
@@ -3969,7 +3988,7 @@
       <c r="J29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="b">
@@ -4010,7 +4029,7 @@
       <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L30" t="b">
@@ -4051,7 +4070,7 @@
       <c r="J31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L31" t="b">
@@ -4092,7 +4111,7 @@
       <c r="J32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L32" t="b">
@@ -4133,7 +4152,7 @@
       <c r="J33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L33" t="b">
@@ -4174,7 +4193,7 @@
       <c r="J34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L34" t="b">
@@ -4215,7 +4234,7 @@
       <c r="J35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L35" t="b">
@@ -4256,7 +4275,7 @@
       <c r="J36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L36" t="b">
@@ -4297,7 +4316,7 @@
       <c r="J37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L37" t="b">
@@ -4338,7 +4357,7 @@
       <c r="J38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L38" t="b">
@@ -4379,7 +4398,7 @@
       <c r="J39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="b">
@@ -4420,7 +4439,7 @@
       <c r="J40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="b">
@@ -4461,7 +4480,7 @@
       <c r="J41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L41" t="b">
@@ -4502,7 +4521,7 @@
       <c r="J42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L42" t="b">
@@ -4543,7 +4562,7 @@
       <c r="J43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L43" t="b">
@@ -4584,7 +4603,7 @@
       <c r="J44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L44" t="b">
@@ -4625,7 +4644,7 @@
       <c r="J45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L45" t="b">
@@ -4666,7 +4685,7 @@
       <c r="J46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L46" t="b">
@@ -4707,7 +4726,7 @@
       <c r="J47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L47" t="b">
@@ -4748,7 +4767,7 @@
       <c r="J48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="b">
@@ -4789,7 +4808,7 @@
       <c r="J49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="b">
@@ -4830,7 +4849,7 @@
       <c r="J50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L50" t="b">
@@ -4871,7 +4890,7 @@
       <c r="J51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="b">
@@ -4912,7 +4931,7 @@
       <c r="J52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L52" t="b">
@@ -4953,7 +4972,7 @@
       <c r="J53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L53" t="b">
@@ -4994,7 +5013,7 @@
       <c r="J54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L54" t="b">
@@ -5035,7 +5054,7 @@
       <c r="J55" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L55" t="b">
@@ -5076,7 +5095,7 @@
       <c r="J56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L56" t="b">
@@ -5117,7 +5136,7 @@
       <c r="J57" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L57" t="b">
@@ -5158,7 +5177,7 @@
       <c r="J58" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L58" t="b">
@@ -5199,7 +5218,7 @@
       <c r="J59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L59" t="b">
@@ -5240,7 +5259,7 @@
       <c r="J60" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L60" t="b">
@@ -5281,7 +5300,7 @@
       <c r="J61" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L61" t="b">
@@ -5322,7 +5341,7 @@
       <c r="J62" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L62" t="b">
@@ -5363,7 +5382,7 @@
       <c r="J63" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L63" t="b">
@@ -5404,7 +5423,7 @@
       <c r="J64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L64" t="b">
@@ -5445,7 +5464,7 @@
       <c r="J65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L65" t="b">
@@ -5486,7 +5505,7 @@
       <c r="J66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="b">
@@ -5527,7 +5546,7 @@
       <c r="J67" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L67" t="b">
@@ -5568,7 +5587,7 @@
       <c r="J68" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L68" t="b">
@@ -5609,7 +5628,7 @@
       <c r="J69" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="b">
@@ -5650,7 +5669,7 @@
       <c r="J70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L70" t="b">
@@ -5691,7 +5710,7 @@
       <c r="J71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L71" t="b">
@@ -5732,7 +5751,7 @@
       <c r="J72" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L72" t="b">
@@ -5773,7 +5792,7 @@
       <c r="J73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L73" t="b">
@@ -5814,7 +5833,7 @@
       <c r="J74" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L74" t="b">
@@ -5855,7 +5874,7 @@
       <c r="J75" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K75" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L75" t="b">
@@ -5896,7 +5915,7 @@
       <c r="J76" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K76" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L76" t="b">
@@ -5937,7 +5956,7 @@
       <c r="J77" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L77" t="b">
@@ -5978,7 +5997,7 @@
       <c r="J78" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L78" t="b">
@@ -6019,7 +6038,7 @@
       <c r="J79" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K79" s="5" t="s">
+      <c r="K79" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L79" t="b">
@@ -6060,7 +6079,7 @@
       <c r="J80" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K80" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L80" t="b">
@@ -6101,7 +6120,7 @@
       <c r="J81" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="K81" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L81" t="b">
@@ -6142,7 +6161,7 @@
       <c r="J82" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L82" t="b">
@@ -6183,7 +6202,7 @@
       <c r="J83" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="5" t="s">
+      <c r="K83" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L83" t="b">
@@ -6224,7 +6243,7 @@
       <c r="J84" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L84" t="b">
@@ -6265,7 +6284,7 @@
       <c r="J85" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="5" t="s">
+      <c r="K85" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L85" t="b">
@@ -6306,7 +6325,7 @@
       <c r="J86" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L86" t="b">
@@ -6347,7 +6366,7 @@
       <c r="J87" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K87" s="5" t="s">
+      <c r="K87" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L87" t="b">
@@ -6388,7 +6407,7 @@
       <c r="J88" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K88" s="5" t="s">
+      <c r="K88" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L88" t="b">
@@ -6429,7 +6448,7 @@
       <c r="J89" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K89" s="5" t="s">
+      <c r="K89" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L89" t="b">
@@ -6470,7 +6489,7 @@
       <c r="J90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K90" s="5" t="s">
+      <c r="K90" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L90" t="b">
@@ -6511,7 +6530,7 @@
       <c r="J91" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K91" s="5" t="s">
+      <c r="K91" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L91" t="b">
@@ -6552,7 +6571,7 @@
       <c r="J92" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K92" s="5" t="s">
+      <c r="K92" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L92" t="b">
@@ -6593,7 +6612,7 @@
       <c r="J93" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="K93" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L93" t="b">
@@ -6634,7 +6653,7 @@
       <c r="J94" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K94" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L94" t="b">
@@ -6675,7 +6694,7 @@
       <c r="J95" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K95" s="5" t="s">
+      <c r="K95" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L95" t="b">
@@ -6716,7 +6735,7 @@
       <c r="J96" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K96" s="5" t="s">
+      <c r="K96" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L96" t="b">
@@ -6757,7 +6776,7 @@
       <c r="J97" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K97" s="5" t="s">
+      <c r="K97" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L97" t="b">
@@ -6798,7 +6817,7 @@
       <c r="J98" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K98" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L98" t="b">
@@ -6839,7 +6858,7 @@
       <c r="J99" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K99" s="7" t="s">
+      <c r="K99" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L99" t="b">
@@ -6880,7 +6899,7 @@
       <c r="J100" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="K100" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L100" t="b">
@@ -6921,7 +6940,7 @@
       <c r="J101" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="K101" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L101" t="b">
@@ -6962,7 +6981,7 @@
       <c r="J102" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K102" s="5" t="s">
+      <c r="K102" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L102" t="b">
@@ -7003,7 +7022,7 @@
       <c r="J103" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K103" s="5" t="s">
+      <c r="K103" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L103" t="b">
@@ -7044,7 +7063,7 @@
       <c r="J104" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K104" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L104" t="b">
@@ -7085,7 +7104,7 @@
       <c r="J105" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K105" s="5" t="s">
+      <c r="K105" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L105" t="b">
@@ -7126,7 +7145,7 @@
       <c r="J106" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K106" s="5" t="s">
+      <c r="K106" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L106" t="b">
@@ -7167,7 +7186,7 @@
       <c r="J107" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K107" s="5" t="s">
+      <c r="K107" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L107" t="b">
@@ -7208,7 +7227,7 @@
       <c r="J108" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L108" t="b">
@@ -7249,7 +7268,7 @@
       <c r="J109" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K109" s="5" t="s">
+      <c r="K109" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L109" t="b">
@@ -7290,7 +7309,7 @@
       <c r="J110" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K110" s="5" t="s">
+      <c r="K110" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L110" t="b">
@@ -7331,7 +7350,7 @@
       <c r="J111" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K111" s="5" t="s">
+      <c r="K111" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L111" t="b">
@@ -7372,7 +7391,7 @@
       <c r="J112" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K112" s="5" t="s">
+      <c r="K112" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L112" t="b">
@@ -7413,7 +7432,7 @@
       <c r="J113" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K113" s="5" t="s">
+      <c r="K113" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L113" t="b">
@@ -7454,7 +7473,7 @@
       <c r="J114" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K114" s="5" t="s">
+      <c r="K114" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L114" t="b">
@@ -7495,7 +7514,7 @@
       <c r="J115" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K115" s="5" t="s">
+      <c r="K115" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L115" t="b">
@@ -7536,7 +7555,7 @@
       <c r="J116" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K116" s="5" t="s">
+      <c r="K116" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L116" t="b">
@@ -7577,7 +7596,7 @@
       <c r="J117" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K117" s="5" t="s">
+      <c r="K117" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L117" t="b">
@@ -7618,7 +7637,7 @@
       <c r="J118" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K118" s="5" t="s">
+      <c r="K118" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L118" t="b">
@@ -7659,7 +7678,7 @@
       <c r="J119" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K119" s="5" t="s">
+      <c r="K119" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L119" t="b">
@@ -7700,7 +7719,7 @@
       <c r="J120" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K120" s="5" t="s">
+      <c r="K120" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L120" t="b">
@@ -7741,7 +7760,7 @@
       <c r="J121" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K121" s="5" t="s">
+      <c r="K121" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L121" t="b">
@@ -7762,9 +7781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7961,20 +7980,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C12" t="s">
-        <v>518</v>
-      </c>
-      <c r="E12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="506">
   <si>
     <t>Variable</t>
   </si>
@@ -545,12 +545,6 @@
     <t>BE_IND_116</t>
   </si>
   <si>
-    <t>BE_IND_118</t>
-  </si>
-  <si>
-    <t>BE_IND_120</t>
-  </si>
-  <si>
     <t>BE_IND_124</t>
   </si>
   <si>
@@ -800,12 +794,6 @@
     <t>IND_116</t>
   </si>
   <si>
-    <t>IND_118</t>
-  </si>
-  <si>
-    <t>IND_120</t>
-  </si>
-  <si>
     <t>IND_124</t>
   </si>
   <si>
@@ -1055,12 +1043,6 @@
     <t xml:space="preserve">116 - Net Income/turnover change </t>
   </si>
   <si>
-    <t xml:space="preserve">118 - Interest expenses/short term liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 - Interest expenses/total liabilities </t>
-  </si>
-  <si>
     <t xml:space="preserve">124 - Quick ratio </t>
   </si>
   <si>
@@ -1310,12 +1292,6 @@
     <t>BE_IND_116_REAL</t>
   </si>
   <si>
-    <t>BE_IND_118_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_120_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_124_REAL</t>
   </si>
   <si>
@@ -1499,18 +1475,6 @@
     <t>93 - Interest expenses/total liabilities  - change</t>
   </si>
   <si>
-    <t>BE_IND_121</t>
-  </si>
-  <si>
-    <t>IND_121</t>
-  </si>
-  <si>
-    <t>121 - Interest expenses/total liabilities - change</t>
-  </si>
-  <si>
-    <t>BE_IND_121_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_20</t>
   </si>
   <si>
@@ -1557,18 +1521,6 @@
   </si>
   <si>
     <t>BE_IND_57_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_119</t>
-  </si>
-  <si>
-    <t>IND_119</t>
-  </si>
-  <si>
-    <t>119 - Interest expenses/short term liabilities - change</t>
-  </si>
-  <si>
-    <t>BE_IND_119_REAL</t>
   </si>
   <si>
     <t>BE_IND_210</t>
@@ -2809,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="G79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G84" sqref="A84:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,10 +2837,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -2978,19 +2930,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G5" s="6">
         <v>202</v>
@@ -3265,19 +3217,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="E12" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="F12" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3306,19 +3258,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E13" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F13" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -3388,19 +3340,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D15" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E15" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F15" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -3470,19 +3422,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C17" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D17" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E17" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F17" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -3716,19 +3668,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C23" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D23" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E23" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="F23" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G23">
         <v>49</v>
@@ -3757,19 +3709,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D24" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E24" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F24" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -3921,19 +3873,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C28" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D28" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E28" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F28" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G28">
         <v>57</v>
@@ -3971,10 +3923,10 @@
         <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G29">
         <v>58</v>
@@ -4012,10 +3964,10 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G30">
         <v>59</v>
@@ -4053,10 +4005,10 @@
         <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G31">
         <v>60</v>
@@ -4094,10 +4046,10 @@
         <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G32">
         <v>61</v>
@@ -4135,10 +4087,10 @@
         <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G33">
         <v>62</v>
@@ -4176,10 +4128,10 @@
         <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G34">
         <v>63</v>
@@ -4217,10 +4169,10 @@
         <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G35">
         <v>64</v>
@@ -4258,10 +4210,10 @@
         <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G36">
         <v>66</v>
@@ -4290,19 +4242,19 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E37" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="F37" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="G37">
         <v>67</v>
@@ -4340,10 +4292,10 @@
         <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G38">
         <v>68</v>
@@ -4381,10 +4333,10 @@
         <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G39">
         <v>69</v>
@@ -4422,10 +4374,10 @@
         <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G40">
         <v>70</v>
@@ -4463,10 +4415,10 @@
         <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G41">
         <v>71</v>
@@ -4504,10 +4456,10 @@
         <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G42">
         <v>74</v>
@@ -4545,10 +4497,10 @@
         <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G43">
         <v>75</v>
@@ -4586,10 +4538,10 @@
         <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G44">
         <v>76</v>
@@ -4627,10 +4579,10 @@
         <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G45">
         <v>77</v>
@@ -4668,10 +4620,10 @@
         <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G46">
         <v>78</v>
@@ -4709,10 +4661,10 @@
         <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G47">
         <v>79</v>
@@ -4750,10 +4702,10 @@
         <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G48">
         <v>80</v>
@@ -4791,10 +4743,10 @@
         <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G49">
         <v>81</v>
@@ -4832,10 +4784,10 @@
         <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G50">
         <v>82</v>
@@ -4873,10 +4825,10 @@
         <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G51">
         <v>83</v>
@@ -4914,10 +4866,10 @@
         <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G52">
         <v>84</v>
@@ -4955,10 +4907,10 @@
         <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G53">
         <v>85</v>
@@ -4996,10 +4948,10 @@
         <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G54">
         <v>86</v>
@@ -5037,10 +4989,10 @@
         <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G55">
         <v>87</v>
@@ -5078,10 +5030,10 @@
         <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G56">
         <v>88</v>
@@ -5119,10 +5071,10 @@
         <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G57">
         <v>89</v>
@@ -5160,10 +5112,10 @@
         <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G58">
         <v>90</v>
@@ -5192,19 +5144,19 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D59" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E59" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F59" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G59">
         <v>91</v>
@@ -5242,10 +5194,10 @@
         <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F60" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G60">
         <v>92</v>
@@ -5274,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C61" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D61" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E61" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F61" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G61">
         <v>93</v>
@@ -5315,19 +5267,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C62" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D62" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E62" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F62" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G62">
         <v>94</v>
@@ -5365,10 +5317,10 @@
         <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F63" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G63">
         <v>95</v>
@@ -5406,10 +5358,10 @@
         <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F64" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G64">
         <v>96</v>
@@ -5447,10 +5399,10 @@
         <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F65" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G65">
         <v>97</v>
@@ -5488,10 +5440,10 @@
         <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F66" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G66">
         <v>98</v>
@@ -5529,10 +5481,10 @@
         <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G67">
         <v>99</v>
@@ -5570,10 +5522,10 @@
         <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F68" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G68">
         <v>100</v>
@@ -5611,10 +5563,10 @@
         <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G69">
         <v>102</v>
@@ -5652,10 +5604,10 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F70" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G70">
         <v>103</v>
@@ -5693,10 +5645,10 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F71" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G71">
         <v>104</v>
@@ -5734,10 +5686,10 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G72">
         <v>105</v>
@@ -5775,10 +5727,10 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F73" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G73">
         <v>106</v>
@@ -5816,10 +5768,10 @@
         <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F74" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G74">
         <v>107</v>
@@ -5857,10 +5809,10 @@
         <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F75" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G75">
         <v>108</v>
@@ -5898,10 +5850,10 @@
         <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F76" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G76">
         <v>109</v>
@@ -5939,10 +5891,10 @@
         <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G77">
         <v>110</v>
@@ -5980,10 +5932,10 @@
         <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F78" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G78">
         <v>111</v>
@@ -6021,10 +5973,10 @@
         <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F79" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G79">
         <v>112</v>
@@ -6062,10 +6014,10 @@
         <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G80">
         <v>113</v>
@@ -6103,10 +6055,10 @@
         <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F81" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G81">
         <v>114</v>
@@ -6144,10 +6096,10 @@
         <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F82" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G82">
         <v>115</v>
@@ -6185,10 +6137,10 @@
         <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F83" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G83">
         <v>116</v>
@@ -6226,13 +6178,13 @@
         <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F84" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G84">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6258,22 +6210,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>504</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>504</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>504</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>505</v>
+        <v>250</v>
       </c>
       <c r="F85" t="s">
-        <v>506</v>
+        <v>333</v>
       </c>
       <c r="G85">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6299,22 +6251,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F86" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G86">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6340,22 +6292,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>484</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>484</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>484</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>485</v>
+        <v>252</v>
       </c>
       <c r="F87" t="s">
-        <v>486</v>
+        <v>335</v>
       </c>
       <c r="G87">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6381,22 +6333,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
         <v>253</v>
       </c>
       <c r="F88" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G88">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6422,22 +6374,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E89" t="s">
         <v>254</v>
       </c>
       <c r="F89" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G89">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6463,22 +6415,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E90" t="s">
         <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G90">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6504,22 +6456,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E91" t="s">
         <v>256</v>
       </c>
       <c r="F91" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G91">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6545,22 +6497,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E92" t="s">
         <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G92">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6586,22 +6538,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
         <v>258</v>
       </c>
       <c r="F93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G93">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6627,22 +6579,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
         <v>259</v>
       </c>
       <c r="F94" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G94">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6651,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K94" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K94" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -6668,22 +6620,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
         <v>260</v>
       </c>
       <c r="F95" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G95">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6692,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K95" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
@@ -6709,22 +6661,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E96" t="s">
         <v>261</v>
       </c>
       <c r="F96" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G96">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6733,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K96" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -6750,22 +6702,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
         <v>262</v>
       </c>
       <c r="F97" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G97">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6774,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6791,22 +6743,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
         <v>263</v>
       </c>
       <c r="F98" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G98">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6815,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K98" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -6832,22 +6784,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
         <v>264</v>
       </c>
       <c r="F99" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G99">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6856,10 +6808,10 @@
         <v>0</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K99" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K99" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -6873,22 +6825,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
         <v>265</v>
       </c>
       <c r="F100" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G100">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6897,10 +6849,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K100" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K100" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -6914,22 +6866,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E101" t="s">
         <v>266</v>
       </c>
       <c r="F101" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G101">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6938,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K101" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K101" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6955,22 +6907,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
         <v>267</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G102">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6996,22 +6948,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E103" t="s">
         <v>268</v>
       </c>
       <c r="F103" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G103">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -7037,22 +6989,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E104" t="s">
         <v>269</v>
       </c>
       <c r="F104" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G104">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7078,22 +7030,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E105" t="s">
         <v>270</v>
       </c>
       <c r="F105" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G105">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7119,22 +7071,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E106" t="s">
         <v>271</v>
       </c>
       <c r="F106" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G106">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7160,22 +7112,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E107" t="s">
         <v>272</v>
       </c>
       <c r="F107" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G107">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7201,22 +7153,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E108" t="s">
         <v>273</v>
       </c>
       <c r="F108" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G108">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7242,22 +7194,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>492</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>492</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>492</v>
       </c>
       <c r="E109" t="s">
-        <v>274</v>
+        <v>493</v>
       </c>
       <c r="F109" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="G109">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7283,22 +7235,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F110" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G110">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7324,22 +7276,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F111" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G111">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7365,22 +7317,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F112" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G112">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7406,22 +7358,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C113" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D113" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="E113" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F113" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G113">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7447,22 +7399,22 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G114">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7488,22 +7440,22 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G115">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7529,22 +7481,22 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E116" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F116" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G116">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7570,22 +7522,22 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="D117" t="s">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="E117" t="s">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="F117" t="s">
-        <v>514</v>
+        <v>363</v>
       </c>
       <c r="G117">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -7603,170 +7555,6 @@
         <v>0</v>
       </c>
       <c r="M117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" t="s">
-        <v>196</v>
-      </c>
-      <c r="D118" t="s">
-        <v>196</v>
-      </c>
-      <c r="E118" t="s">
-        <v>281</v>
-      </c>
-      <c r="F118" t="s">
-        <v>366</v>
-      </c>
-      <c r="G118">
-        <v>215</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K118" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L118" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
-        <v>197</v>
-      </c>
-      <c r="C119" t="s">
-        <v>197</v>
-      </c>
-      <c r="D119" t="s">
-        <v>197</v>
-      </c>
-      <c r="E119" t="s">
-        <v>282</v>
-      </c>
-      <c r="F119" t="s">
-        <v>367</v>
-      </c>
-      <c r="G119">
-        <v>216</v>
-      </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K119" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L119" t="b">
-        <v>0</v>
-      </c>
-      <c r="M119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" t="s">
-        <v>198</v>
-      </c>
-      <c r="D120" t="s">
-        <v>198</v>
-      </c>
-      <c r="E120" t="s">
-        <v>283</v>
-      </c>
-      <c r="F120" t="s">
-        <v>368</v>
-      </c>
-      <c r="G120">
-        <v>217</v>
-      </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K120" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L120" t="b">
-        <v>0</v>
-      </c>
-      <c r="M120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>199</v>
-      </c>
-      <c r="C121" t="s">
-        <v>199</v>
-      </c>
-      <c r="D121" t="s">
-        <v>199</v>
-      </c>
-      <c r="E121" t="s">
-        <v>284</v>
-      </c>
-      <c r="F121" t="s">
-        <v>369</v>
-      </c>
-      <c r="G121">
-        <v>218</v>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K121" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L121" t="b">
-        <v>0</v>
-      </c>
-      <c r="M121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7779,11 +7567,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7865,13 +7653,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -7967,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -7984,14 +7772,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -8002,13 +7790,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C13" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -8036,13 +7824,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -8070,13 +7858,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E17" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -8172,13 +7960,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C23" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E23" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -8189,13 +7977,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C24" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E24" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -8223,10 +8011,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -8257,13 +8045,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="E28" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -8274,10 +8062,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E29" t="s">
         <v>115</v>
@@ -8291,10 +8079,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E30" t="s">
         <v>116</v>
@@ -8308,10 +8096,10 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
         <v>117</v>
@@ -8325,10 +8113,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E32" t="s">
         <v>118</v>
@@ -8342,10 +8130,10 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E33" t="s">
         <v>119</v>
@@ -8359,10 +8147,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E34" t="s">
         <v>120</v>
@@ -8376,10 +8164,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E35" t="s">
         <v>121</v>
@@ -8393,10 +8181,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E36" t="s">
         <v>122</v>
@@ -8410,13 +8198,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -8427,10 +8215,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E38" t="s">
         <v>123</v>
@@ -8444,10 +8232,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C39" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E39" t="s">
         <v>124</v>
@@ -8461,10 +8249,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E40" t="s">
         <v>125</v>
@@ -8478,10 +8266,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E41" t="s">
         <v>126</v>
@@ -8495,10 +8283,10 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E42" t="s">
         <v>127</v>
@@ -8512,10 +8300,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C43" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E43" t="s">
         <v>128</v>
@@ -8529,10 +8317,10 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
@@ -8546,10 +8334,10 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C45" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E45" t="s">
         <v>130</v>
@@ -8563,10 +8351,10 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E46" t="s">
         <v>131</v>
@@ -8580,10 +8368,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C47" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E47" t="s">
         <v>132</v>
@@ -8597,10 +8385,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C48" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E48" t="s">
         <v>133</v>
@@ -8614,10 +8402,10 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E49" t="s">
         <v>134</v>
@@ -8631,10 +8419,10 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C50" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E50" t="s">
         <v>135</v>
@@ -8648,10 +8436,10 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E51" t="s">
         <v>136</v>
@@ -8665,10 +8453,10 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C52" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E52" t="s">
         <v>137</v>
@@ -8682,10 +8470,10 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C53" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E53" t="s">
         <v>138</v>
@@ -8699,10 +8487,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E54" t="s">
         <v>139</v>
@@ -8716,10 +8504,10 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E55" t="s">
         <v>140</v>
@@ -8733,10 +8521,10 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C56" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
@@ -8750,10 +8538,10 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C57" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E57" t="s">
         <v>142</v>
@@ -8767,10 +8555,10 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E58" t="s">
         <v>143</v>
@@ -8784,13 +8572,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C59" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E59" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8801,10 +8589,10 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E60" t="s">
         <v>144</v>
@@ -8818,13 +8606,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C61" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E61" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8835,13 +8623,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C62" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E62" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8852,10 +8640,10 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C63" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E63" t="s">
         <v>145</v>
@@ -8869,10 +8657,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E64" t="s">
         <v>146</v>
@@ -8886,10 +8674,10 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
@@ -8903,10 +8691,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E66" t="s">
         <v>148</v>
@@ -8920,10 +8708,10 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C67" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E67" t="s">
         <v>149</v>
@@ -8937,10 +8725,10 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E68" t="s">
         <v>150</v>
@@ -8954,10 +8742,10 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E69" t="s">
         <v>151</v>
@@ -8971,10 +8759,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E70" t="s">
         <v>152</v>
@@ -8988,10 +8776,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C71" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E71" t="s">
         <v>153</v>
@@ -9005,10 +8793,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E72" t="s">
         <v>154</v>
@@ -9022,10 +8810,10 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C73" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E73" t="s">
         <v>155</v>
@@ -9039,10 +8827,10 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E74" t="s">
         <v>156</v>
@@ -9056,10 +8844,10 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E75" t="s">
         <v>157</v>
@@ -9073,10 +8861,10 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E76" t="s">
         <v>158</v>
@@ -9090,10 +8878,10 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C77" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E77" t="s">
         <v>159</v>
@@ -9107,10 +8895,10 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E78" t="s">
         <v>160</v>
@@ -9124,10 +8912,10 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C79" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E79" t="s">
         <v>161</v>
@@ -9141,10 +8929,10 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C80" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E80" t="s">
         <v>162</v>
@@ -9158,10 +8946,10 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E81" t="s">
         <v>163</v>
@@ -9175,10 +8963,10 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C82" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E82" t="s">
         <v>164</v>
@@ -9192,10 +8980,10 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E83" t="s">
         <v>165</v>
@@ -9209,10 +8997,10 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C84" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E84" t="s">
         <v>166</v>
@@ -9226,13 +9014,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="E85" t="s">
-        <v>504</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -9243,13 +9031,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -9260,13 +9048,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="E87" t="s">
-        <v>484</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -9277,13 +9065,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C88" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -9294,13 +9082,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C89" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -9311,13 +9099,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C90" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -9328,13 +9116,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C91" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -9345,13 +9133,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C92" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -9362,13 +9150,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C93" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -9379,16 +9167,16 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -9396,16 +9184,16 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C95" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -9413,16 +9201,16 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C96" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E96" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -9430,16 +9218,16 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C97" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9447,16 +9235,16 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C98" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E98" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9464,16 +9252,16 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -9481,16 +9269,16 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C100" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -9498,16 +9286,16 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C101" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9515,13 +9303,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C102" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -9532,13 +9320,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C103" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9549,13 +9337,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C104" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9566,13 +9354,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C105" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9583,13 +9371,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9600,13 +9388,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9617,13 +9405,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C108" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9634,13 +9422,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="E109" t="s">
-        <v>189</v>
+        <v>492</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -9651,13 +9439,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -9668,13 +9456,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C111" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F111" t="s">
         <v>22</v>
@@ -9685,13 +9473,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E112" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -9702,13 +9490,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C113" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E113" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -9719,13 +9507,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C114" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -9736,13 +9524,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C115" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -9753,13 +9541,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -9770,83 +9558,15 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
       <c r="C117" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
       <c r="E117" t="s">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
-        <v>451</v>
-      </c>
-      <c r="C118" t="s">
-        <v>451</v>
-      </c>
-      <c r="E118" t="s">
-        <v>196</v>
-      </c>
-      <c r="F118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
-        <v>452</v>
-      </c>
-      <c r="C119" t="s">
-        <v>452</v>
-      </c>
-      <c r="E119" t="s">
-        <v>197</v>
-      </c>
-      <c r="F119" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" t="s">
-        <v>453</v>
-      </c>
-      <c r="C120" t="s">
-        <v>453</v>
-      </c>
-      <c r="E120" t="s">
-        <v>198</v>
-      </c>
-      <c r="F120" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>454</v>
-      </c>
-      <c r="C121" t="s">
-        <v>454</v>
-      </c>
-      <c r="E121" t="s">
-        <v>199</v>
-      </c>
-      <c r="F121" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="502">
   <si>
     <t>Variable</t>
   </si>
@@ -395,9 +395,6 @@
     <t>BE_IND_58</t>
   </si>
   <si>
-    <t>BE_IND_59</t>
-  </si>
-  <si>
     <t>BE_IND_60</t>
   </si>
   <si>
@@ -644,9 +641,6 @@
     <t>IND_58</t>
   </si>
   <si>
-    <t>IND_59</t>
-  </si>
-  <si>
     <t>IND_60</t>
   </si>
   <si>
@@ -893,9 +887,6 @@
     <t xml:space="preserve">58 - Months with overdue </t>
   </si>
   <si>
-    <t>59 - Current accounts average balance - last 12 months</t>
-  </si>
-  <si>
     <t>60 - Current accounts average inflows - last 12 months</t>
   </si>
   <si>
@@ -1140,9 +1131,6 @@
   </si>
   <si>
     <t>BE_IND_58_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_59_REAL</t>
   </si>
   <si>
     <t>BE_IND_60_REAL</t>
@@ -2761,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="G79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="A84:XFD87"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,10 +2825,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -2930,19 +2918,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G5" s="6">
         <v>202</v>
@@ -3217,19 +3205,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E12" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F12" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3258,19 +3246,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" t="s">
         <v>463</v>
-      </c>
-      <c r="C13" t="s">
-        <v>463</v>
-      </c>
-      <c r="D13" t="s">
-        <v>463</v>
-      </c>
-      <c r="E13" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" t="s">
-        <v>467</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -3340,19 +3328,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -3422,19 +3410,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -3668,19 +3656,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F23" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G23">
         <v>49</v>
@@ -3709,19 +3697,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E24" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -3873,19 +3861,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G28">
         <v>57</v>
@@ -3923,10 +3911,10 @@
         <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G29">
         <v>58</v>
@@ -3964,13 +3952,13 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -4005,13 +3993,13 @@
         <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -4046,13 +4034,13 @@
         <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G32">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -4087,13 +4075,13 @@
         <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -4128,13 +4116,13 @@
         <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G34">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4169,13 +4157,13 @@
         <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G35">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4201,22 +4189,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>496</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>497</v>
       </c>
       <c r="G36">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4242,22 +4230,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>465</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>465</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>500</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>501</v>
+        <v>286</v>
       </c>
       <c r="G37">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4292,13 +4280,13 @@
         <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G38">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4333,13 +4321,13 @@
         <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G39">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4374,13 +4362,13 @@
         <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G40">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4415,13 +4403,13 @@
         <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G41">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4456,13 +4444,13 @@
         <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G42">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4497,13 +4485,13 @@
         <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G43">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4538,13 +4526,13 @@
         <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G44">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4579,13 +4567,13 @@
         <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G45">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4620,13 +4608,13 @@
         <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G46">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4661,13 +4649,13 @@
         <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G47">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4702,13 +4690,13 @@
         <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G48">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4743,13 +4731,13 @@
         <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G49">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4784,13 +4772,13 @@
         <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G50">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4825,13 +4813,13 @@
         <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G51">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4866,13 +4854,13 @@
         <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G52">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4907,13 +4895,13 @@
         <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G53">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4948,13 +4936,13 @@
         <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G54">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4989,13 +4977,13 @@
         <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G55">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5030,13 +5018,13 @@
         <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G56">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5071,13 +5059,13 @@
         <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5103,22 +5091,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5144,22 +5132,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>468</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>470</v>
+        <v>307</v>
       </c>
       <c r="G59">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5185,22 +5173,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>471</v>
       </c>
       <c r="G60">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5226,22 +5214,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="C61" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="D61" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="E61" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="F61" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="G61">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5267,22 +5255,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>449</v>
+        <v>226</v>
       </c>
       <c r="F62" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="G62">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5317,13 +5305,13 @@
         <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G63">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5358,13 +5346,13 @@
         <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G64">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5399,13 +5387,13 @@
         <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G65">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5440,13 +5428,13 @@
         <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G66">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5481,13 +5469,13 @@
         <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G67">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5522,13 +5510,13 @@
         <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F68" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5563,13 +5551,13 @@
         <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F69" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G69">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5604,13 +5592,13 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F70" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G70">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5645,13 +5633,13 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G71">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5686,13 +5674,13 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F72" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G72">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5727,13 +5715,13 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G73">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5768,13 +5756,13 @@
         <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F74" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G74">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5809,13 +5797,13 @@
         <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G75">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5850,13 +5838,13 @@
         <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F76" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G76">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5891,13 +5879,13 @@
         <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G77">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5932,13 +5920,13 @@
         <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G78">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5973,13 +5961,13 @@
         <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F79" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G79">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -6014,13 +6002,13 @@
         <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F80" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G80">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6055,13 +6043,13 @@
         <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F81" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G81">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6096,13 +6084,13 @@
         <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F82" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G82">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6137,13 +6125,13 @@
         <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G83">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6178,13 +6166,13 @@
         <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F84" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G84">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6219,13 +6207,13 @@
         <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G85">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6260,13 +6248,13 @@
         <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F86" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G86">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6301,13 +6289,13 @@
         <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F87" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G87">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6342,13 +6330,13 @@
         <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F88" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G88">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6383,13 +6371,13 @@
         <v>171</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G89">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6424,13 +6412,13 @@
         <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F90" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G90">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6465,13 +6453,13 @@
         <v>173</v>
       </c>
       <c r="E91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G91">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6506,13 +6494,13 @@
         <v>174</v>
       </c>
       <c r="E92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G92">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6547,13 +6535,13 @@
         <v>175</v>
       </c>
       <c r="E93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F93" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G93">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6562,10 +6550,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K93" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -6588,13 +6576,13 @@
         <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G94">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6629,13 +6617,13 @@
         <v>177</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F95" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G95">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6670,13 +6658,13 @@
         <v>178</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F96" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G96">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6711,13 +6699,13 @@
         <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G97">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6726,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K97" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6752,13 +6740,13 @@
         <v>180</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G98">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6793,13 +6781,13 @@
         <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F99" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G99">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6834,13 +6822,13 @@
         <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F100" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G100">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6875,13 +6863,13 @@
         <v>183</v>
       </c>
       <c r="E101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F101" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G101">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6916,13 +6904,13 @@
         <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F102" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G102">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6957,13 +6945,13 @@
         <v>185</v>
       </c>
       <c r="E103" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F103" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G103">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6998,13 +6986,13 @@
         <v>186</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G104">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7039,13 +7027,13 @@
         <v>187</v>
       </c>
       <c r="E105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F105" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G105">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7080,13 +7068,13 @@
         <v>188</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F106" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G106">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7121,13 +7109,13 @@
         <v>189</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F107" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G107">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7153,22 +7141,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="D108" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="E108" t="s">
-        <v>273</v>
+        <v>489</v>
       </c>
       <c r="F108" t="s">
-        <v>356</v>
+        <v>490</v>
       </c>
       <c r="G108">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7194,22 +7182,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="E109" t="s">
-        <v>493</v>
+        <v>272</v>
       </c>
       <c r="F109" t="s">
-        <v>494</v>
+        <v>354</v>
       </c>
       <c r="G109">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7244,13 +7232,13 @@
         <v>191</v>
       </c>
       <c r="E110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F110" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G110">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7285,13 +7273,13 @@
         <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F111" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G111">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7317,22 +7305,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="C112" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="E112" t="s">
-        <v>276</v>
+        <v>493</v>
       </c>
       <c r="F112" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="G112">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7358,22 +7346,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>496</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>496</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>193</v>
       </c>
       <c r="E113" t="s">
-        <v>497</v>
+        <v>275</v>
       </c>
       <c r="F113" t="s">
-        <v>498</v>
+        <v>357</v>
       </c>
       <c r="G113">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7408,13 +7396,13 @@
         <v>194</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F114" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G114">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7449,13 +7437,13 @@
         <v>195</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F115" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G115">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7490,13 +7478,13 @@
         <v>196</v>
       </c>
       <c r="E116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G116">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7514,47 +7502,6 @@
         <v>0</v>
       </c>
       <c r="M116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" t="s">
-        <v>197</v>
-      </c>
-      <c r="D117" t="s">
-        <v>197</v>
-      </c>
-      <c r="E117" t="s">
-        <v>280</v>
-      </c>
-      <c r="F117" t="s">
-        <v>363</v>
-      </c>
-      <c r="G117">
-        <v>218</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K117" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
-      <c r="M117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7567,11 +7514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD87"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7653,13 +7600,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -7755,10 +7702,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -7772,14 +7719,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -7790,13 +7737,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E13" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -7824,13 +7771,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -7858,13 +7805,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -7960,13 +7907,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -7977,13 +7924,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -8011,10 +7958,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -8045,13 +7992,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C28" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -8062,10 +8009,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E29" t="s">
         <v>115</v>
@@ -8079,10 +8026,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E30" t="s">
         <v>116</v>
@@ -8096,10 +8043,10 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E31" t="s">
         <v>117</v>
@@ -8113,10 +8060,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
         <v>118</v>
@@ -8130,10 +8077,10 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E33" t="s">
         <v>119</v>
@@ -8147,10 +8094,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
         <v>120</v>
@@ -8164,10 +8111,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E35" t="s">
         <v>121</v>
@@ -8181,13 +8128,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -8198,13 +8145,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>368</v>
       </c>
       <c r="C37" t="s">
-        <v>464</v>
+        <v>368</v>
       </c>
       <c r="E37" t="s">
-        <v>465</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -8215,10 +8162,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E38" t="s">
         <v>123</v>
@@ -8232,10 +8179,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
         <v>124</v>
@@ -8249,10 +8196,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E40" t="s">
         <v>125</v>
@@ -8266,10 +8213,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E41" t="s">
         <v>126</v>
@@ -8283,10 +8230,10 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
         <v>127</v>
@@ -8300,10 +8247,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C43" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E43" t="s">
         <v>128</v>
@@ -8317,10 +8264,10 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
@@ -8334,10 +8281,10 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E45" t="s">
         <v>130</v>
@@ -8351,10 +8298,10 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E46" t="s">
         <v>131</v>
@@ -8368,10 +8315,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E47" t="s">
         <v>132</v>
@@ -8385,10 +8332,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E48" t="s">
         <v>133</v>
@@ -8402,10 +8349,10 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E49" t="s">
         <v>134</v>
@@ -8419,10 +8366,10 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C50" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E50" t="s">
         <v>135</v>
@@ -8436,10 +8383,10 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s">
         <v>136</v>
@@ -8453,10 +8400,10 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C52" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E52" t="s">
         <v>137</v>
@@ -8470,10 +8417,10 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E53" t="s">
         <v>138</v>
@@ -8487,10 +8434,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E54" t="s">
         <v>139</v>
@@ -8504,10 +8451,10 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E55" t="s">
         <v>140</v>
@@ -8521,10 +8468,10 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
@@ -8538,10 +8485,10 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E57" t="s">
         <v>142</v>
@@ -8555,13 +8502,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>392</v>
+        <v>467</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>467</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8572,13 +8519,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="E59" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8589,13 +8536,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="C60" t="s">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8606,13 +8553,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="E61" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8623,13 +8570,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8640,10 +8587,10 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C63" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E63" t="s">
         <v>145</v>
@@ -8657,10 +8604,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E64" t="s">
         <v>146</v>
@@ -8674,10 +8621,10 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
@@ -8691,10 +8638,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C66" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E66" t="s">
         <v>148</v>
@@ -8708,10 +8655,10 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C67" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E67" t="s">
         <v>149</v>
@@ -8725,10 +8672,10 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E68" t="s">
         <v>150</v>
@@ -8742,10 +8689,10 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E69" t="s">
         <v>151</v>
@@ -8759,10 +8706,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
         <v>152</v>
@@ -8776,10 +8723,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C71" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E71" t="s">
         <v>153</v>
@@ -8793,10 +8740,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C72" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E72" t="s">
         <v>154</v>
@@ -8810,10 +8757,10 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C73" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E73" t="s">
         <v>155</v>
@@ -8827,10 +8774,10 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C74" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E74" t="s">
         <v>156</v>
@@ -8844,10 +8791,10 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E75" t="s">
         <v>157</v>
@@ -8861,10 +8808,10 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E76" t="s">
         <v>158</v>
@@ -8878,10 +8825,10 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C77" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
         <v>159</v>
@@ -8895,10 +8842,10 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C78" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E78" t="s">
         <v>160</v>
@@ -8912,10 +8859,10 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C79" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E79" t="s">
         <v>161</v>
@@ -8929,10 +8876,10 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C80" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E80" t="s">
         <v>162</v>
@@ -8946,10 +8893,10 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C81" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E81" t="s">
         <v>163</v>
@@ -8963,10 +8910,10 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C82" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E82" t="s">
         <v>164</v>
@@ -8980,10 +8927,10 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C83" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E83" t="s">
         <v>165</v>
@@ -8997,10 +8944,10 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C84" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E84" t="s">
         <v>166</v>
@@ -9014,10 +8961,10 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C85" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E85" t="s">
         <v>167</v>
@@ -9031,10 +8978,10 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C86" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E86" t="s">
         <v>168</v>
@@ -9048,10 +8995,10 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E87" t="s">
         <v>169</v>
@@ -9065,10 +9012,10 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E88" t="s">
         <v>170</v>
@@ -9082,10 +9029,10 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C89" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E89" t="s">
         <v>171</v>
@@ -9099,10 +9046,10 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C90" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E90" t="s">
         <v>172</v>
@@ -9116,10 +9063,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C91" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E91" t="s">
         <v>173</v>
@@ -9133,10 +9080,10 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C92" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E92" t="s">
         <v>174</v>
@@ -9150,16 +9097,16 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E93" t="s">
         <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9167,10 +9114,10 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E94" t="s">
         <v>176</v>
@@ -9184,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E95" t="s">
         <v>177</v>
@@ -9201,10 +9148,10 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C96" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E96" t="s">
         <v>178</v>
@@ -9218,16 +9165,16 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C97" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E97" t="s">
         <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9235,10 +9182,10 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E98" t="s">
         <v>180</v>
@@ -9252,10 +9199,10 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C99" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E99" t="s">
         <v>181</v>
@@ -9269,10 +9216,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C100" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E100" t="s">
         <v>182</v>
@@ -9286,10 +9233,10 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C101" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E101" t="s">
         <v>183</v>
@@ -9303,10 +9250,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C102" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E102" t="s">
         <v>184</v>
@@ -9320,10 +9267,10 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C103" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E103" t="s">
         <v>185</v>
@@ -9337,10 +9284,10 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C104" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E104" t="s">
         <v>186</v>
@@ -9354,10 +9301,10 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C105" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E105" t="s">
         <v>187</v>
@@ -9371,10 +9318,10 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C106" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E106" t="s">
         <v>188</v>
@@ -9388,10 +9335,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C107" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E107" t="s">
         <v>189</v>
@@ -9405,13 +9352,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="C108" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9422,13 +9369,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="C109" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="E109" t="s">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -9439,10 +9386,10 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C110" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E110" t="s">
         <v>191</v>
@@ -9456,10 +9403,10 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E111" t="s">
         <v>192</v>
@@ -9473,13 +9420,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="C112" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="E112" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -9490,13 +9437,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="C113" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="E113" t="s">
-        <v>496</v>
+        <v>193</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -9507,10 +9454,10 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C114" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E114" t="s">
         <v>194</v>
@@ -9524,10 +9471,10 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E115" t="s">
         <v>195</v>
@@ -9541,32 +9488,15 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C116" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E116" t="s">
         <v>196</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>446</v>
-      </c>
-      <c r="C117" t="s">
-        <v>446</v>
-      </c>
-      <c r="E117" t="s">
-        <v>197</v>
-      </c>
-      <c r="F117" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="504">
   <si>
     <t>Variable</t>
   </si>
@@ -1551,6 +1551,12 @@
   </si>
   <si>
     <t>BE_IND_11_INTEGER</t>
+  </si>
+  <si>
+    <t>BE_IND_73_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_73</t>
   </si>
 </sst>
 </file>
@@ -2749,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,26 +4396,9 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" t="s">
-        <v>290</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="G41">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4435,22 +4424,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G42">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4476,22 +4465,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G43">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4517,22 +4506,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G44">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4558,22 +4547,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G45">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4599,22 +4588,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G46">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4640,22 +4629,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G47">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4681,22 +4670,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G48">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4722,22 +4711,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G49">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4763,22 +4752,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G50">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4804,22 +4793,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G51">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4845,22 +4834,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G52">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4886,22 +4875,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G53">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4927,22 +4916,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G54">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4968,22 +4957,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G55">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5009,22 +4998,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G56">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5050,22 +5039,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5091,22 +5080,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>464</v>
+        <v>224</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>306</v>
       </c>
       <c r="G58">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5132,22 +5121,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>464</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>466</v>
       </c>
       <c r="G59">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5173,22 +5162,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>470</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>471</v>
+        <v>307</v>
       </c>
       <c r="G60">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5214,22 +5203,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="C61" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="E61" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="F61" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="G61">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5255,22 +5244,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>444</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>444</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>444</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>445</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>446</v>
       </c>
       <c r="G62">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5296,22 +5285,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G63">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5337,22 +5326,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G64">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5378,22 +5367,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G65">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5419,22 +5408,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G66">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5460,22 +5449,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5501,22 +5490,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G68">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5542,22 +5531,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G69">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5583,22 +5572,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G70">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5624,22 +5613,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G71">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5665,22 +5654,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G72">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5706,22 +5695,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G73">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5747,22 +5736,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G74">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5788,22 +5777,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G75">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5829,22 +5818,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G76">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5870,22 +5859,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G77">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5911,22 +5900,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G78">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5952,22 +5941,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G79">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5993,22 +5982,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G80">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6034,22 +6023,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6075,22 +6064,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G82">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6116,22 +6105,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G83">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6157,22 +6146,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G84">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6198,22 +6187,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G85">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6239,22 +6228,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F86" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G86">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6280,22 +6269,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G87">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6321,22 +6310,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G88">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6362,22 +6351,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G89">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6403,22 +6392,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G90">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6444,22 +6433,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G91">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6485,22 +6474,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F92" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G92">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6526,22 +6515,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G93">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6550,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -6567,22 +6556,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G94">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6608,22 +6597,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G95">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6649,22 +6638,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G96">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6690,22 +6679,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6714,10 +6703,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6731,22 +6720,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" t="s">
+        <v>343</v>
+      </c>
+      <c r="G98">
         <v>180</v>
-      </c>
-      <c r="C98" t="s">
-        <v>180</v>
-      </c>
-      <c r="D98" t="s">
-        <v>180</v>
-      </c>
-      <c r="E98" t="s">
-        <v>262</v>
-      </c>
-      <c r="F98" t="s">
-        <v>344</v>
-      </c>
-      <c r="G98">
-        <v>181</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6772,22 +6761,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" t="s">
+        <v>180</v>
+      </c>
+      <c r="E99" t="s">
+        <v>262</v>
+      </c>
+      <c r="F99" t="s">
+        <v>344</v>
+      </c>
+      <c r="G99">
         <v>181</v>
-      </c>
-      <c r="C99" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" t="s">
-        <v>181</v>
-      </c>
-      <c r="E99" t="s">
-        <v>263</v>
-      </c>
-      <c r="F99" t="s">
-        <v>345</v>
-      </c>
-      <c r="G99">
-        <v>182</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6813,22 +6802,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" t="s">
+        <v>263</v>
+      </c>
+      <c r="F100" t="s">
+        <v>345</v>
+      </c>
+      <c r="G100">
         <v>182</v>
-      </c>
-      <c r="C100" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100" t="s">
-        <v>182</v>
-      </c>
-      <c r="E100" t="s">
-        <v>264</v>
-      </c>
-      <c r="F100" t="s">
-        <v>346</v>
-      </c>
-      <c r="G100">
-        <v>183</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6854,22 +6843,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101" t="s">
+        <v>264</v>
+      </c>
+      <c r="F101" t="s">
+        <v>346</v>
+      </c>
+      <c r="G101">
         <v>183</v>
-      </c>
-      <c r="C101" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" t="s">
-        <v>183</v>
-      </c>
-      <c r="E101" t="s">
-        <v>265</v>
-      </c>
-      <c r="F101" t="s">
-        <v>347</v>
-      </c>
-      <c r="G101">
-        <v>186</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6895,22 +6884,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G102">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6936,22 +6925,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G103">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6977,22 +6966,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F104" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G104">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7018,22 +7007,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G105">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7059,22 +7048,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F106" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G106">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7100,22 +7089,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G107">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7141,22 +7130,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>489</v>
+        <v>271</v>
       </c>
       <c r="F108" t="s">
-        <v>490</v>
+        <v>353</v>
       </c>
       <c r="G108">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7182,22 +7171,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="E109" t="s">
-        <v>272</v>
+        <v>489</v>
       </c>
       <c r="F109" t="s">
-        <v>354</v>
+        <v>490</v>
       </c>
       <c r="G109">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7223,22 +7212,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G110">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7264,22 +7253,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F111" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G111">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7305,22 +7294,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
       <c r="E112" t="s">
-        <v>493</v>
+        <v>274</v>
       </c>
       <c r="F112" t="s">
-        <v>494</v>
+        <v>356</v>
       </c>
       <c r="G112">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7346,22 +7335,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="D113" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
+        <v>493</v>
       </c>
       <c r="F113" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="G113">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7387,22 +7376,22 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G114">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7428,22 +7417,22 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F115" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G115">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7469,22 +7458,22 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G116">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7502,6 +7491,47 @@
         <v>0</v>
       </c>
       <c r="M116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" t="s">
+        <v>278</v>
+      </c>
+      <c r="F117" t="s">
+        <v>360</v>
+      </c>
+      <c r="G117">
+        <v>218</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7514,11 +7544,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8213,13 +8243,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="C41" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>503</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -8230,13 +8260,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -8247,13 +8277,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8264,13 +8294,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -8281,13 +8311,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8298,13 +8328,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -8315,13 +8345,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8332,13 +8362,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -8349,13 +8379,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8366,13 +8396,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -8383,13 +8413,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8400,13 +8430,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -8417,13 +8447,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8434,13 +8464,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8451,13 +8481,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8468,13 +8498,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8485,13 +8515,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8502,13 +8532,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>467</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>467</v>
+        <v>388</v>
       </c>
       <c r="E58" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8519,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8536,13 +8566,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>468</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
-        <v>468</v>
+        <v>389</v>
       </c>
       <c r="E60" t="s">
-        <v>469</v>
+        <v>143</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8553,13 +8583,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="C61" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8570,13 +8600,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>444</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8587,13 +8617,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8604,13 +8634,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8621,13 +8651,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8638,13 +8668,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8655,13 +8685,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8672,13 +8702,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8689,13 +8719,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8706,13 +8736,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8723,13 +8753,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8740,13 +8770,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8757,13 +8787,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8774,13 +8804,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8791,13 +8821,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8808,13 +8838,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8825,13 +8855,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8842,13 +8872,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8859,13 +8889,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8876,13 +8906,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8893,13 +8923,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8910,13 +8940,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C82" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8927,13 +8957,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8944,13 +8974,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -8961,13 +8991,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -8978,13 +9008,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -8995,13 +9025,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -9012,13 +9042,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -9029,13 +9059,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -9046,13 +9076,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -9063,13 +9093,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -9080,13 +9110,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -9097,16 +9127,16 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9114,13 +9144,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
         <v>23</v>
@@ -9131,13 +9161,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
         <v>23</v>
@@ -9148,13 +9178,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
         <v>23</v>
@@ -9165,16 +9195,16 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C97" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9182,13 +9212,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C98" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -9199,13 +9229,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -9216,13 +9246,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -9233,13 +9263,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C101" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -9250,13 +9280,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C102" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -9267,13 +9297,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C103" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9284,13 +9314,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C104" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9301,13 +9331,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9318,13 +9348,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C106" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9335,13 +9365,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9352,13 +9382,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="E108" t="s">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9369,13 +9399,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="C109" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -9386,13 +9416,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -9403,13 +9433,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C111" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F111" t="s">
         <v>22</v>
@@ -9420,13 +9450,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="C112" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="E112" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -9437,13 +9467,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="C113" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="E113" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -9454,13 +9484,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -9471,13 +9501,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -9488,15 +9518,32 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C116" t="s">
+        <v>441</v>
+      </c>
+      <c r="E116" t="s">
+        <v>195</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
         <v>442</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>442</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>196</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="502">
   <si>
     <t>Variable</t>
   </si>
@@ -1551,12 +1551,6 @@
   </si>
   <si>
     <t>BE_IND_11_INTEGER</t>
-  </si>
-  <si>
-    <t>BE_IND_73_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_73</t>
   </si>
 </sst>
 </file>
@@ -2755,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40:M41"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4396,9 +4390,26 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
       <c r="G41">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4424,22 +4435,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G42">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4465,22 +4476,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G43">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4506,22 +4517,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G44">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4547,22 +4558,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G45">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4588,22 +4599,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G46">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4629,22 +4640,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G47">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4670,22 +4681,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G48">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4711,22 +4722,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G49">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4752,22 +4763,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G50">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4793,22 +4804,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G51">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4834,22 +4845,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G52">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4875,22 +4886,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G53">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4916,22 +4927,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G54">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4957,22 +4968,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G55">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4998,22 +5009,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G56">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5039,22 +5050,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F57" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5080,22 +5091,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
       <c r="E58" t="s">
-        <v>224</v>
+        <v>464</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>466</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5121,22 +5132,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>465</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>465</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>465</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>464</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>466</v>
+        <v>307</v>
       </c>
       <c r="G59">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5162,22 +5173,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>469</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>469</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>469</v>
       </c>
       <c r="E60" t="s">
-        <v>225</v>
+        <v>470</v>
       </c>
       <c r="F60" t="s">
-        <v>307</v>
+        <v>471</v>
       </c>
       <c r="G60">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5203,22 +5214,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="C61" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="D61" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="E61" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="G61">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5244,22 +5255,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>445</v>
+        <v>226</v>
       </c>
       <c r="F62" t="s">
-        <v>446</v>
+        <v>308</v>
       </c>
       <c r="G62">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5285,22 +5296,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G63">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5326,22 +5337,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G64">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5367,22 +5378,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G65">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5408,22 +5419,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G66">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5449,22 +5460,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G67">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5490,22 +5501,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5531,22 +5542,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G69">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5572,22 +5583,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G70">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5613,22 +5624,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F71" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G71">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5654,22 +5665,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G72">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5695,22 +5706,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G73">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5736,22 +5747,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G74">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5777,22 +5788,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G75">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5818,22 +5829,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G76">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5859,22 +5870,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F77" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G77">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5900,22 +5911,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G78">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5941,22 +5952,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G79">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5982,22 +5993,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G80">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6023,22 +6034,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G81">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6064,22 +6075,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G82">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6105,22 +6116,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G83">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6146,22 +6157,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G84">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6187,22 +6198,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G85">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6228,22 +6239,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G86">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6269,22 +6280,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F87" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G87">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6310,22 +6321,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F88" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G88">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6351,22 +6362,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G89">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6392,22 +6403,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F90" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G90">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6433,22 +6444,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G91">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6474,22 +6485,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G92">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6515,22 +6526,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F93" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G93">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6539,10 +6550,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K93" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -6556,22 +6567,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G94">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6597,22 +6608,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G95">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6638,22 +6649,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F96" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G96">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6679,22 +6690,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F97" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G97">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6703,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K97" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6720,22 +6731,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F98" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G98">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6761,22 +6772,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F99" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G99">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6802,22 +6813,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F100" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G100">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6843,22 +6854,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E101" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F101" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G101">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6884,22 +6895,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F102" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G102">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6925,22 +6936,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F103" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G103">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6966,22 +6977,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F104" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G104">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7007,22 +7018,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G105">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7048,22 +7059,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G106">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7089,22 +7100,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F107" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G107">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7130,22 +7141,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="E108" t="s">
-        <v>271</v>
+        <v>489</v>
       </c>
       <c r="F108" t="s">
-        <v>353</v>
+        <v>490</v>
       </c>
       <c r="G108">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7171,22 +7182,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>488</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>488</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>488</v>
+        <v>190</v>
       </c>
       <c r="E109" t="s">
-        <v>489</v>
+        <v>272</v>
       </c>
       <c r="F109" t="s">
-        <v>490</v>
+        <v>354</v>
       </c>
       <c r="G109">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7212,22 +7223,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F110" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G110">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7253,22 +7264,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F111" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G111">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7294,22 +7305,22 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>493</v>
       </c>
       <c r="F112" t="s">
-        <v>356</v>
+        <v>494</v>
       </c>
       <c r="G112">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7335,22 +7346,22 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>492</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>492</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s">
-        <v>492</v>
+        <v>193</v>
       </c>
       <c r="E113" t="s">
-        <v>493</v>
+        <v>275</v>
       </c>
       <c r="F113" t="s">
-        <v>494</v>
+        <v>357</v>
       </c>
       <c r="G113">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7376,22 +7387,22 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F114" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G114">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7417,22 +7428,22 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F115" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G115">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7458,22 +7469,22 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F116" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G116">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7491,47 +7502,6 @@
         <v>0</v>
       </c>
       <c r="M116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" t="s">
-        <v>196</v>
-      </c>
-      <c r="D117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E117" t="s">
-        <v>278</v>
-      </c>
-      <c r="F117" t="s">
-        <v>360</v>
-      </c>
-      <c r="G117">
-        <v>218</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K117" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
-      <c r="M117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7544,11 +7514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40:F41"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,13 +8213,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>502</v>
+        <v>372</v>
       </c>
       <c r="C41" t="s">
-        <v>502</v>
+        <v>372</v>
       </c>
       <c r="E41" t="s">
-        <v>503</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -8260,13 +8230,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -8277,13 +8247,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8294,13 +8264,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -8311,13 +8281,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8328,13 +8298,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -8345,13 +8315,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8362,13 +8332,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -8379,13 +8349,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8396,13 +8366,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -8413,13 +8383,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8430,13 +8400,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -8447,13 +8417,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8464,13 +8434,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8481,13 +8451,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8498,13 +8468,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8515,13 +8485,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8532,13 +8502,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8549,13 +8519,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="E59" t="s">
-        <v>465</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8566,13 +8536,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>469</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8583,13 +8553,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E61" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8600,13 +8570,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8617,13 +8587,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8634,13 +8604,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8651,13 +8621,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8668,13 +8638,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8685,13 +8655,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8702,13 +8672,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8719,13 +8689,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8736,13 +8706,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C70" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8753,13 +8723,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C71" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8770,13 +8740,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8787,13 +8757,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8804,13 +8774,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C74" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8821,13 +8791,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C75" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8838,13 +8808,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8855,13 +8825,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8872,13 +8842,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C78" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8889,13 +8859,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8906,13 +8876,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C80" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8923,13 +8893,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C81" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8940,13 +8910,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C82" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8957,13 +8927,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C83" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8974,13 +8944,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C84" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -8991,13 +8961,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C85" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -9008,13 +8978,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C86" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -9025,13 +8995,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -9042,13 +9012,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -9059,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C89" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -9076,13 +9046,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C90" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -9093,13 +9063,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C91" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -9110,13 +9080,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C92" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -9127,16 +9097,16 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9144,13 +9114,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
         <v>23</v>
@@ -9161,13 +9131,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C95" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
         <v>23</v>
@@ -9178,13 +9148,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C96" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
         <v>23</v>
@@ -9195,16 +9165,16 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C97" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9212,13 +9182,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C98" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -9229,13 +9199,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C99" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -9246,13 +9216,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C100" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -9263,13 +9233,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C101" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -9280,13 +9250,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C102" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -9297,13 +9267,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C103" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9314,13 +9284,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9331,13 +9301,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9348,13 +9318,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9365,13 +9335,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9382,13 +9352,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="C108" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="E108" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9399,13 +9369,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="C109" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="E109" t="s">
-        <v>488</v>
+        <v>190</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -9416,13 +9386,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C110" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -9433,13 +9403,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F111" t="s">
         <v>22</v>
@@ -9450,13 +9420,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="C112" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="E112" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -9467,13 +9437,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="C113" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="E113" t="s">
-        <v>492</v>
+        <v>193</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -9484,13 +9454,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C114" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -9501,13 +9471,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C115" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -9518,32 +9488,15 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C116" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>442</v>
-      </c>
-      <c r="C117" t="s">
-        <v>442</v>
-      </c>
-      <c r="E117" t="s">
-        <v>196</v>
-      </c>
-      <c r="F117" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1388,9 +1388,6 @@
     <t>94  - Gross margin</t>
   </si>
   <si>
-    <t>BE_IND_55_STRING</t>
-  </si>
-  <si>
     <t>BE_IND_9_REAL</t>
   </si>
   <si>
@@ -1551,6 +1548,9 @@
   </si>
   <si>
     <t>BE_IND_11_INTEGER</t>
+  </si>
+  <si>
+    <t>BE_IND_55_REAL</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1700,7 +1700,6 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2751,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="G94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2766,7 @@
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="1023" width="8.7109375"/>
@@ -2786,7 +2785,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="15"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
@@ -2821,14 +2820,14 @@
       <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -2862,7 +2861,7 @@
       <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="b">
@@ -2903,7 +2902,7 @@
       <c r="J4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="b">
@@ -2917,20 +2916,20 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>452</v>
+      <c r="D5" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>451</v>
       </c>
       <c r="G5" s="6">
         <v>202</v>
@@ -2944,13 +2943,13 @@
       <c r="J5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="16" t="b">
+      <c r="K5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="b">
+      <c r="L5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="11" t="b">
+      <c r="M5" s="10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2985,7 +2984,7 @@
       <c r="J6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="b">
@@ -3026,7 +3025,7 @@
       <c r="J7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="b">
@@ -3067,7 +3066,7 @@
       <c r="J8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="b">
@@ -3108,7 +3107,7 @@
       <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="b">
@@ -3149,7 +3148,7 @@
       <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="b">
@@ -3190,7 +3189,7 @@
       <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="b">
@@ -3205,20 +3204,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E12" t="s">
         <v>498</v>
       </c>
-      <c r="C12" t="s">
-        <v>498</v>
-      </c>
-      <c r="D12" t="s">
-        <v>498</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>499</v>
       </c>
-      <c r="F12" t="s">
-        <v>500</v>
-      </c>
       <c r="G12">
         <v>11</v>
       </c>
@@ -3228,10 +3227,10 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="18" t="b">
+      <c r="K12" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L12" t="b">
@@ -3246,19 +3245,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F13" t="s">
         <v>462</v>
-      </c>
-      <c r="F13" t="s">
-        <v>463</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -3269,10 +3268,10 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="b">
@@ -3313,7 +3312,7 @@
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L14" t="b">
@@ -3328,19 +3327,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F15" t="s">
         <v>456</v>
-      </c>
-      <c r="F15" t="s">
-        <v>457</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -3354,7 +3353,7 @@
       <c r="J15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L15" t="b">
@@ -3395,7 +3394,7 @@
       <c r="J16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L16" t="b">
@@ -3410,19 +3409,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" t="s">
         <v>472</v>
       </c>
-      <c r="C17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>473</v>
-      </c>
-      <c r="F17" t="s">
-        <v>474</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -3436,7 +3435,7 @@
       <c r="J17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L17" t="b">
@@ -3477,7 +3476,7 @@
       <c r="J18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L18" t="b">
@@ -3518,7 +3517,7 @@
       <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="b">
@@ -3559,7 +3558,7 @@
       <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L20" t="b">
@@ -3600,7 +3599,7 @@
       <c r="J21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L21" t="b">
@@ -3641,7 +3640,7 @@
       <c r="J22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L22" t="b">
@@ -3656,19 +3655,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D23" t="s">
+        <v>476</v>
+      </c>
+      <c r="E23" t="s">
         <v>477</v>
       </c>
-      <c r="C23" t="s">
-        <v>477</v>
-      </c>
-      <c r="D23" t="s">
-        <v>477</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>478</v>
-      </c>
-      <c r="F23" t="s">
-        <v>479</v>
       </c>
       <c r="G23">
         <v>49</v>
@@ -3679,10 +3678,10 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="L23" t="b">
@@ -3697,19 +3696,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
+        <v>479</v>
+      </c>
+      <c r="C24" t="s">
+        <v>479</v>
+      </c>
+      <c r="D24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" t="s">
         <v>480</v>
       </c>
-      <c r="C24" t="s">
-        <v>480</v>
-      </c>
-      <c r="D24" t="s">
-        <v>480</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>481</v>
-      </c>
-      <c r="F24" t="s">
-        <v>482</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -3720,10 +3719,10 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="18" t="s">
         <v>13</v>
       </c>
       <c r="L24" t="b">
@@ -3764,7 +3763,7 @@
       <c r="J25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L25" t="b">
@@ -3802,11 +3801,11 @@
       <c r="I26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>13</v>
+      <c r="J26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -3846,7 +3845,7 @@
       <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L27" t="b">
@@ -3861,19 +3860,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" t="s">
+        <v>483</v>
+      </c>
+      <c r="D28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E28" t="s">
         <v>484</v>
       </c>
-      <c r="C28" t="s">
-        <v>484</v>
-      </c>
-      <c r="D28" t="s">
-        <v>484</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>485</v>
-      </c>
-      <c r="F28" t="s">
-        <v>486</v>
       </c>
       <c r="G28">
         <v>57</v>
@@ -3887,7 +3886,7 @@
       <c r="J28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L28" t="b">
@@ -3928,7 +3927,7 @@
       <c r="J29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="b">
@@ -3969,7 +3968,7 @@
       <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L30" t="b">
@@ -4010,7 +4009,7 @@
       <c r="J31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L31" t="b">
@@ -4051,7 +4050,7 @@
       <c r="J32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L32" t="b">
@@ -4092,7 +4091,7 @@
       <c r="J33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L33" t="b">
@@ -4133,7 +4132,7 @@
       <c r="J34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L34" t="b">
@@ -4174,7 +4173,7 @@
       <c r="J35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L35" t="b">
@@ -4189,19 +4188,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E36" t="s">
+        <v>495</v>
+      </c>
+      <c r="F36" t="s">
         <v>496</v>
-      </c>
-      <c r="F36" t="s">
-        <v>497</v>
       </c>
       <c r="G36">
         <v>67</v>
@@ -4215,7 +4214,7 @@
       <c r="J36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L36" t="b">
@@ -4256,7 +4255,7 @@
       <c r="J37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L37" t="b">
@@ -4297,7 +4296,7 @@
       <c r="J38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L38" t="b">
@@ -4338,7 +4337,7 @@
       <c r="J39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="b">
@@ -4379,7 +4378,7 @@
       <c r="J40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="b">
@@ -4420,7 +4419,7 @@
       <c r="J41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L41" t="b">
@@ -4461,7 +4460,7 @@
       <c r="J42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L42" t="b">
@@ -4502,7 +4501,7 @@
       <c r="J43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L43" t="b">
@@ -4543,7 +4542,7 @@
       <c r="J44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L44" t="b">
@@ -4584,7 +4583,7 @@
       <c r="J45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L45" t="b">
@@ -4625,7 +4624,7 @@
       <c r="J46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L46" t="b">
@@ -4666,7 +4665,7 @@
       <c r="J47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L47" t="b">
@@ -4707,7 +4706,7 @@
       <c r="J48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="b">
@@ -4748,7 +4747,7 @@
       <c r="J49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="b">
@@ -4789,7 +4788,7 @@
       <c r="J50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L50" t="b">
@@ -4830,7 +4829,7 @@
       <c r="J51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="b">
@@ -4871,7 +4870,7 @@
       <c r="J52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L52" t="b">
@@ -4912,7 +4911,7 @@
       <c r="J53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L53" t="b">
@@ -4953,7 +4952,7 @@
       <c r="J54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L54" t="b">
@@ -4994,7 +4993,7 @@
       <c r="J55" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L55" t="b">
@@ -5035,7 +5034,7 @@
       <c r="J56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L56" t="b">
@@ -5076,7 +5075,7 @@
       <c r="J57" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L57" t="b">
@@ -5091,19 +5090,19 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
+        <v>464</v>
+      </c>
+      <c r="C58" t="s">
+        <v>464</v>
+      </c>
+      <c r="D58" t="s">
+        <v>464</v>
+      </c>
+      <c r="E58" t="s">
+        <v>463</v>
+      </c>
+      <c r="F58" t="s">
         <v>465</v>
-      </c>
-      <c r="C58" t="s">
-        <v>465</v>
-      </c>
-      <c r="D58" t="s">
-        <v>465</v>
-      </c>
-      <c r="E58" t="s">
-        <v>464</v>
-      </c>
-      <c r="F58" t="s">
-        <v>466</v>
       </c>
       <c r="G58">
         <v>91</v>
@@ -5117,7 +5116,7 @@
       <c r="J58" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L58" t="b">
@@ -5158,7 +5157,7 @@
       <c r="J59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K59" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L59" t="b">
@@ -5173,19 +5172,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
+        <v>468</v>
+      </c>
+      <c r="C60" t="s">
+        <v>468</v>
+      </c>
+      <c r="D60" t="s">
+        <v>468</v>
+      </c>
+      <c r="E60" t="s">
         <v>469</v>
       </c>
-      <c r="C60" t="s">
-        <v>469</v>
-      </c>
-      <c r="D60" t="s">
-        <v>469</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>470</v>
-      </c>
-      <c r="F60" t="s">
-        <v>471</v>
       </c>
       <c r="G60">
         <v>93</v>
@@ -5199,7 +5198,7 @@
       <c r="J60" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L60" t="b">
@@ -5240,7 +5239,7 @@
       <c r="J61" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K61" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L61" t="b">
@@ -5281,7 +5280,7 @@
       <c r="J62" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K62" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L62" t="b">
@@ -5322,7 +5321,7 @@
       <c r="J63" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K63" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L63" t="b">
@@ -5363,7 +5362,7 @@
       <c r="J64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="K64" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L64" t="b">
@@ -5404,7 +5403,7 @@
       <c r="J65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K65" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L65" t="b">
@@ -5445,7 +5444,7 @@
       <c r="J66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="K66" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="b">
@@ -5486,7 +5485,7 @@
       <c r="J67" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L67" t="b">
@@ -5527,7 +5526,7 @@
       <c r="J68" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K68" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L68" t="b">
@@ -5568,7 +5567,7 @@
       <c r="J69" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="b">
@@ -5609,7 +5608,7 @@
       <c r="J70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="K70" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L70" t="b">
@@ -5650,7 +5649,7 @@
       <c r="J71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L71" t="b">
@@ -5691,7 +5690,7 @@
       <c r="J72" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K72" s="16" t="s">
+      <c r="K72" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L72" t="b">
@@ -5732,7 +5731,7 @@
       <c r="J73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L73" t="b">
@@ -5773,7 +5772,7 @@
       <c r="J74" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K74" s="16" t="s">
+      <c r="K74" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L74" t="b">
@@ -5814,7 +5813,7 @@
       <c r="J75" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K75" s="16" t="s">
+      <c r="K75" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L75" t="b">
@@ -5855,7 +5854,7 @@
       <c r="J76" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K76" s="16" t="s">
+      <c r="K76" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L76" t="b">
@@ -5896,7 +5895,7 @@
       <c r="J77" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K77" s="16" t="s">
+      <c r="K77" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L77" t="b">
@@ -5937,7 +5936,7 @@
       <c r="J78" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K78" s="16" t="s">
+      <c r="K78" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L78" t="b">
@@ -5978,7 +5977,7 @@
       <c r="J79" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K79" s="16" t="s">
+      <c r="K79" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L79" t="b">
@@ -6019,7 +6018,7 @@
       <c r="J80" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L80" t="b">
@@ -6060,7 +6059,7 @@
       <c r="J81" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L81" t="b">
@@ -6101,7 +6100,7 @@
       <c r="J82" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="K82" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L82" t="b">
@@ -6142,7 +6141,7 @@
       <c r="J83" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="K83" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L83" t="b">
@@ -6183,7 +6182,7 @@
       <c r="J84" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="K84" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L84" t="b">
@@ -6224,7 +6223,7 @@
       <c r="J85" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L85" t="b">
@@ -6265,7 +6264,7 @@
       <c r="J86" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="K86" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L86" t="b">
@@ -6306,7 +6305,7 @@
       <c r="J87" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K87" s="16" t="s">
+      <c r="K87" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L87" t="b">
@@ -6347,7 +6346,7 @@
       <c r="J88" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K88" s="16" t="s">
+      <c r="K88" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L88" t="b">
@@ -6388,7 +6387,7 @@
       <c r="J89" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K89" s="16" t="s">
+      <c r="K89" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L89" t="b">
@@ -6429,7 +6428,7 @@
       <c r="J90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K90" s="16" t="s">
+      <c r="K90" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L90" t="b">
@@ -6470,7 +6469,7 @@
       <c r="J91" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K91" s="16" t="s">
+      <c r="K91" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L91" t="b">
@@ -6511,7 +6510,7 @@
       <c r="J92" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K92" s="16" t="s">
+      <c r="K92" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L92" t="b">
@@ -6552,7 +6551,7 @@
       <c r="J93" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K93" s="17" t="s">
+      <c r="K93" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L93" t="b">
@@ -6593,7 +6592,7 @@
       <c r="J94" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K94" s="17" t="s">
+      <c r="K94" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L94" t="b">
@@ -6634,7 +6633,7 @@
       <c r="J95" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K95" s="17" t="s">
+      <c r="K95" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L95" t="b">
@@ -6675,7 +6674,7 @@
       <c r="J96" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K96" s="17" t="s">
+      <c r="K96" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L96" t="b">
@@ -6716,7 +6715,7 @@
       <c r="J97" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K97" s="16" t="s">
+      <c r="K97" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L97" t="b">
@@ -6757,7 +6756,7 @@
       <c r="J98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K98" s="16" t="s">
+      <c r="K98" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L98" t="b">
@@ -6798,7 +6797,7 @@
       <c r="J99" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K99" s="16" t="s">
+      <c r="K99" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L99" t="b">
@@ -6839,7 +6838,7 @@
       <c r="J100" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="16" t="s">
+      <c r="K100" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L100" t="b">
@@ -6880,7 +6879,7 @@
       <c r="J101" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K101" s="16" t="s">
+      <c r="K101" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L101" t="b">
@@ -6921,7 +6920,7 @@
       <c r="J102" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K102" s="16" t="s">
+      <c r="K102" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L102" t="b">
@@ -6962,7 +6961,7 @@
       <c r="J103" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K103" s="16" t="s">
+      <c r="K103" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L103" t="b">
@@ -7003,7 +7002,7 @@
       <c r="J104" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K104" s="16" t="s">
+      <c r="K104" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L104" t="b">
@@ -7044,7 +7043,7 @@
       <c r="J105" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K105" s="16" t="s">
+      <c r="K105" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L105" t="b">
@@ -7085,7 +7084,7 @@
       <c r="J106" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K106" s="16" t="s">
+      <c r="K106" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L106" t="b">
@@ -7126,7 +7125,7 @@
       <c r="J107" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K107" s="16" t="s">
+      <c r="K107" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L107" t="b">
@@ -7141,19 +7140,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>487</v>
+      </c>
+      <c r="C108" t="s">
+        <v>487</v>
+      </c>
+      <c r="D108" t="s">
+        <v>487</v>
+      </c>
+      <c r="E108" t="s">
         <v>488</v>
       </c>
-      <c r="C108" t="s">
-        <v>488</v>
-      </c>
-      <c r="D108" t="s">
-        <v>488</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>489</v>
-      </c>
-      <c r="F108" t="s">
-        <v>490</v>
       </c>
       <c r="G108">
         <v>210</v>
@@ -7167,7 +7166,7 @@
       <c r="J108" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K108" s="16" t="s">
+      <c r="K108" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L108" t="b">
@@ -7208,7 +7207,7 @@
       <c r="J109" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K109" s="16" t="s">
+      <c r="K109" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L109" t="b">
@@ -7249,7 +7248,7 @@
       <c r="J110" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K110" s="16" t="s">
+      <c r="K110" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L110" t="b">
@@ -7290,7 +7289,7 @@
       <c r="J111" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K111" s="16" t="s">
+      <c r="K111" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L111" t="b">
@@ -7305,19 +7304,19 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
+        <v>491</v>
+      </c>
+      <c r="C112" t="s">
+        <v>491</v>
+      </c>
+      <c r="D112" t="s">
+        <v>491</v>
+      </c>
+      <c r="E112" t="s">
         <v>492</v>
       </c>
-      <c r="C112" t="s">
-        <v>492</v>
-      </c>
-      <c r="D112" t="s">
-        <v>492</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>493</v>
-      </c>
-      <c r="F112" t="s">
-        <v>494</v>
       </c>
       <c r="G112">
         <v>214</v>
@@ -7331,7 +7330,7 @@
       <c r="J112" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K112" s="16" t="s">
+      <c r="K112" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L112" t="b">
@@ -7372,7 +7371,7 @@
       <c r="J113" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K113" s="16" t="s">
+      <c r="K113" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L113" t="b">
@@ -7413,7 +7412,7 @@
       <c r="J114" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K114" s="16" t="s">
+      <c r="K114" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L114" t="b">
@@ -7454,7 +7453,7 @@
       <c r="J115" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K115" s="16" t="s">
+      <c r="K115" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L115" t="b">
@@ -7495,7 +7494,7 @@
       <c r="J116" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K116" s="16" t="s">
+      <c r="K116" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L116" t="b">
@@ -7516,9 +7515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7600,13 +7599,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -7702,10 +7701,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -7719,14 +7718,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -7737,13 +7736,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" t="s">
         <v>458</v>
-      </c>
-      <c r="C13" t="s">
-        <v>458</v>
-      </c>
-      <c r="E13" t="s">
-        <v>459</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -7771,13 +7770,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -7805,13 +7804,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -7907,13 +7906,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" t="s">
         <v>476</v>
-      </c>
-      <c r="C23" t="s">
-        <v>476</v>
-      </c>
-      <c r="E23" t="s">
-        <v>477</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -7924,13 +7923,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -7958,16 +7957,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="C26" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7992,13 +7991,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -8128,13 +8127,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
+        <v>459</v>
+      </c>
+      <c r="C36" t="s">
+        <v>459</v>
+      </c>
+      <c r="E36" t="s">
         <v>460</v>
-      </c>
-      <c r="C36" t="s">
-        <v>460</v>
-      </c>
-      <c r="E36" t="s">
-        <v>461</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -8502,13 +8501,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8536,13 +8535,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
+        <v>467</v>
+      </c>
+      <c r="C60" t="s">
+        <v>467</v>
+      </c>
+      <c r="E60" t="s">
         <v>468</v>
-      </c>
-      <c r="C60" t="s">
-        <v>468</v>
-      </c>
-      <c r="E60" t="s">
-        <v>469</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -9352,13 +9351,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C108" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E108" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
@@ -9420,13 +9419,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="502">
   <si>
     <t>Variable</t>
   </si>
@@ -1550,7 +1550,7 @@
     <t>BE_IND_11_INTEGER</t>
   </si>
   <si>
-    <t>BE_IND_55_REAL</t>
+    <t>BE_IND_55_STRING</t>
   </si>
 </sst>
 </file>
@@ -2750,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="G94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K26" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -7515,9 +7515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7965,8 +7965,8 @@
       <c r="E26" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>22</v>
+      <c r="F26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="503">
   <si>
     <t>Variable</t>
   </si>
@@ -1551,6 +1551,9 @@
   </si>
   <si>
     <t>BE_IND_55_STRING</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -2750,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -3652,7 +3655,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B23" t="s">
         <v>476</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B24" t="s">
         <v>479</v>
@@ -5046,7 +5049,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B57" t="s">
         <v>142</v>
@@ -5087,7 +5090,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B58" t="s">
         <v>464</v>
@@ -5128,7 +5131,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -5169,7 +5172,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s">
         <v>468</v>
@@ -5415,7 +5418,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B66" t="s">
         <v>148</v>
@@ -5456,7 +5459,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B67" t="s">
         <v>149</v>
@@ -7515,9 +7518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B22" t="s">
         <v>113</v>
@@ -7903,7 +7906,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B23" t="s">
         <v>475</v>
@@ -7920,7 +7923,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B24" t="s">
         <v>482</v>
@@ -8481,7 +8484,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B57" t="s">
         <v>388</v>
@@ -8498,7 +8501,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B58" t="s">
         <v>466</v>
@@ -8515,7 +8518,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s">
         <v>389</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s">
         <v>467</v>
@@ -8634,7 +8637,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B66" t="s">
         <v>394</v>
@@ -8651,7 +8654,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="B67" t="s">
         <v>395</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="506">
   <si>
     <t>Variable</t>
   </si>
@@ -1554,6 +1554,15 @@
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>219 - Monitoring rating</t>
+  </si>
+  <si>
+    <t>BE_IND_219_REAL</t>
+  </si>
+  <si>
+    <t>BE_IND_219</t>
   </si>
 </sst>
 </file>
@@ -2751,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="G100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7507,6 +7516,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" t="s">
+        <v>278</v>
+      </c>
+      <c r="F117" t="s">
+        <v>503</v>
+      </c>
+      <c r="G117">
+        <v>219</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -7516,11 +7566,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9499,6 +9549,23 @@
         <v>196</v>
       </c>
       <c r="F116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>504</v>
+      </c>
+      <c r="C117" t="s">
+        <v>504</v>
+      </c>
+      <c r="E117" t="s">
+        <v>505</v>
+      </c>
+      <c r="F117" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="469">
   <si>
     <t>Variable</t>
   </si>
@@ -263,9 +263,6 @@
     <t>BE_IND_44</t>
   </si>
   <si>
-    <t>BE_IND_48</t>
-  </si>
-  <si>
     <t>BE_IND_51</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>IND_44</t>
   </si>
   <si>
-    <t>IND_48</t>
-  </si>
-  <si>
     <t>IND_51</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>35 - Delta equity</t>
   </si>
   <si>
-    <t>48 - Debt Service Coverage Ratio</t>
-  </si>
-  <si>
     <t>51 - Overdraft</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>BE_IND_44_REAL</t>
   </si>
   <si>
-    <t>BE_IND_48_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_56_REAL</t>
   </si>
   <si>
@@ -473,12 +461,6 @@
     <t>BE_IND_89</t>
   </si>
   <si>
-    <t>BE_IND_90</t>
-  </si>
-  <si>
-    <t>BE_IND_92</t>
-  </si>
-  <si>
     <t>BE_IND_95</t>
   </si>
   <si>
@@ -491,12 +473,6 @@
     <t>BE_IND_98</t>
   </si>
   <si>
-    <t>BE_IND_99</t>
-  </si>
-  <si>
-    <t>BE_IND_100</t>
-  </si>
-  <si>
     <t>BE_IND_102</t>
   </si>
   <si>
@@ -719,12 +695,6 @@
     <t>IND_89</t>
   </si>
   <si>
-    <t>IND_90</t>
-  </si>
-  <si>
-    <t>IND_92</t>
-  </si>
-  <si>
     <t>IND_95</t>
   </si>
   <si>
@@ -737,12 +707,6 @@
     <t>IND_98</t>
   </si>
   <si>
-    <t>IND_99</t>
-  </si>
-  <si>
-    <t>IND_100</t>
-  </si>
-  <si>
     <t>IND_102</t>
   </si>
   <si>
@@ -965,12 +929,6 @@
     <t>89 - EBITDA/turnover - change</t>
   </si>
   <si>
-    <t xml:space="preserve">90 - Interest expenses/short term liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92 - Interest expenses/total liabilities </t>
-  </si>
-  <si>
     <t>95 - Gross margin - change</t>
   </si>
   <si>
@@ -983,12 +941,6 @@
     <t>98 - Tangible net worth - change</t>
   </si>
   <si>
-    <t xml:space="preserve">99 - Interest cover </t>
-  </si>
-  <si>
-    <t>100 - Interest cover - change</t>
-  </si>
-  <si>
     <t xml:space="preserve">102 - Labour cost/sales </t>
   </si>
   <si>
@@ -1211,12 +1163,6 @@
     <t>BE_IND_89_REAL</t>
   </si>
   <si>
-    <t>BE_IND_90_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_92_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_95_REAL</t>
   </si>
   <si>
@@ -1229,12 +1175,6 @@
     <t>BE_IND_98_REAL</t>
   </si>
   <si>
-    <t>BE_IND_99_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_100_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_102_REAL</t>
   </si>
   <si>
@@ -1436,30 +1376,6 @@
     <t>13 - Business current accounts average balance - 12 months</t>
   </si>
   <si>
-    <t>IND_91</t>
-  </si>
-  <si>
-    <t>BE_IND_91</t>
-  </si>
-  <si>
-    <t>91 - Interest expense/short term liabilities  - change</t>
-  </si>
-  <si>
-    <t>BE_IND_91_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_93_REAL</t>
-  </si>
-  <si>
-    <t>BE_IND_93</t>
-  </si>
-  <si>
-    <t>IND_93</t>
-  </si>
-  <si>
-    <t>93 - Interest expenses/total liabilities  - change</t>
-  </si>
-  <si>
     <t>BE_IND_20</t>
   </si>
   <si>
@@ -1472,30 +1388,6 @@
     <t>BE_IND_20_STRING</t>
   </si>
   <si>
-    <t>BE_IND_49_STRING</t>
-  </si>
-  <si>
-    <t>BE_IND_49</t>
-  </si>
-  <si>
-    <t>IND_49</t>
-  </si>
-  <si>
-    <t>49 - Bankruptcy proceedings started on the debtor</t>
-  </si>
-  <si>
-    <t>BE_IND_50</t>
-  </si>
-  <si>
-    <t>IND_50</t>
-  </si>
-  <si>
-    <t>50 - Group bankruptcy</t>
-  </si>
-  <si>
-    <t>BE_IND_50_STRING</t>
-  </si>
-  <si>
     <t>BE_IND_57</t>
   </si>
   <si>
@@ -1551,9 +1443,6 @@
   </si>
   <si>
     <t>BE_IND_55_STRING</t>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
   <si>
     <t>219 - Monitoring rating</t>
@@ -1569,19 +1458,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1696,40 +1578,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2760,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="G100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,7 +2656,7 @@
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="1023" width="8.7109375"/>
@@ -2797,7 +2675,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="14"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
@@ -2832,14 +2710,14 @@
       <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -2873,7 +2751,7 @@
       <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="b">
@@ -2914,7 +2792,7 @@
       <c r="J4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="b">
@@ -2929,19 +2807,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G5" s="6">
         <v>202</v>
@@ -2955,7 +2833,7 @@
       <c r="J5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="15" t="b">
+      <c r="K5" s="14" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="10" t="b">
@@ -2979,10 +2857,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2996,7 +2874,7 @@
       <c r="J6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="b">
@@ -3020,10 +2898,10 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3037,7 +2915,7 @@
       <c r="J7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="b">
@@ -3064,7 +2942,7 @@
         <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -3078,7 +2956,7 @@
       <c r="J8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="b">
@@ -3105,7 +2983,7 @@
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -3119,7 +2997,7 @@
       <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="b">
@@ -3146,7 +3024,7 @@
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -3160,7 +3038,7 @@
       <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="b">
@@ -3187,7 +3065,7 @@
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3201,7 +3079,7 @@
       <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="b">
@@ -3216,19 +3094,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="C12" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="F12" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3239,10 +3117,10 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="17" t="b">
+      <c r="K12" s="16" t="b">
         <v>1</v>
       </c>
       <c r="L12" t="b">
@@ -3257,19 +3135,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="F13" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -3283,7 +3161,7 @@
       <c r="J13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="b">
@@ -3310,7 +3188,7 @@
         <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -3324,7 +3202,7 @@
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L14" t="b">
@@ -3339,19 +3217,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D15" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E15" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="F15" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -3365,7 +3243,7 @@
       <c r="J15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L15" t="b">
@@ -3392,7 +3270,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -3406,7 +3284,7 @@
       <c r="J16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L16" t="b">
@@ -3421,19 +3299,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="D17" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="E17" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="F17" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -3447,7 +3325,7 @@
       <c r="J17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L17" t="b">
@@ -3471,10 +3349,10 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>34</v>
@@ -3488,7 +3366,7 @@
       <c r="J18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L18" t="b">
@@ -3512,10 +3390,10 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19">
         <v>35</v>
@@ -3529,7 +3407,7 @@
       <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="b">
@@ -3553,10 +3431,10 @@
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -3570,7 +3448,7 @@
       <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L20" t="b">
@@ -3594,10 +3472,10 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G21">
         <v>44</v>
@@ -3611,7 +3489,7 @@
       <c r="J21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L21" t="b">
@@ -3623,7 +3501,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -3635,13 +3513,13 @@
         <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3650,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -3664,25 +3542,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>476</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>476</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>476</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>478</v>
+        <v>94</v>
       </c>
       <c r="G23">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3690,11 +3568,11 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>13</v>
+      <c r="K23" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -3705,25 +3583,25 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>479</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>479</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>481</v>
+        <v>89</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3731,11 +3609,11 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>13</v>
+      <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -3749,34 +3627,34 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>449</v>
       </c>
       <c r="G25">
+        <v>57</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>13</v>
+      <c r="K25" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -3790,22 +3668,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="G26">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3814,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="15" t="b">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -3831,22 +3709,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="G27">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3857,7 +3735,7 @@
       <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L27" t="b">
@@ -3872,22 +3750,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>483</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>483</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>483</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>269</v>
       </c>
       <c r="G28">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3898,7 +3776,7 @@
       <c r="J28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L28" t="b">
@@ -3913,22 +3791,22 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G29">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3939,7 +3817,7 @@
       <c r="J29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="b">
@@ -3954,22 +3832,22 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G30">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3980,7 +3858,7 @@
       <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L30" t="b">
@@ -3995,22 +3873,22 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G31">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -4021,7 +3899,7 @@
       <c r="J31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L31" t="b">
@@ -4036,22 +3914,22 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G32">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -4062,7 +3940,7 @@
       <c r="J32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L32" t="b">
@@ -4077,22 +3955,22 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>459</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>460</v>
       </c>
       <c r="G33">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -4103,7 +3981,7 @@
       <c r="J33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L33" t="b">
@@ -4118,22 +3996,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G34">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4144,7 +4022,7 @@
       <c r="J34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L34" t="b">
@@ -4159,22 +4037,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G35">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4185,7 +4063,7 @@
       <c r="J35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L35" t="b">
@@ -4200,22 +4078,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>495</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>496</v>
+        <v>276</v>
       </c>
       <c r="G36">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4226,7 +4104,7 @@
       <c r="J36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L36" t="b">
@@ -4241,22 +4119,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G37">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4267,7 +4145,7 @@
       <c r="J37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L37" t="b">
@@ -4282,22 +4160,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G38">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4308,7 +4186,7 @@
       <c r="J38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L38" t="b">
@@ -4323,22 +4201,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G39">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4349,7 +4227,7 @@
       <c r="J39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="b">
@@ -4364,22 +4242,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G40">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4390,7 +4268,7 @@
       <c r="J40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="b">
@@ -4405,22 +4283,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G41">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4431,7 +4309,7 @@
       <c r="J41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L41" t="b">
@@ -4446,22 +4324,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G42">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4472,7 +4350,7 @@
       <c r="J42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K42" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L42" t="b">
@@ -4487,22 +4365,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G43">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4513,7 +4391,7 @@
       <c r="J43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="15" t="s">
+      <c r="K43" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L43" t="b">
@@ -4528,22 +4406,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G44">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4554,7 +4432,7 @@
       <c r="J44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L44" t="b">
@@ -4569,22 +4447,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G45">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4595,7 +4473,7 @@
       <c r="J45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L45" t="b">
@@ -4610,22 +4488,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G46">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4636,7 +4514,7 @@
       <c r="J46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="K46" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L46" t="b">
@@ -4651,22 +4529,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G47">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4677,7 +4555,7 @@
       <c r="J47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L47" t="b">
@@ -4692,22 +4570,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G48">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4718,7 +4596,7 @@
       <c r="J48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="b">
@@ -4733,22 +4611,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G49">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4759,7 +4637,7 @@
       <c r="J49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="15" t="s">
+      <c r="K49" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="b">
@@ -4774,22 +4652,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G50">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4800,7 +4678,7 @@
       <c r="J50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="15" t="s">
+      <c r="K50" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L50" t="b">
@@ -4815,22 +4693,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G51">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4841,7 +4719,7 @@
       <c r="J51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="b">
@@ -4856,22 +4734,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G52">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4882,7 +4760,7 @@
       <c r="J52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K52" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L52" t="b">
@@ -4897,22 +4775,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G53">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4923,7 +4801,7 @@
       <c r="J53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L53" t="b">
@@ -4938,22 +4816,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="E54" t="s">
-        <v>221</v>
+        <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="G54">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4964,7 +4842,7 @@
       <c r="J54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L54" t="b">
@@ -4979,22 +4857,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G55">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5005,7 +4883,7 @@
       <c r="J55" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L55" t="b">
@@ -5020,22 +4898,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G56">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5046,7 +4924,7 @@
       <c r="J56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L56" t="b">
@@ -5058,25 +4936,25 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5087,7 +4965,7 @@
       <c r="J57" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L57" t="b">
@@ -5099,25 +4977,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>464</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>464</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>464</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>463</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
-        <v>465</v>
+        <v>297</v>
       </c>
       <c r="G58">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5128,7 +5006,7 @@
       <c r="J58" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L58" t="b">
@@ -5140,25 +5018,25 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G59">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5169,7 +5047,7 @@
       <c r="J59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K59" s="15" t="s">
+      <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L59" t="b">
@@ -5181,25 +5059,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>468</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>468</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>468</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>469</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
-        <v>470</v>
+        <v>299</v>
       </c>
       <c r="G60">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5210,7 +5088,7 @@
       <c r="J60" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="K60" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L60" t="b">
@@ -5225,22 +5103,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
-        <v>446</v>
+        <v>300</v>
       </c>
       <c r="G61">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5251,7 +5129,7 @@
       <c r="J61" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K61" s="15" t="s">
+      <c r="K61" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L61" t="b">
@@ -5266,22 +5144,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G62">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5292,7 +5170,7 @@
       <c r="J62" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K62" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L62" t="b">
@@ -5307,22 +5185,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G63">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5333,7 +5211,7 @@
       <c r="J63" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="15" t="s">
+      <c r="K63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L63" t="b">
@@ -5348,22 +5226,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F64" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G64">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5374,7 +5252,7 @@
       <c r="J64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K64" s="15" t="s">
+      <c r="K64" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L64" t="b">
@@ -5389,22 +5267,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G65">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5415,7 +5293,7 @@
       <c r="J65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K65" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L65" t="b">
@@ -5427,25 +5305,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F66" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G66">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5456,7 +5334,7 @@
       <c r="J66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K66" s="15" t="s">
+      <c r="K66" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="b">
@@ -5468,25 +5346,25 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F67" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5497,7 +5375,7 @@
       <c r="J67" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="K67" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L67" t="b">
@@ -5512,22 +5390,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F68" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G68">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5538,7 +5416,7 @@
       <c r="J68" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K68" s="15" t="s">
+      <c r="K68" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L68" t="b">
@@ -5553,22 +5431,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F69" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G69">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5579,7 +5457,7 @@
       <c r="J69" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K69" s="15" t="s">
+      <c r="K69" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="b">
@@ -5594,22 +5472,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F70" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G70">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5620,7 +5498,7 @@
       <c r="J70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K70" s="15" t="s">
+      <c r="K70" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L70" t="b">
@@ -5635,22 +5513,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F71" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G71">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5661,7 +5539,7 @@
       <c r="J71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="K71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L71" t="b">
@@ -5676,22 +5554,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F72" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G72">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5702,7 +5580,7 @@
       <c r="J72" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K72" s="15" t="s">
+      <c r="K72" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L72" t="b">
@@ -5717,22 +5595,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F73" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G73">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5743,7 +5621,7 @@
       <c r="J73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K73" s="15" t="s">
+      <c r="K73" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L73" t="b">
@@ -5758,22 +5636,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F74" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G74">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5784,7 +5662,7 @@
       <c r="J74" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K74" s="15" t="s">
+      <c r="K74" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L74" t="b">
@@ -5799,22 +5677,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G75">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5825,7 +5703,7 @@
       <c r="J75" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K75" s="15" t="s">
+      <c r="K75" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L75" t="b">
@@ -5840,22 +5718,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F76" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G76">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5866,7 +5744,7 @@
       <c r="J76" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L76" t="b">
@@ -5881,22 +5759,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F77" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G77">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5907,7 +5785,7 @@
       <c r="J77" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K77" s="15" t="s">
+      <c r="K77" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L77" t="b">
@@ -5922,22 +5800,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G78">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5948,7 +5826,7 @@
       <c r="J78" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K78" s="15" t="s">
+      <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L78" t="b">
@@ -5963,22 +5841,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G79">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5989,7 +5867,7 @@
       <c r="J79" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K79" s="15" t="s">
+      <c r="K79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L79" t="b">
@@ -6004,22 +5882,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F80" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G80">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6030,7 +5908,7 @@
       <c r="J80" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K80" s="15" t="s">
+      <c r="K80" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L80" t="b">
@@ -6045,22 +5923,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F81" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G81">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6071,7 +5949,7 @@
       <c r="J81" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K81" s="15" t="s">
+      <c r="K81" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L81" t="b">
@@ -6086,22 +5964,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F82" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G82">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6112,7 +5990,7 @@
       <c r="J82" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K82" s="15" t="s">
+      <c r="K82" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L82" t="b">
@@ -6127,22 +6005,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F83" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G83">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6153,7 +6031,7 @@
       <c r="J83" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="15" t="s">
+      <c r="K83" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L83" t="b">
@@ -6168,22 +6046,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F84" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G84">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6192,10 +6070,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -6209,22 +6087,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F85" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G85">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6233,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -6250,22 +6128,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F86" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G86">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6274,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -6291,22 +6169,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F87" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G87">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6315,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -6332,22 +6210,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E88" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F88" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G88">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6358,7 +6236,7 @@
       <c r="J88" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K88" s="15" t="s">
+      <c r="K88" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L88" t="b">
@@ -6373,22 +6251,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F89" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G89">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6399,7 +6277,7 @@
       <c r="J89" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K89" s="15" t="s">
+      <c r="K89" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L89" t="b">
@@ -6414,22 +6292,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F90" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G90">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6440,7 +6318,7 @@
       <c r="J90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="K90" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L90" t="b">
@@ -6455,22 +6333,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F91" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G91">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6481,7 +6359,7 @@
       <c r="J91" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="K91" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L91" t="b">
@@ -6496,22 +6374,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E92" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F92" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G92">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6522,7 +6400,7 @@
       <c r="J92" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K92" s="15" t="s">
+      <c r="K92" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L92" t="b">
@@ -6537,22 +6415,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E93" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F93" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G93">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6561,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K93" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -6578,22 +6456,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E94" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F94" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G94">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6602,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -6619,22 +6497,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G95">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6643,10 +6521,10 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K95" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
@@ -6660,22 +6538,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G96">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6684,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K96" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -6701,22 +6579,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F97" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G97">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6727,7 +6605,7 @@
       <c r="J97" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K97" s="15" t="s">
+      <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L97" t="b">
@@ -6742,22 +6620,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F98" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G98">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6768,7 +6646,7 @@
       <c r="J98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K98" s="15" t="s">
+      <c r="K98" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L98" t="b">
@@ -6783,22 +6661,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="D99" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="F99" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="G99">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6809,7 +6687,7 @@
       <c r="J99" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K99" s="15" t="s">
+      <c r="K99" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L99" t="b">
@@ -6833,13 +6711,13 @@
         <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F100" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G100">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6850,7 +6728,7 @@
       <c r="J100" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="15" t="s">
+      <c r="K100" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L100" t="b">
@@ -6874,13 +6752,13 @@
         <v>183</v>
       </c>
       <c r="E101" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F101" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G101">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6891,7 +6769,7 @@
       <c r="J101" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K101" s="15" t="s">
+      <c r="K101" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L101" t="b">
@@ -6915,13 +6793,13 @@
         <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F102" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G102">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6932,7 +6810,7 @@
       <c r="J102" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K102" s="15" t="s">
+      <c r="K102" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L102" t="b">
@@ -6947,22 +6825,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="E103" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="G103">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6973,7 +6851,7 @@
       <c r="J103" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K103" s="15" t="s">
+      <c r="K103" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L103" t="b">
@@ -6988,22 +6866,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F104" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G104">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7014,7 +6892,7 @@
       <c r="J104" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K104" s="15" t="s">
+      <c r="K104" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L104" t="b">
@@ -7029,22 +6907,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F105" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G105">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7055,7 +6933,7 @@
       <c r="J105" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K105" s="15" t="s">
+      <c r="K105" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L105" t="b">
@@ -7070,22 +6948,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F106" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G106">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7096,7 +6974,7 @@
       <c r="J106" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K106" s="15" t="s">
+      <c r="K106" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L106" t="b">
@@ -7111,22 +6989,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F107" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G107">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7137,7 +7015,7 @@
       <c r="J107" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K107" s="15" t="s">
+      <c r="K107" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L107" t="b">
@@ -7152,22 +7030,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>487</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
-        <v>487</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
-        <v>487</v>
+        <v>188</v>
       </c>
       <c r="E108" t="s">
-        <v>488</v>
+        <v>266</v>
       </c>
       <c r="F108" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="G108">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7178,382 +7056,13 @@
       <c r="J108" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K108" s="15" t="s">
+      <c r="K108" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
       </c>
       <c r="M108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" t="s">
-        <v>190</v>
-      </c>
-      <c r="D109" t="s">
-        <v>190</v>
-      </c>
-      <c r="E109" t="s">
-        <v>272</v>
-      </c>
-      <c r="F109" t="s">
-        <v>354</v>
-      </c>
-      <c r="G109">
-        <v>211</v>
-      </c>
-      <c r="H109" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L109" t="b">
-        <v>0</v>
-      </c>
-      <c r="M109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" t="s">
-        <v>191</v>
-      </c>
-      <c r="D110" t="s">
-        <v>191</v>
-      </c>
-      <c r="E110" t="s">
-        <v>273</v>
-      </c>
-      <c r="F110" t="s">
-        <v>355</v>
-      </c>
-      <c r="G110">
-        <v>212</v>
-      </c>
-      <c r="H110" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L110" t="b">
-        <v>0</v>
-      </c>
-      <c r="M110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
-        <v>192</v>
-      </c>
-      <c r="C111" t="s">
-        <v>192</v>
-      </c>
-      <c r="D111" t="s">
-        <v>192</v>
-      </c>
-      <c r="E111" t="s">
-        <v>274</v>
-      </c>
-      <c r="F111" t="s">
-        <v>356</v>
-      </c>
-      <c r="G111">
-        <v>213</v>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K111" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L111" t="b">
-        <v>0</v>
-      </c>
-      <c r="M111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
-        <v>491</v>
-      </c>
-      <c r="C112" t="s">
-        <v>491</v>
-      </c>
-      <c r="D112" t="s">
-        <v>491</v>
-      </c>
-      <c r="E112" t="s">
-        <v>492</v>
-      </c>
-      <c r="F112" t="s">
-        <v>493</v>
-      </c>
-      <c r="G112">
-        <v>214</v>
-      </c>
-      <c r="H112" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K112" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L112" t="b">
-        <v>0</v>
-      </c>
-      <c r="M112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>193</v>
-      </c>
-      <c r="C113" t="s">
-        <v>193</v>
-      </c>
-      <c r="D113" t="s">
-        <v>193</v>
-      </c>
-      <c r="E113" t="s">
-        <v>275</v>
-      </c>
-      <c r="F113" t="s">
-        <v>357</v>
-      </c>
-      <c r="G113">
-        <v>215</v>
-      </c>
-      <c r="H113" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K113" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L113" t="b">
-        <v>0</v>
-      </c>
-      <c r="M113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>194</v>
-      </c>
-      <c r="C114" t="s">
-        <v>194</v>
-      </c>
-      <c r="D114" t="s">
-        <v>194</v>
-      </c>
-      <c r="E114" t="s">
-        <v>276</v>
-      </c>
-      <c r="F114" t="s">
-        <v>358</v>
-      </c>
-      <c r="G114">
-        <v>216</v>
-      </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L114" t="b">
-        <v>0</v>
-      </c>
-      <c r="M114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" t="s">
-        <v>195</v>
-      </c>
-      <c r="C115" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" t="s">
-        <v>195</v>
-      </c>
-      <c r="E115" t="s">
-        <v>277</v>
-      </c>
-      <c r="F115" t="s">
-        <v>359</v>
-      </c>
-      <c r="G115">
-        <v>217</v>
-      </c>
-      <c r="H115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K115" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L115" t="b">
-        <v>0</v>
-      </c>
-      <c r="M115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" t="s">
-        <v>196</v>
-      </c>
-      <c r="D116" t="s">
-        <v>196</v>
-      </c>
-      <c r="E116" t="s">
-        <v>278</v>
-      </c>
-      <c r="F116" t="s">
-        <v>360</v>
-      </c>
-      <c r="G116">
-        <v>218</v>
-      </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K116" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L116" t="b">
-        <v>0</v>
-      </c>
-      <c r="M116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" t="s">
-        <v>196</v>
-      </c>
-      <c r="D117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E117" t="s">
-        <v>278</v>
-      </c>
-      <c r="F117" t="s">
-        <v>503</v>
-      </c>
-      <c r="G117">
-        <v>219</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K117" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
-      <c r="M117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7566,11 +7075,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7652,13 +7161,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -7669,10 +7178,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
         <v>61</v>
@@ -7686,10 +7195,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
@@ -7720,10 +7229,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -7737,10 +7246,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -7754,10 +7263,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -7771,14 +7280,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -7789,13 +7298,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -7806,10 +7315,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -7823,13 +7332,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E15" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -7840,10 +7349,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -7857,13 +7366,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="C17" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="E17" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -7874,10 +7383,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>68</v>
@@ -7891,10 +7400,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
@@ -7908,10 +7417,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
         <v>70</v>
@@ -7925,10 +7434,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>71</v>
@@ -7939,33 +7448,33 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C23" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E23" t="s">
-        <v>476</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -7973,19 +7482,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>482</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>482</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>479</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7993,16 +7502,16 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8010,16 +7519,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="C26" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8027,13 +7536,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -8044,13 +7553,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>486</v>
+        <v>347</v>
       </c>
       <c r="C28" t="s">
-        <v>486</v>
+        <v>347</v>
       </c>
       <c r="E28" t="s">
-        <v>483</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -8061,13 +7570,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C29" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -8078,13 +7587,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C30" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -8095,13 +7604,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -8112,13 +7621,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C32" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -8129,13 +7638,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -8146,13 +7655,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -8163,13 +7672,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -8180,13 +7689,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -8197,13 +7706,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -8214,13 +7723,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -8231,13 +7740,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -8248,13 +7757,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -8265,13 +7774,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -8282,13 +7791,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -8299,13 +7808,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8316,13 +7825,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -8333,13 +7842,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8350,13 +7859,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -8367,13 +7876,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8384,13 +7893,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -8401,13 +7910,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8418,13 +7927,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C50" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -8435,13 +7944,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8452,13 +7961,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -8469,13 +7978,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C53" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8486,13 +7995,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C54" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8503,13 +8012,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C55" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8520,13 +8029,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C56" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8534,16 +8043,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C57" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8551,16 +8060,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="C58" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="E58" t="s">
-        <v>464</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8568,16 +8077,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8585,16 +8094,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="C60" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="E60" t="s">
-        <v>468</v>
+        <v>143</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8605,13 +8114,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8622,13 +8131,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8639,13 +8148,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8656,13 +8165,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C64" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8673,13 +8182,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C65" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8687,16 +8196,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8704,16 +8213,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8724,13 +8233,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C68" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8741,13 +8250,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8758,13 +8267,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8775,13 +8284,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8792,13 +8301,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8809,13 +8318,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C73" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8826,13 +8335,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C74" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8843,13 +8352,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C75" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8860,13 +8369,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8877,13 +8386,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8894,13 +8403,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C78" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8911,13 +8420,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8928,13 +8437,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C80" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8945,13 +8454,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C81" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8962,13 +8471,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C82" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8979,13 +8488,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C83" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8996,16 +8505,16 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C84" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -9013,16 +8522,16 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C85" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -9030,16 +8539,16 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C86" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -9047,16 +8556,16 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9064,13 +8573,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C88" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -9081,13 +8590,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C89" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -9098,13 +8607,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C90" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -9115,13 +8624,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C91" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -9132,13 +8641,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C92" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -9149,16 +8658,16 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C93" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9166,16 +8675,16 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C94" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -9183,16 +8692,16 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -9200,16 +8709,16 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -9217,13 +8726,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -9234,13 +8743,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -9251,13 +8760,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C99" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -9268,10 +8777,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C100" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E100" t="s">
         <v>182</v>
@@ -9285,10 +8794,10 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C101" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E101" t="s">
         <v>183</v>
@@ -9302,10 +8811,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E102" t="s">
         <v>184</v>
@@ -9319,13 +8828,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C103" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9336,13 +8845,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9353,13 +8862,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C105" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9370,13 +8879,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C106" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9387,13 +8896,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9404,168 +8913,15 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C108" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="E108" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>436</v>
-      </c>
-      <c r="C109" t="s">
-        <v>436</v>
-      </c>
-      <c r="E109" t="s">
-        <v>190</v>
-      </c>
-      <c r="F109" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" t="s">
-        <v>437</v>
-      </c>
-      <c r="E110" t="s">
-        <v>191</v>
-      </c>
-      <c r="F110" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
-        <v>438</v>
-      </c>
-      <c r="C111" t="s">
-        <v>438</v>
-      </c>
-      <c r="E111" t="s">
-        <v>192</v>
-      </c>
-      <c r="F111" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
-        <v>494</v>
-      </c>
-      <c r="C112" t="s">
-        <v>494</v>
-      </c>
-      <c r="E112" t="s">
-        <v>491</v>
-      </c>
-      <c r="F112" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>439</v>
-      </c>
-      <c r="C113" t="s">
-        <v>439</v>
-      </c>
-      <c r="E113" t="s">
-        <v>193</v>
-      </c>
-      <c r="F113" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>440</v>
-      </c>
-      <c r="C114" t="s">
-        <v>440</v>
-      </c>
-      <c r="E114" t="s">
-        <v>194</v>
-      </c>
-      <c r="F114" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" t="s">
-        <v>441</v>
-      </c>
-      <c r="C115" t="s">
-        <v>441</v>
-      </c>
-      <c r="E115" t="s">
-        <v>195</v>
-      </c>
-      <c r="F115" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" t="s">
-        <v>442</v>
-      </c>
-      <c r="C116" t="s">
-        <v>442</v>
-      </c>
-      <c r="E116" t="s">
-        <v>196</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>504</v>
-      </c>
-      <c r="C117" t="s">
-        <v>504</v>
-      </c>
-      <c r="E117" t="s">
-        <v>505</v>
-      </c>
-      <c r="F117" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="470">
   <si>
     <t>Variable</t>
   </si>
@@ -1452,6 +1452,9 @@
   </si>
   <si>
     <t>BE_IND_219</t>
+  </si>
+  <si>
+    <t>IND_219</t>
   </si>
 </sst>
 </file>
@@ -2640,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="G94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7030,16 +7033,16 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="E108" t="s">
-        <v>266</v>
+        <v>469</v>
       </c>
       <c r="F108" t="s">
         <v>466</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1448,13 +1448,13 @@
     <t>219 - Monitoring rating</t>
   </si>
   <si>
-    <t>BE_IND_219_REAL</t>
-  </si>
-  <si>
     <t>BE_IND_219</t>
   </si>
   <si>
     <t>IND_219</t>
+  </si>
+  <si>
+    <t>BE_IND_219_STRING</t>
   </si>
 </sst>
 </file>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView topLeftCell="G79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,16 +7033,16 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>467</v>
+      </c>
+      <c r="C108" t="s">
+        <v>467</v>
+      </c>
+      <c r="D108" t="s">
+        <v>467</v>
+      </c>
+      <c r="E108" t="s">
         <v>468</v>
-      </c>
-      <c r="C108" t="s">
-        <v>468</v>
-      </c>
-      <c r="D108" t="s">
-        <v>468</v>
-      </c>
-      <c r="E108" t="s">
-        <v>469</v>
       </c>
       <c r="F108" t="s">
         <v>466</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108" s="14" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -7080,9 +7080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8916,16 +8916,16 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>469</v>
+      </c>
+      <c r="C108" t="s">
+        <v>469</v>
+      </c>
+      <c r="E108" t="s">
         <v>467</v>
       </c>
-      <c r="C108" t="s">
-        <v>467</v>
-      </c>
-      <c r="E108" t="s">
-        <v>468</v>
-      </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
     <t>IND_219</t>
   </si>
   <si>
-    <t>BE_IND_219_STRING</t>
+    <t>BE_IND_219_REAL</t>
   </si>
 </sst>
 </file>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="G79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" topLeftCell="G94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -7080,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
@@ -8925,7 +8925,7 @@
         <v>467</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
     <t>IND_219</t>
   </si>
   <si>
-    <t>BE_IND_219_REAL</t>
+    <t>BE_IND_219_STRING</t>
   </si>
 </sst>
 </file>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView topLeftCell="G82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108" s="14" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -7080,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
@@ -8925,7 +8925,7 @@
         <v>467</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="466">
   <si>
     <t>Variable</t>
   </si>
@@ -1386,18 +1386,6 @@
   </si>
   <si>
     <t>BE_IND_20_STRING</t>
-  </si>
-  <si>
-    <t>BE_IND_57</t>
-  </si>
-  <si>
-    <t>IND_57</t>
-  </si>
-  <si>
-    <t>57 - Max number of days with overdue</t>
-  </si>
-  <si>
-    <t>BE_IND_57_REAL</t>
   </si>
   <si>
     <t>BE_IND_210</t>
@@ -2641,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView topLeftCell="G82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,19 +3085,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3630,22 +3618,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="G25">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3671,22 +3659,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G26">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3712,22 +3700,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G27">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3753,22 +3741,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3794,22 +3782,22 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3835,22 +3823,22 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G30">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3876,22 +3864,22 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G31">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3917,22 +3905,22 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>455</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="G32">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3958,22 +3946,22 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>459</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>460</v>
+        <v>274</v>
       </c>
       <c r="G33">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -3999,22 +3987,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G34">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4040,22 +4028,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G35">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4081,22 +4069,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G36">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4122,22 +4110,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G37">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4163,22 +4151,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G38">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4204,22 +4192,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G39">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4245,22 +4233,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G40">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4286,22 +4274,22 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G41">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4327,22 +4315,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G42">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4368,22 +4356,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G43">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4409,22 +4397,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G44">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4450,22 +4438,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G45">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4491,22 +4479,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G46">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4532,22 +4520,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G47">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4573,22 +4561,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G48">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4614,22 +4602,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G49">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4655,22 +4643,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G50">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4696,22 +4684,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G51">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4737,22 +4725,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G52">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4778,22 +4766,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>426</v>
       </c>
       <c r="G53">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4819,22 +4807,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>425</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>294</v>
       </c>
       <c r="G54">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4860,22 +4848,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G55">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4901,22 +4889,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G56">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -4942,22 +4930,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G57">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -4983,22 +4971,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G58">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5024,22 +5012,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G59">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5065,22 +5053,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G60">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5106,22 +5094,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G61">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5147,22 +5135,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G62">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5188,22 +5176,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G63">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5229,22 +5217,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G64">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5270,22 +5258,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G65">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5311,22 +5299,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G66">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5352,22 +5340,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G67">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5393,22 +5381,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G68">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5434,22 +5422,22 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G69">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5475,22 +5463,22 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G70">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5516,22 +5504,22 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G71">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5557,22 +5545,22 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G72">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5598,22 +5586,22 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G73">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5639,22 +5627,22 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G74">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5680,22 +5668,22 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G75">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5721,22 +5709,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G76">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5762,22 +5750,22 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G77">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5803,22 +5791,22 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G78">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5844,22 +5832,22 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G79">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5885,22 +5873,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G80">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -5926,22 +5914,22 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G81">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -5967,22 +5955,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G82">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6008,22 +5996,22 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G83">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6032,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K83" s="14" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -6049,22 +6037,22 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6090,22 +6078,22 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G85">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6131,22 +6119,22 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G86">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6172,22 +6160,22 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F87" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G87">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6196,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -6213,22 +6201,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6254,22 +6242,22 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G89">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6295,22 +6283,22 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F90" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G90">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6336,22 +6324,22 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G91">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6377,22 +6365,22 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F92" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G92">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6418,22 +6406,22 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F93" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G93">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6459,22 +6447,22 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F94" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G94">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6500,22 +6488,22 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F95" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G95">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6541,22 +6529,22 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F96" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G96">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6582,22 +6570,22 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G97">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6623,22 +6611,22 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="E98" t="s">
-        <v>259</v>
+        <v>448</v>
       </c>
       <c r="F98" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="G98">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6664,22 +6652,22 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="D99" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="E99" t="s">
-        <v>452</v>
+        <v>260</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="G99">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6705,22 +6693,22 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F100" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6746,22 +6734,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F101" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6787,22 +6775,22 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="E102" t="s">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="F102" t="s">
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="G102">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6828,22 +6816,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>455</v>
+        <v>185</v>
       </c>
       <c r="C103" t="s">
-        <v>455</v>
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>455</v>
+        <v>185</v>
       </c>
       <c r="E103" t="s">
-        <v>456</v>
+        <v>263</v>
       </c>
       <c r="F103" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="G103">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6869,22 +6857,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F104" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G104">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -6910,22 +6898,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F105" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G105">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -6951,22 +6939,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -6992,22 +6980,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>463</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>463</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>463</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
+        <v>464</v>
       </c>
       <c r="F107" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="G107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7016,56 +7004,15 @@
         <v>0</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K107" s="14" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="K107" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
       </c>
       <c r="M107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" t="s">
-        <v>467</v>
-      </c>
-      <c r="C108" t="s">
-        <v>467</v>
-      </c>
-      <c r="D108" t="s">
-        <v>467</v>
-      </c>
-      <c r="E108" t="s">
-        <v>468</v>
-      </c>
-      <c r="F108" t="s">
-        <v>466</v>
-      </c>
-      <c r="G108">
-        <v>219</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L108" t="b">
-        <v>0</v>
-      </c>
-      <c r="M108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7078,11 +7025,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7283,14 +7230,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -7471,10 +7418,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E23" t="s">
         <v>73</v>
@@ -7505,13 +7452,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -7522,13 +7469,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -7539,13 +7486,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -7556,13 +7503,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -7573,13 +7520,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -7590,13 +7537,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -7607,13 +7554,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -7624,13 +7571,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -7641,13 +7588,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -7658,13 +7605,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -7675,13 +7622,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -7692,13 +7639,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -7709,13 +7656,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -7726,13 +7673,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -7743,13 +7690,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -7760,13 +7707,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -7777,13 +7724,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7794,13 +7741,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -7811,13 +7758,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -7828,13 +7775,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -7845,13 +7792,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C45" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -7862,13 +7809,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -7879,13 +7826,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7896,13 +7843,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7913,13 +7860,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7930,13 +7877,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7947,13 +7894,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C51" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7964,13 +7911,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7981,13 +7928,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -7998,13 +7945,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="C54" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8015,13 +7962,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8032,13 +7979,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8049,13 +7996,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8066,13 +8013,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8083,13 +8030,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8100,13 +8047,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8117,13 +8064,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8134,13 +8081,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8151,13 +8098,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8168,13 +8115,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8185,13 +8132,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C65" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8202,13 +8149,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C66" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8219,13 +8166,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8236,13 +8183,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8253,13 +8200,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C69" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8270,13 +8217,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8287,13 +8234,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C71" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8304,13 +8251,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C72" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8321,13 +8268,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C73" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8338,13 +8285,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C74" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8355,13 +8302,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C75" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8372,13 +8319,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C76" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8389,13 +8336,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C77" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8406,13 +8353,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8423,13 +8370,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C79" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8440,13 +8387,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C80" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8457,13 +8404,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C81" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8474,13 +8421,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8491,16 +8438,16 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -8508,13 +8455,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
         <v>23</v>
@@ -8525,13 +8472,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C85" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F85" t="s">
         <v>23</v>
@@ -8542,13 +8489,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C86" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
@@ -8559,16 +8506,16 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8576,13 +8523,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C88" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -8593,13 +8540,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C89" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -8610,13 +8557,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C90" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -8627,13 +8574,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C91" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -8644,13 +8591,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C92" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -8661,13 +8608,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E93" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -8678,13 +8625,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C94" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -8695,13 +8642,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C95" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -8712,13 +8659,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C96" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -8729,13 +8676,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C97" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -8746,13 +8693,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="C98" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -8763,13 +8710,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C99" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="E99" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -8780,13 +8727,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8797,13 +8744,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8814,13 +8761,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="C102" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8831,13 +8778,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="C103" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="E103" t="s">
-        <v>455</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8848,13 +8795,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C104" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8865,13 +8812,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -8882,13 +8829,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -8899,32 +8846,15 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="C107" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>463</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" t="s">
-        <v>469</v>
-      </c>
-      <c r="C108" t="s">
-        <v>469</v>
-      </c>
-      <c r="E108" t="s">
-        <v>467</v>
-      </c>
-      <c r="F108" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="r Variable_DataType" sheetId="3" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$107</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1702,8 +1705,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>119409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1760,8 +1763,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>119409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1818,8 +1821,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>119409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1876,8 +1879,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>119409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1934,8 +1937,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>119409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2629,10 +2632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2875,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>50</v>
@@ -3326,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
@@ -3572,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
@@ -4351,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>11</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>11</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>11</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>11</v>
       </c>
@@ -4966,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>11</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>11</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
@@ -5130,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>11</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>11</v>
       </c>
@@ -5294,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>11</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>11</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>11</v>
       </c>
@@ -5417,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>11</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>11</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>11</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>11</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>11</v>
       </c>
@@ -5745,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>11</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>11</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>11</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>11</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>11</v>
       </c>
@@ -5991,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>11</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>11</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>11</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>11</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
@@ -6196,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>11</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>11</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
@@ -6319,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>11</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>11</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>11</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>11</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>11</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>11</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>11</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>11</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>11</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>11</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>11</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>11</v>
       </c>
@@ -6811,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>11</v>
       </c>
@@ -6852,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>11</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>11</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>11</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>11</v>
       </c>
@@ -7017,6 +7021,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:M107">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="true"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
